--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF33DD-BC8D-4773-B6A1-FAFCFD88A86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBBC3F-5A84-4A80-857E-2D905B521863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7306" uniqueCount="2916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7320" uniqueCount="2929">
   <si>
     <t>ID</t>
   </si>
@@ -8695,9 +8695,6 @@
     <t>Elevation_m</t>
   </si>
   <si>
-    <t>Forest_type</t>
-  </si>
-  <si>
     <t>Fire_type</t>
   </si>
   <si>
@@ -8740,9 +8737,6 @@
     <t>35°24'00.0"E</t>
   </si>
   <si>
-    <t>Pinus_halepensis; Cedrus_deodara</t>
-  </si>
-  <si>
     <t>0.15</t>
   </si>
   <si>
@@ -8789,6 +8783,51 @@
   </si>
   <si>
     <t>Quality?</t>
+  </si>
+  <si>
+    <t>Research_type</t>
+  </si>
+  <si>
+    <t>Forest_species1</t>
+  </si>
+  <si>
+    <t>Forest_species2</t>
+  </si>
+  <si>
+    <t>Pinus_halepensis</t>
+  </si>
+  <si>
+    <t>Cedrus_deodara</t>
+  </si>
+  <si>
+    <t>Descriptive</t>
+  </si>
+  <si>
+    <t>Wildfire</t>
+  </si>
+  <si>
+    <t>Stand_replacing_fire</t>
+  </si>
+  <si>
+    <t>N_soil_samples</t>
+  </si>
+  <si>
+    <t>Origin_species1</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Origin_species2</t>
+  </si>
+  <si>
+    <t>Non_native</t>
+  </si>
+  <si>
+    <t>Sample_type</t>
+  </si>
+  <si>
+    <t>Root_tip</t>
   </si>
 </sst>
 </file>
@@ -8881,7 +8920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8899,6 +8938,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9116,7 +9156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -9187,10 +9227,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10094,7 +10134,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11288,7 +11328,7 @@
         <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12486,7 +12526,7 @@
         <v>275</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13489,7 +13529,7 @@
         <v>40</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="Q87" s="7"/>
     </row>
@@ -18557,7 +18597,7 @@
         <v>275</v>
       </c>
       <c r="Q188" s="7" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -18904,7 +18944,7 @@
         <v>1113</v>
       </c>
       <c r="Q195" s="7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20751,7 +20791,7 @@
         <v>1113</v>
       </c>
       <c r="Q232" s="15" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -22441,7 +22481,7 @@
         <v>40</v>
       </c>
       <c r="Q266" s="15" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="267" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -24237,7 +24277,7 @@
         <v>27</v>
       </c>
       <c r="Q302" s="4" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="303" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25135,7 +25175,7 @@
         <v>27</v>
       </c>
       <c r="Q320" s="15" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="321" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25335,7 +25375,7 @@
         <v>40</v>
       </c>
       <c r="Q324" s="15" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="325" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -26739,7 +26779,7 @@
         <v>40</v>
       </c>
       <c r="Q352" s="15" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27549,7 +27589,7 @@
         <v>275</v>
       </c>
       <c r="Q368" s="9" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="R368" s="8"/>
       <c r="S368" s="8"/>
@@ -28254,7 +28294,7 @@
         <v>1263</v>
       </c>
       <c r="Q382" s="7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="383" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -29850,7 +29890,7 @@
         <v>275</v>
       </c>
       <c r="Q414" s="15" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="415" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -30299,7 +30339,7 @@
         <v>275</v>
       </c>
       <c r="Q423" s="14" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="424" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -30648,7 +30688,7 @@
         <v>275</v>
       </c>
       <c r="Q430" s="15" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="431" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -31201,7 +31241,7 @@
         <v>2269</v>
       </c>
       <c r="Q441" s="14" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="442" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -31250,7 +31290,7 @@
         <v>1263</v>
       </c>
       <c r="Q442" s="7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="443" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -31844,7 +31884,7 @@
         <v>1615</v>
       </c>
       <c r="Q454" s="7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="455" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -32499,7 +32539,7 @@
         <v>275</v>
       </c>
       <c r="Q467" s="14" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="468" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -33977,7 +34017,7 @@
         <v>2269</v>
       </c>
       <c r="Q497" s="14" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="498" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -34175,7 +34215,7 @@
         <v>2223</v>
       </c>
       <c r="Q501" s="15" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="502" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -35622,7 +35662,7 @@
         <v>40</v>
       </c>
       <c r="Q530" s="15" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="531" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -36820,7 +36860,7 @@
         <v>40</v>
       </c>
       <c r="Q554" s="15" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="555" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -38276,29 +38316,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" customWidth="1"/>
-    <col min="18" max="33" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="12" width="15.90625" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="18.90625" customWidth="1"/>
+    <col min="23" max="23" width="17.453125" customWidth="1"/>
+    <col min="24" max="39" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -38306,115 +38354,157 @@
         <v>2878</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2879</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2880</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2881</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>2882</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2883</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>2915</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2923</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2925</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>2884</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>2885</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>2886</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>2887</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>2888</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>2889</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>2890</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>2922</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>2927</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>2891</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>2892</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>2893</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="13" t="s">
         <v>2894</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="17" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D3" s="13">
         <v>2024</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>2896</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="13">
+        <v>850</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>2926</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>2921</v>
+      </c>
+      <c r="O3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="P3" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>2898</v>
       </c>
-      <c r="G3" s="13">
-        <v>850</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>2899</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13">
-        <v>7</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>2900</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>2901</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>2902</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4778E44-C5CC-4B77-96F9-28D24A59AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26710E8F-611D-44E7-8383-F426E62EA144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="2926">
   <si>
     <t>ID</t>
   </si>
@@ -8801,9 +8801,6 @@
   </si>
   <si>
     <t>Root_tip</t>
-  </si>
-  <si>
-    <t>Sweden</t>
   </si>
   <si>
     <t>None</t>
@@ -9168,7 +9165,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -9223,7 +9220,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
@@ -9238,10 +9235,10 @@
         <v>2904</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9442,7 +9439,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -36631,7 +36628,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36736,7 +36733,7 @@
         <v>2887</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36808,32 +36805,10 @@
         <v>2893</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>4</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2022</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>2920</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>2911</v>
-      </c>
-      <c r="O4" s="17">
-        <v>2014</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>13000</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192EABF-24E9-40F1-80DE-DD4E3A1C156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1F1A7-F54A-4EB8-A191-7C2CD68EA411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9202,11 +9202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9389,7 +9388,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9834,7 +9833,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9882,7 +9881,7 @@
       </c>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10030,7 +10029,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10078,7 +10077,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10124,7 +10123,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10218,7 +10217,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10310,7 +10309,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10358,7 +10357,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10406,7 +10405,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10500,7 +10499,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10594,7 +10593,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11008,7 +11007,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11148,7 +11147,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11242,7 +11241,7 @@
       </c>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -11570,7 +11569,7 @@
       </c>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -11618,7 +11617,7 @@
       </c>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -11666,7 +11665,7 @@
       </c>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -11714,7 +11713,7 @@
       </c>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -11762,7 +11761,7 @@
       </c>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -11810,7 +11809,7 @@
       </c>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11856,7 +11855,7 @@
       </c>
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -12134,7 +12133,7 @@
       </c>
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -12182,7 +12181,7 @@
       </c>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -12274,7 +12273,7 @@
       </c>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -12368,7 +12367,7 @@
       </c>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -12418,7 +12417,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -12466,7 +12465,7 @@
       </c>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -12514,7 +12513,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -12608,7 +12607,7 @@
       </c>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -12654,7 +12653,7 @@
       </c>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -12702,7 +12701,7 @@
       </c>
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -12750,7 +12749,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -12798,7 +12797,7 @@
       </c>
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -12892,7 +12891,7 @@
       </c>
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -12984,7 +12983,7 @@
       </c>
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -13032,7 +13031,7 @@
       </c>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -13080,7 +13079,7 @@
       </c>
       <c r="P81" s="7"/>
     </row>
-    <row r="82" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -13126,7 +13125,7 @@
       </c>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -13172,7 +13171,7 @@
       </c>
       <c r="P83" s="7"/>
     </row>
-    <row r="84" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -13266,7 +13265,7 @@
       </c>
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -13314,7 +13313,7 @@
       </c>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -13362,7 +13361,7 @@
       </c>
       <c r="P87" s="7"/>
     </row>
-    <row r="88" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -13410,7 +13409,7 @@
       </c>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -13504,7 +13503,7 @@
       </c>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -13552,7 +13551,7 @@
       </c>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -13646,7 +13645,7 @@
       </c>
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -13738,7 +13737,7 @@
       </c>
       <c r="P95" s="7"/>
     </row>
-    <row r="96" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -13880,7 +13879,7 @@
       </c>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -13926,7 +13925,7 @@
       </c>
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -14114,7 +14113,7 @@
       </c>
       <c r="P103" s="7"/>
     </row>
-    <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -14160,7 +14159,7 @@
       </c>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -14208,7 +14207,7 @@
       </c>
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -14256,7 +14255,7 @@
       </c>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -14396,7 +14395,7 @@
       </c>
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -14444,7 +14443,7 @@
       </c>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -14536,7 +14535,7 @@
       </c>
       <c r="P112" s="5"/>
     </row>
-    <row r="113" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -14630,7 +14629,7 @@
       </c>
       <c r="P114" s="5"/>
     </row>
-    <row r="115" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -14678,7 +14677,7 @@
       </c>
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -14772,7 +14771,7 @@
       </c>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14820,7 +14819,7 @@
       </c>
       <c r="P118" s="5"/>
     </row>
-    <row r="119" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14914,7 +14913,7 @@
       </c>
       <c r="P120" s="5"/>
     </row>
-    <row r="121" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -15008,7 +15007,7 @@
       </c>
       <c r="P122" s="5"/>
     </row>
-    <row r="123" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -15056,7 +15055,7 @@
       </c>
       <c r="P123" s="7"/>
     </row>
-    <row r="124" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -15104,7 +15103,7 @@
       </c>
       <c r="P124" s="5"/>
     </row>
-    <row r="125" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -15152,7 +15151,7 @@
       </c>
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -15200,7 +15199,7 @@
       </c>
       <c r="P126" s="5"/>
     </row>
-    <row r="127" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -15294,7 +15293,7 @@
       </c>
       <c r="P128" s="5"/>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -15342,7 +15341,7 @@
       </c>
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15388,7 +15387,7 @@
       </c>
       <c r="P130" s="5"/>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15436,7 +15435,7 @@
       </c>
       <c r="P131" s="7"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15484,7 +15483,7 @@
       </c>
       <c r="P132" s="5"/>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15578,7 +15577,7 @@
       </c>
       <c r="P134" s="5"/>
     </row>
-    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15626,7 +15625,7 @@
       </c>
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15674,7 +15673,7 @@
       </c>
       <c r="P136" s="5"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15814,7 +15813,7 @@
       </c>
       <c r="P139" s="7"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15860,7 +15859,7 @@
       </c>
       <c r="P140" s="5"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15954,7 +15953,7 @@
       </c>
       <c r="P142" s="5"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16000,7 +15999,7 @@
       </c>
       <c r="P143" s="7"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16048,7 +16047,7 @@
       </c>
       <c r="P144" s="5"/>
     </row>
-    <row r="145" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16096,7 +16095,7 @@
       </c>
       <c r="P145" s="7"/>
     </row>
-    <row r="146" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16144,7 +16143,7 @@
       </c>
       <c r="P146" s="5"/>
     </row>
-    <row r="147" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16192,7 +16191,7 @@
       </c>
       <c r="P147" s="7"/>
     </row>
-    <row r="148" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16240,7 +16239,7 @@
       </c>
       <c r="P148" s="5"/>
     </row>
-    <row r="149" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16288,7 +16287,7 @@
       </c>
       <c r="P149" s="7"/>
     </row>
-    <row r="150" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16336,7 +16335,7 @@
       </c>
       <c r="P150" s="5"/>
     </row>
-    <row r="151" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16382,7 +16381,7 @@
       </c>
       <c r="P151" s="7"/>
     </row>
-    <row r="152" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16476,7 +16475,7 @@
       </c>
       <c r="P153" s="7"/>
     </row>
-    <row r="154" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16710,7 +16709,7 @@
       </c>
       <c r="P158" s="5"/>
     </row>
-    <row r="159" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -16804,7 +16803,7 @@
       </c>
       <c r="P160" s="5"/>
     </row>
-    <row r="161" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -16898,7 +16897,7 @@
       </c>
       <c r="P162" s="5"/>
     </row>
-    <row r="163" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -16946,7 +16945,7 @@
       </c>
       <c r="P163" s="7"/>
     </row>
-    <row r="164" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -16992,7 +16991,7 @@
       </c>
       <c r="P164" s="5"/>
     </row>
-    <row r="165" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17040,7 +17039,7 @@
       </c>
       <c r="P165" s="7"/>
     </row>
-    <row r="166" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17088,7 +17087,7 @@
       </c>
       <c r="P166" s="5"/>
     </row>
-    <row r="167" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -17134,7 +17133,7 @@
       </c>
       <c r="P167" s="7"/>
     </row>
-    <row r="168" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -17182,7 +17181,7 @@
       </c>
       <c r="P168" s="5"/>
     </row>
-    <row r="169" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -17228,7 +17227,7 @@
       </c>
       <c r="P169" s="7"/>
     </row>
-    <row r="170" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -17322,7 +17321,7 @@
       </c>
       <c r="P171" s="7"/>
     </row>
-    <row r="172" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -17370,7 +17369,7 @@
       </c>
       <c r="P172" s="5"/>
     </row>
-    <row r="173" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -17418,7 +17417,7 @@
       </c>
       <c r="P173" s="7"/>
     </row>
-    <row r="174" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -17512,7 +17511,7 @@
       </c>
       <c r="P175" s="7"/>
     </row>
-    <row r="176" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -17560,7 +17559,7 @@
       </c>
       <c r="P176" s="5"/>
     </row>
-    <row r="177" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -17608,7 +17607,7 @@
       </c>
       <c r="P177" s="7"/>
     </row>
-    <row r="178" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -17702,7 +17701,7 @@
       </c>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -17794,7 +17793,7 @@
       </c>
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -17842,7 +17841,7 @@
       </c>
       <c r="P182" s="5"/>
     </row>
-    <row r="183" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -17982,7 +17981,7 @@
       </c>
       <c r="P185" s="7"/>
     </row>
-    <row r="186" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -18076,7 +18075,7 @@
       </c>
       <c r="P187" s="7"/>
     </row>
-    <row r="188" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -18172,7 +18171,7 @@
       </c>
       <c r="P189" s="7"/>
     </row>
-    <row r="190" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -18404,7 +18403,7 @@
       </c>
       <c r="P194" s="5"/>
     </row>
-    <row r="195" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -18452,7 +18451,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -18500,7 +18499,7 @@
       </c>
       <c r="P196" s="5"/>
     </row>
-    <row r="197" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -18548,7 +18547,7 @@
       </c>
       <c r="P197" s="7"/>
     </row>
-    <row r="198" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -18596,7 +18595,7 @@
       </c>
       <c r="P198" s="5"/>
     </row>
-    <row r="199" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -18734,7 +18733,7 @@
       </c>
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -18780,7 +18779,7 @@
       </c>
       <c r="P202" s="5"/>
     </row>
-    <row r="203" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -18874,7 +18873,7 @@
       </c>
       <c r="P204" s="5"/>
     </row>
-    <row r="205" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -18920,7 +18919,7 @@
       </c>
       <c r="P205" s="7"/>
     </row>
-    <row r="206" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -18968,7 +18967,7 @@
       </c>
       <c r="P206" s="5"/>
     </row>
-    <row r="207" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -19246,7 +19245,7 @@
       </c>
       <c r="P212" s="5"/>
     </row>
-    <row r="213" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -19340,7 +19339,7 @@
       </c>
       <c r="P214" s="5"/>
     </row>
-    <row r="215" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -19434,7 +19433,7 @@
       </c>
       <c r="P216" s="5"/>
     </row>
-    <row r="217" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -19480,7 +19479,7 @@
       </c>
       <c r="P217" s="7"/>
     </row>
-    <row r="218" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -19528,7 +19527,7 @@
       </c>
       <c r="P218" s="5"/>
     </row>
-    <row r="219" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -19576,7 +19575,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19718,7 +19717,7 @@
       </c>
       <c r="P222" s="4"/>
     </row>
-    <row r="223" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19766,7 +19765,7 @@
       </c>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19814,7 +19813,7 @@
       </c>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19908,7 +19907,7 @@
       </c>
       <c r="P226" s="4"/>
     </row>
-    <row r="227" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -20048,7 +20047,7 @@
       </c>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -20094,7 +20093,7 @@
       </c>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -20142,7 +20141,7 @@
       </c>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -20282,7 +20281,7 @@
       </c>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20328,7 +20327,7 @@
       </c>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20422,7 +20421,7 @@
       </c>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20562,7 +20561,7 @@
       </c>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20610,7 +20609,7 @@
       </c>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20658,7 +20657,7 @@
       </c>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20750,7 +20749,7 @@
       </c>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20844,7 +20843,7 @@
       </c>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20940,7 +20939,7 @@
       </c>
       <c r="P248" s="4"/>
     </row>
-    <row r="249" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21172,7 +21171,7 @@
       </c>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21266,7 +21265,7 @@
       </c>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21404,7 +21403,7 @@
       </c>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21452,7 +21451,7 @@
       </c>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21544,7 +21543,7 @@
       </c>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -21590,7 +21589,7 @@
       </c>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -21638,7 +21637,7 @@
       </c>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -21734,7 +21733,7 @@
       </c>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -21780,7 +21779,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -21966,7 +21965,7 @@
       </c>
       <c r="P270" s="4"/>
     </row>
-    <row r="271" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22058,7 +22057,7 @@
       </c>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22104,7 +22103,7 @@
       </c>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22200,7 +22199,7 @@
       </c>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -22246,7 +22245,7 @@
       </c>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -22294,7 +22293,7 @@
       </c>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -22436,7 +22435,7 @@
       </c>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -22484,7 +22483,7 @@
       </c>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -22530,7 +22529,7 @@
       </c>
       <c r="P282" s="4"/>
     </row>
-    <row r="283" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -22576,7 +22575,7 @@
       </c>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -22670,7 +22669,7 @@
       </c>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -22718,7 +22717,7 @@
       </c>
       <c r="P286" s="4"/>
     </row>
-    <row r="287" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -22766,7 +22765,7 @@
       </c>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -22860,7 +22859,7 @@
       </c>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -22908,7 +22907,7 @@
       </c>
       <c r="P290" s="4"/>
     </row>
-    <row r="291" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -22998,7 +22997,7 @@
       </c>
       <c r="P292" s="4"/>
     </row>
-    <row r="293" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -23044,7 +23043,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -23184,7 +23183,7 @@
       </c>
       <c r="P296" s="4"/>
     </row>
-    <row r="297" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -23278,7 +23277,7 @@
       </c>
       <c r="P298" s="4"/>
     </row>
-    <row r="299" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -23326,7 +23325,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -23420,7 +23419,7 @@
       </c>
       <c r="P301" s="6"/>
     </row>
-    <row r="302" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -23514,7 +23513,7 @@
       </c>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -23654,7 +23653,7 @@
       </c>
       <c r="P306" s="4"/>
     </row>
-    <row r="307" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -23700,7 +23699,7 @@
       </c>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -23794,7 +23793,7 @@
       </c>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -23842,7 +23841,7 @@
       </c>
       <c r="P310" s="4"/>
     </row>
-    <row r="311" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -23982,7 +23981,7 @@
       </c>
       <c r="P313" s="6"/>
     </row>
-    <row r="314" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -24030,7 +24029,7 @@
       </c>
       <c r="P314" s="4"/>
     </row>
-    <row r="315" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -24076,7 +24075,7 @@
       </c>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -24170,7 +24169,7 @@
       </c>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -24216,7 +24215,7 @@
       </c>
       <c r="P318" s="4"/>
     </row>
-    <row r="319" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -24264,7 +24263,7 @@
       </c>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -24312,7 +24311,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -24360,7 +24359,7 @@
       </c>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -24406,7 +24405,7 @@
       </c>
       <c r="P322" s="4"/>
     </row>
-    <row r="323" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -24454,7 +24453,7 @@
       </c>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -24546,7 +24545,7 @@
       </c>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -24686,7 +24685,7 @@
       </c>
       <c r="P328" s="4"/>
     </row>
-    <row r="329" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -24734,7 +24733,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -24782,7 +24781,7 @@
       </c>
       <c r="P330" s="4"/>
     </row>
-    <row r="331" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -24922,7 +24921,7 @@
       </c>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -24970,7 +24969,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -25064,7 +25063,7 @@
       </c>
       <c r="P336" s="4"/>
     </row>
-    <row r="337" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -25112,7 +25111,7 @@
       </c>
       <c r="P337" s="6"/>
     </row>
-    <row r="338" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -25160,7 +25159,7 @@
       </c>
       <c r="P338" s="4"/>
     </row>
-    <row r="339" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -25256,7 +25255,7 @@
       </c>
       <c r="P340" s="4"/>
     </row>
-    <row r="341" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -25304,7 +25303,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -25352,7 +25351,7 @@
       </c>
       <c r="P342" s="4"/>
     </row>
-    <row r="343" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -25400,7 +25399,7 @@
       </c>
       <c r="P343" s="6"/>
     </row>
-    <row r="344" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -25448,7 +25447,7 @@
       </c>
       <c r="P344" s="4"/>
     </row>
-    <row r="345" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -25540,7 +25539,7 @@
       </c>
       <c r="P346" s="4"/>
     </row>
-    <row r="347" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -25588,7 +25587,7 @@
       </c>
       <c r="P347" s="6"/>
     </row>
-    <row r="348" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -25680,7 +25679,7 @@
       </c>
       <c r="P349" s="6"/>
     </row>
-    <row r="350" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -25774,7 +25773,7 @@
       </c>
       <c r="P351" s="6"/>
     </row>
-    <row r="352" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -25822,7 +25821,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -25870,7 +25869,7 @@
       </c>
       <c r="P353" s="6"/>
     </row>
-    <row r="354" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -25918,7 +25917,7 @@
       </c>
       <c r="P354" s="4"/>
     </row>
-    <row r="355" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -25966,7 +25965,7 @@
       </c>
       <c r="P355" s="6"/>
     </row>
-    <row r="356" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -26060,7 +26059,7 @@
       </c>
       <c r="P357" s="6"/>
     </row>
-    <row r="358" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -26108,7 +26107,7 @@
       </c>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -26202,7 +26201,7 @@
       </c>
       <c r="P360" s="4"/>
     </row>
-    <row r="361" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -26250,7 +26249,7 @@
       </c>
       <c r="P361" s="6"/>
     </row>
-    <row r="362" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -26298,7 +26297,7 @@
       </c>
       <c r="P362" s="4"/>
     </row>
-    <row r="363" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -26346,7 +26345,7 @@
       </c>
       <c r="P363" s="6"/>
     </row>
-    <row r="364" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -26440,7 +26439,7 @@
       </c>
       <c r="P365" s="6"/>
     </row>
-    <row r="366" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -26534,7 +26533,7 @@
       </c>
       <c r="P367" s="6"/>
     </row>
-    <row r="368" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -26639,7 +26638,7 @@
       </c>
       <c r="P369" s="6"/>
     </row>
-    <row r="370" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -26733,7 +26732,7 @@
       </c>
       <c r="P371" s="6"/>
     </row>
-    <row r="372" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -26873,7 +26872,7 @@
       </c>
       <c r="P374" s="4"/>
     </row>
-    <row r="375" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -26917,7 +26916,7 @@
       </c>
       <c r="P375" s="6"/>
     </row>
-    <row r="376" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -26965,7 +26964,7 @@
       </c>
       <c r="P376" s="4"/>
     </row>
-    <row r="377" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -27011,7 +27010,7 @@
       </c>
       <c r="P377" s="6"/>
     </row>
-    <row r="378" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -27151,7 +27150,7 @@
       </c>
       <c r="P380" s="4"/>
     </row>
-    <row r="381" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -27199,7 +27198,7 @@
       </c>
       <c r="P381" s="6"/>
     </row>
-    <row r="382" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -27339,7 +27338,7 @@
       </c>
       <c r="P384" s="4"/>
     </row>
-    <row r="385" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -27387,7 +27386,7 @@
       </c>
       <c r="P385" s="6"/>
     </row>
-    <row r="386" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -27435,7 +27434,7 @@
       </c>
       <c r="P386" s="4"/>
     </row>
-    <row r="387" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -27483,7 +27482,7 @@
       </c>
       <c r="P387" s="6"/>
     </row>
-    <row r="388" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -27531,7 +27530,7 @@
       </c>
       <c r="P388" s="4"/>
     </row>
-    <row r="389" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -27625,7 +27624,7 @@
       </c>
       <c r="P390" s="4"/>
     </row>
-    <row r="391" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -27671,7 +27670,7 @@
       </c>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -27717,7 +27716,7 @@
       </c>
       <c r="P392" s="4"/>
     </row>
-    <row r="393" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -27763,7 +27762,7 @@
       </c>
       <c r="P393" s="6"/>
     </row>
-    <row r="394" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -27811,7 +27810,7 @@
       </c>
       <c r="P394" s="4"/>
     </row>
-    <row r="395" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -27951,7 +27950,7 @@
       </c>
       <c r="P397" s="6"/>
     </row>
-    <row r="398" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -28089,7 +28088,7 @@
       </c>
       <c r="P400" s="4"/>
     </row>
-    <row r="401" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -28137,7 +28136,7 @@
       </c>
       <c r="P401" s="6"/>
     </row>
-    <row r="402" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -28183,7 +28182,7 @@
       </c>
       <c r="P402" s="4"/>
     </row>
-    <row r="403" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -28321,7 +28320,7 @@
       </c>
       <c r="P405" s="6"/>
     </row>
-    <row r="406" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -28367,7 +28366,7 @@
       </c>
       <c r="P406" s="4"/>
     </row>
-    <row r="407" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -28415,7 +28414,7 @@
       </c>
       <c r="P407" s="6"/>
     </row>
-    <row r="408" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -28463,7 +28462,7 @@
       </c>
       <c r="P408" s="4"/>
     </row>
-    <row r="409" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -28509,7 +28508,7 @@
       </c>
       <c r="P409" s="6"/>
     </row>
-    <row r="410" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -28603,7 +28602,7 @@
       </c>
       <c r="P411" s="6"/>
     </row>
-    <row r="412" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -28651,7 +28650,7 @@
       </c>
       <c r="P412" s="4"/>
     </row>
-    <row r="413" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -28697,7 +28696,7 @@
       </c>
       <c r="P413" s="6"/>
     </row>
-    <row r="414" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -28747,7 +28746,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -28885,7 +28884,7 @@
       </c>
       <c r="P417" s="6"/>
     </row>
-    <row r="418" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -28931,7 +28930,7 @@
       </c>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -29025,7 +29024,7 @@
       </c>
       <c r="P420" s="4"/>
     </row>
-    <row r="421" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -29119,7 +29118,7 @@
       </c>
       <c r="P422" s="4"/>
     </row>
-    <row r="423" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -29169,7 +29168,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -29309,7 +29308,7 @@
       </c>
       <c r="P426" s="4"/>
     </row>
-    <row r="427" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -29357,7 +29356,7 @@
       </c>
       <c r="P427" s="6"/>
     </row>
-    <row r="428" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -29447,7 +29446,7 @@
       </c>
       <c r="P429" s="6"/>
     </row>
-    <row r="430" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -29497,7 +29496,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -29545,7 +29544,7 @@
       </c>
       <c r="P431" s="6"/>
     </row>
-    <row r="432" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -29639,7 +29638,7 @@
       </c>
       <c r="P433" s="6"/>
     </row>
-    <row r="434" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -29731,7 +29730,7 @@
       </c>
       <c r="P435" s="6"/>
     </row>
-    <row r="436" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -29825,7 +29824,7 @@
       </c>
       <c r="P437" s="6"/>
     </row>
-    <row r="438" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -29919,7 +29918,7 @@
       </c>
       <c r="P439" s="6"/>
     </row>
-    <row r="440" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -29967,7 +29966,7 @@
       </c>
       <c r="P440" s="4"/>
     </row>
-    <row r="441" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -30017,7 +30016,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -30155,7 +30154,7 @@
       </c>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -30295,7 +30294,7 @@
       </c>
       <c r="P447" s="6"/>
     </row>
-    <row r="448" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -30433,7 +30432,7 @@
       </c>
       <c r="P450" s="4"/>
     </row>
-    <row r="451" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -30481,7 +30480,7 @@
       </c>
       <c r="P451" s="6"/>
     </row>
-    <row r="452" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -30575,7 +30574,7 @@
       </c>
       <c r="P453" s="6"/>
     </row>
-    <row r="454" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -30621,7 +30620,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -30715,7 +30714,7 @@
       </c>
       <c r="P456" s="4"/>
     </row>
-    <row r="457" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -30807,7 +30806,7 @@
       </c>
       <c r="P458" s="4"/>
     </row>
-    <row r="459" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -30853,7 +30852,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -30947,7 +30946,7 @@
       </c>
       <c r="P461" s="6"/>
     </row>
-    <row r="462" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -30995,7 +30994,7 @@
       </c>
       <c r="P462" s="4"/>
     </row>
-    <row r="463" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -31043,7 +31042,7 @@
       </c>
       <c r="P463" s="6"/>
     </row>
-    <row r="464" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -31091,7 +31090,7 @@
       </c>
       <c r="P464" s="4"/>
     </row>
-    <row r="465" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -31139,7 +31138,7 @@
       </c>
       <c r="P465" s="6"/>
     </row>
-    <row r="466" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -31187,7 +31186,7 @@
       </c>
       <c r="P466" s="4"/>
     </row>
-    <row r="467" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -31283,7 +31282,7 @@
       </c>
       <c r="P468" s="4"/>
     </row>
-    <row r="469" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -31465,7 +31464,7 @@
       </c>
       <c r="P472" s="4"/>
     </row>
-    <row r="473" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -31513,7 +31512,7 @@
       </c>
       <c r="P473" s="6"/>
     </row>
-    <row r="474" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -31651,7 +31650,7 @@
       </c>
       <c r="P476" s="4"/>
     </row>
-    <row r="477" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -31745,7 +31744,7 @@
       </c>
       <c r="P478" s="4"/>
     </row>
-    <row r="479" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -31791,7 +31790,7 @@
       </c>
       <c r="P479" s="6"/>
     </row>
-    <row r="480" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -31929,7 +31928,7 @@
       </c>
       <c r="P482" s="4"/>
     </row>
-    <row r="483" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -31977,7 +31976,7 @@
       </c>
       <c r="P483" s="6"/>
     </row>
-    <row r="484" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -32023,7 +32022,7 @@
       </c>
       <c r="P484" s="4"/>
     </row>
-    <row r="485" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -32067,7 +32066,7 @@
       </c>
       <c r="P485" s="6"/>
     </row>
-    <row r="486" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -32155,7 +32154,7 @@
       </c>
       <c r="P487" s="6"/>
     </row>
-    <row r="488" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -32247,7 +32246,7 @@
       </c>
       <c r="P489" s="6"/>
     </row>
-    <row r="490" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -32387,7 +32386,7 @@
       </c>
       <c r="P492" s="4"/>
     </row>
-    <row r="493" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -32481,7 +32480,7 @@
       </c>
       <c r="P494" s="4"/>
     </row>
-    <row r="495" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -32529,7 +32528,7 @@
       </c>
       <c r="P495" s="6"/>
     </row>
-    <row r="496" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -32575,7 +32574,7 @@
       </c>
       <c r="P496" s="4"/>
     </row>
-    <row r="497" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -32717,7 +32716,7 @@
       </c>
       <c r="P499" s="6"/>
     </row>
-    <row r="500" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -32765,7 +32764,7 @@
       </c>
       <c r="P500" s="4"/>
     </row>
-    <row r="501" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -32811,7 +32810,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -32859,7 +32858,7 @@
       </c>
       <c r="P502" s="4"/>
     </row>
-    <row r="503" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -32903,7 +32902,7 @@
       </c>
       <c r="P503" s="6"/>
     </row>
-    <row r="504" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -32951,7 +32950,7 @@
       </c>
       <c r="P504" s="4"/>
     </row>
-    <row r="505" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -32999,7 +32998,7 @@
       </c>
       <c r="P505" s="6"/>
     </row>
-    <row r="506" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -33047,7 +33046,7 @@
       </c>
       <c r="P506" s="4"/>
     </row>
-    <row r="507" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -33093,7 +33092,7 @@
       </c>
       <c r="P507" s="6"/>
     </row>
-    <row r="508" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -33185,7 +33184,7 @@
       </c>
       <c r="P509" s="6"/>
     </row>
-    <row r="510" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -33233,7 +33232,7 @@
       </c>
       <c r="P510" s="4"/>
     </row>
-    <row r="511" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -33279,7 +33278,7 @@
       </c>
       <c r="P511" s="6"/>
     </row>
-    <row r="512" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -33327,7 +33326,7 @@
       </c>
       <c r="P512" s="4"/>
     </row>
-    <row r="513" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -33375,7 +33374,7 @@
       </c>
       <c r="P513" s="6"/>
     </row>
-    <row r="514" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -33423,7 +33422,7 @@
       </c>
       <c r="P514" s="4"/>
     </row>
-    <row r="515" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -33469,7 +33468,7 @@
       </c>
       <c r="P515" s="6"/>
     </row>
-    <row r="516" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -33517,7 +33516,7 @@
       </c>
       <c r="P516" s="4"/>
     </row>
-    <row r="517" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -33565,7 +33564,7 @@
       </c>
       <c r="P517" s="6"/>
     </row>
-    <row r="518" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -33611,7 +33610,7 @@
       </c>
       <c r="P518" s="4"/>
     </row>
-    <row r="519" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -33797,7 +33796,7 @@
       </c>
       <c r="P522" s="4"/>
     </row>
-    <row r="523" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -33845,7 +33844,7 @@
       </c>
       <c r="P523" s="6"/>
     </row>
-    <row r="524" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -33983,7 +33982,7 @@
       </c>
       <c r="P526" s="4"/>
     </row>
-    <row r="527" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -34031,7 +34030,7 @@
       </c>
       <c r="P527" s="6"/>
     </row>
-    <row r="528" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -34077,7 +34076,7 @@
       </c>
       <c r="P528" s="4"/>
     </row>
-    <row r="529" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -34125,7 +34124,7 @@
       </c>
       <c r="P529" s="6"/>
     </row>
-    <row r="530" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -34171,7 +34170,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -34219,7 +34218,7 @@
       </c>
       <c r="P531" s="6"/>
     </row>
-    <row r="532" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -34267,7 +34266,7 @@
       </c>
       <c r="P532" s="4"/>
     </row>
-    <row r="533" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -34315,7 +34314,7 @@
       </c>
       <c r="P533" s="6"/>
     </row>
-    <row r="534" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -34409,7 +34408,7 @@
       </c>
       <c r="P535" s="6"/>
     </row>
-    <row r="536" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -34455,7 +34454,7 @@
       </c>
       <c r="P536" s="4"/>
     </row>
-    <row r="537" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -34547,7 +34546,7 @@
       </c>
       <c r="P538" s="4"/>
     </row>
-    <row r="539" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -34593,7 +34592,7 @@
       </c>
       <c r="P539" s="6"/>
     </row>
-    <row r="540" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -34641,7 +34640,7 @@
       </c>
       <c r="P540" s="4"/>
     </row>
-    <row r="541" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -34735,7 +34734,7 @@
       </c>
       <c r="P542" s="4"/>
     </row>
-    <row r="543" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -34783,7 +34782,7 @@
       </c>
       <c r="P543" s="6"/>
     </row>
-    <row r="544" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -34829,7 +34828,7 @@
       </c>
       <c r="P544" s="4"/>
     </row>
-    <row r="545" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -34921,7 +34920,7 @@
       </c>
       <c r="P546" s="4"/>
     </row>
-    <row r="547" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -34967,7 +34966,7 @@
       </c>
       <c r="P547" s="6"/>
     </row>
-    <row r="548" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -35013,7 +35012,7 @@
       </c>
       <c r="P548" s="4"/>
     </row>
-    <row r="549" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -35061,7 +35060,7 @@
       </c>
       <c r="P549" s="6"/>
     </row>
-    <row r="550" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -35109,7 +35108,7 @@
       </c>
       <c r="P550" s="4"/>
     </row>
-    <row r="551" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -35153,7 +35152,7 @@
       </c>
       <c r="P551" s="6"/>
     </row>
-    <row r="552" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -35199,7 +35198,7 @@
       </c>
       <c r="P552" s="4"/>
     </row>
-    <row r="553" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -35247,7 +35246,7 @@
       </c>
       <c r="P553" s="6"/>
     </row>
-    <row r="554" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -35297,7 +35296,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -35345,7 +35344,7 @@
       </c>
       <c r="P555" s="6"/>
     </row>
-    <row r="556" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -35393,7 +35392,7 @@
       </c>
       <c r="P556" s="4"/>
     </row>
-    <row r="557" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -35441,7 +35440,7 @@
       </c>
       <c r="P557" s="6"/>
     </row>
-    <row r="558" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -35489,7 +35488,7 @@
       </c>
       <c r="P558" s="4"/>
     </row>
-    <row r="559" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -35583,7 +35582,7 @@
       </c>
       <c r="P560" s="4"/>
     </row>
-    <row r="561" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -35723,7 +35722,7 @@
       </c>
       <c r="P563" s="6"/>
     </row>
-    <row r="564" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -35817,7 +35816,7 @@
       </c>
       <c r="P565" s="6"/>
     </row>
-    <row r="566" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -35863,7 +35862,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -35909,7 +35908,7 @@
       </c>
       <c r="P567" s="6"/>
     </row>
-    <row r="568" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -36003,7 +36002,7 @@
       </c>
       <c r="P569" s="6"/>
     </row>
-    <row r="570" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -36051,7 +36050,7 @@
       </c>
       <c r="P570" s="4"/>
     </row>
-    <row r="571" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -36099,7 +36098,7 @@
       </c>
       <c r="P571" s="6"/>
     </row>
-    <row r="572" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -36147,7 +36146,7 @@
       </c>
       <c r="P572" s="4"/>
     </row>
-    <row r="573" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -36241,7 +36240,7 @@
       </c>
       <c r="P574" s="11"/>
     </row>
-    <row r="575" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M575">
         <f>COUNTIF(M2:M574, "YES")</f>
         <v>230</v>
@@ -36251,7 +36250,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N576">
         <f>COUNTIF(N2:N574, "Purchase")</f>
         <v>4</v>
@@ -36682,18 +36681,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="P302" r:id="rId1" xr:uid="{C526291E-5CDF-41FB-B82D-B39701F6BE8B}"/>
   </hyperlinks>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1F1A7-F54A-4EB8-A191-7C2CD68EA411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB0660-C592-4BA3-8DAE-9EA0EFC94379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9204,8 +9204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="J565" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J575" sqref="A575:XFD576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36240,22 +36240,8 @@
       </c>
       <c r="P574" s="11"/>
     </row>
-    <row r="575" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M575">
-        <f>COUNTIF(M2:M574, "YES")</f>
-        <v>230</v>
-      </c>
-      <c r="N575">
-        <f>COUNTIF(N2:N574, "YES")</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="576" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N576">
-        <f>COUNTIF(N2:N574, "Purchase")</f>
-        <v>4</v>
-      </c>
-    </row>
+    <row r="575" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB0660-C592-4BA3-8DAE-9EA0EFC94379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1307374A-982B-45A3-B363-EE156686A326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amara</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D84F99D3-E6AD-4EFE-A6A4-FCA0AC0201C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note that forest species are only relevant when samples are taken from root-tips. If samples are from soil, we only want to make sure that it was an ECM forest</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6772" uniqueCount="2932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6844" uniqueCount="2959">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -8656,9 +8690,6 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Territory</t>
   </si>
   <si>
@@ -8749,9 +8780,6 @@
     <t>Wildfire</t>
   </si>
   <si>
-    <t>N_soil_samples</t>
-  </si>
-  <si>
     <t>Sample_type</t>
   </si>
   <si>
@@ -8818,12 +8846,6 @@
     <t>Unburnt</t>
   </si>
   <si>
-    <t>N_sites</t>
-  </si>
-  <si>
-    <t>N_plots</t>
-  </si>
-  <si>
     <t>Soil_samples_depth_cm</t>
   </si>
   <si>
@@ -8837,13 +8859,106 @@
   </si>
   <si>
     <t>FULL ARTICLE IN POLISH</t>
+  </si>
+  <si>
+    <t>Study_Year</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Eucalyptus_regnans</t>
+  </si>
+  <si>
+    <t>N_control_sites</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>0-10, 20-30</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Illumina MiSeq</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>Chronosequence of fires and some plots plus logging and clearcutting. We are JUST KEEPING the UB control and the BURNED 3-TIMES plots (more severity)</t>
+  </si>
+  <si>
+    <t>Sampling_year</t>
+  </si>
+  <si>
+    <t>Northern_Canada</t>
+  </si>
+  <si>
+    <t>ITS2</t>
+  </si>
+  <si>
+    <t>Chronosequence of fires. We are JUST KEEPING the UB control and the BURNED LAST-YEAR plots (more severity)</t>
+  </si>
+  <si>
+    <t>Picea</t>
+  </si>
+  <si>
+    <t>N_control_samples</t>
+  </si>
+  <si>
+    <t>N_burned_samples</t>
+  </si>
+  <si>
+    <t>0-5, 5-10, 10-30</t>
+  </si>
+  <si>
+    <t>Talks only about 1 SPECIES</t>
+  </si>
+  <si>
+    <t>2001;2002</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>Root_colonization</t>
+  </si>
+  <si>
+    <t>Only approaches ECM root colonization. Also number of samples is not clear. Probably will be discarded</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Biome</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>~20</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>ITS1</t>
+  </si>
+  <si>
+    <t>Soil; root-tips</t>
+  </si>
+  <si>
+    <t>Both descriptive study and bioassay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8891,8 +9006,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8941,6 +9074,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -8962,7 +9101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8986,6 +9125,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9202,10 +9344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J565" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J575" sqref="A575:XFD576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P586" sqref="P586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9226,7 +9369,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9259,7 +9402,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -9271,16 +9414,16 @@
         <v>12</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="Q1" s="17" t="s">
+        <v>2903</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>2905</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9331,10 +9474,10 @@
         <v>22</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9385,10 +9528,10 @@
         <v>20</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9436,7 +9579,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9487,10 +9630,10 @@
         <v>20</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9541,7 +9684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9590,7 +9733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9638,7 +9781,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9684,10 +9827,10 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="5" t="s">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9738,10 +9881,10 @@
         <v>20</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9787,7 +9930,7 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9833,7 +9976,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9881,7 +10024,7 @@
       </c>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9929,7 +10072,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9978,10 +10121,10 @@
         <v>20</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10029,7 +10172,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10077,7 +10220,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10123,7 +10266,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10166,10 +10309,10 @@
         <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10217,7 +10360,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10263,7 +10406,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10309,7 +10452,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10357,7 +10500,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10405,7 +10548,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10453,7 +10596,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10499,7 +10642,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10547,7 +10690,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10593,7 +10736,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10641,7 +10784,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10687,7 +10830,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10733,7 +10876,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10779,7 +10922,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10823,7 +10966,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10869,7 +11012,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10915,7 +11058,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10961,7 +11104,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11007,7 +11150,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11055,7 +11198,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11101,7 +11244,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11147,7 +11290,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11195,7 +11338,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -11241,7 +11384,7 @@
       </c>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -11288,10 +11431,10 @@
         <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -11337,7 +11480,7 @@
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11383,7 +11526,7 @@
       </c>
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -11431,7 +11574,7 @@
       </c>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -11477,7 +11620,7 @@
       </c>
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -11523,7 +11666,7 @@
       </c>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -11569,7 +11712,7 @@
       </c>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -11617,7 +11760,7 @@
       </c>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -11665,7 +11808,7 @@
       </c>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -11713,7 +11856,7 @@
       </c>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -11761,7 +11904,7 @@
       </c>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -11809,7 +11952,7 @@
       </c>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11855,7 +11998,7 @@
       </c>
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -11903,7 +12046,7 @@
       </c>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -11949,7 +12092,7 @@
       </c>
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -11995,7 +12138,7 @@
       </c>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -12041,7 +12184,7 @@
       </c>
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -12087,7 +12230,7 @@
       </c>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -12133,7 +12276,7 @@
       </c>
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -12181,7 +12324,7 @@
       </c>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -12227,7 +12370,7 @@
       </c>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -12273,7 +12416,7 @@
       </c>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -12321,7 +12464,7 @@
       </c>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -12367,7 +12510,7 @@
       </c>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -12414,10 +12557,10 @@
         <v>269</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -12465,7 +12608,7 @@
       </c>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -12513,7 +12656,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -12561,7 +12704,7 @@
       </c>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -12607,7 +12750,7 @@
       </c>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -12653,7 +12796,7 @@
       </c>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -12701,7 +12844,7 @@
       </c>
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -12749,7 +12892,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -12797,7 +12940,7 @@
       </c>
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -12845,7 +12988,7 @@
       </c>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -12891,7 +13034,7 @@
       </c>
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -12939,7 +13082,7 @@
       </c>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -12983,7 +13126,7 @@
       </c>
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -13031,7 +13174,7 @@
       </c>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -13079,7 +13222,7 @@
       </c>
       <c r="P81" s="7"/>
     </row>
-    <row r="82" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -13125,7 +13268,7 @@
       </c>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -13171,7 +13314,7 @@
       </c>
       <c r="P83" s="7"/>
     </row>
-    <row r="84" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -13219,7 +13362,7 @@
       </c>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -13265,7 +13408,7 @@
       </c>
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -13313,7 +13456,7 @@
       </c>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -13357,11 +13500,11 @@
         <v>36</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="P87" s="7"/>
     </row>
-    <row r="88" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -13409,7 +13552,7 @@
       </c>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -13457,7 +13600,7 @@
       </c>
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -13503,7 +13646,7 @@
       </c>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -13551,7 +13694,7 @@
       </c>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -13599,7 +13742,7 @@
       </c>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -13645,7 +13788,7 @@
       </c>
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -13691,7 +13834,7 @@
       </c>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -13737,7 +13880,7 @@
       </c>
       <c r="P95" s="7"/>
     </row>
-    <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -13785,7 +13928,7 @@
       </c>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -13831,7 +13974,7 @@
       </c>
       <c r="P97" s="7"/>
     </row>
-    <row r="98" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -13879,7 +14022,7 @@
       </c>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -13925,7 +14068,7 @@
       </c>
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -13973,7 +14116,7 @@
       </c>
       <c r="P100" s="5"/>
     </row>
-    <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -14019,7 +14162,7 @@
       </c>
       <c r="P101" s="7"/>
     </row>
-    <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -14067,7 +14210,7 @@
       </c>
       <c r="P102" s="5"/>
     </row>
-    <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -14113,7 +14256,7 @@
       </c>
       <c r="P103" s="7"/>
     </row>
-    <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -14159,7 +14302,7 @@
       </c>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -14207,7 +14350,7 @@
       </c>
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -14255,7 +14398,7 @@
       </c>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -14303,7 +14446,7 @@
       </c>
       <c r="P107" s="7"/>
     </row>
-    <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -14349,7 +14492,7 @@
       </c>
       <c r="P108" s="5"/>
     </row>
-    <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -14395,7 +14538,7 @@
       </c>
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -14443,7 +14586,7 @@
       </c>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -14489,7 +14632,7 @@
       </c>
       <c r="P111" s="7"/>
     </row>
-    <row r="112" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -14535,7 +14678,7 @@
       </c>
       <c r="P112" s="5"/>
     </row>
-    <row r="113" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -14583,7 +14726,7 @@
       </c>
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -14629,7 +14772,7 @@
       </c>
       <c r="P114" s="5"/>
     </row>
-    <row r="115" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -14677,7 +14820,7 @@
       </c>
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -14725,7 +14868,7 @@
       </c>
       <c r="P116" s="5"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -14771,7 +14914,7 @@
       </c>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14819,7 +14962,7 @@
       </c>
       <c r="P118" s="5"/>
     </row>
-    <row r="119" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14867,7 +15010,7 @@
       </c>
       <c r="P119" s="7"/>
     </row>
-    <row r="120" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14913,7 +15056,7 @@
       </c>
       <c r="P120" s="5"/>
     </row>
-    <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14961,7 +15104,7 @@
       </c>
       <c r="P121" s="7"/>
     </row>
-    <row r="122" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -15007,7 +15150,7 @@
       </c>
       <c r="P122" s="5"/>
     </row>
-    <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -15055,7 +15198,7 @@
       </c>
       <c r="P123" s="7"/>
     </row>
-    <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -15103,7 +15246,7 @@
       </c>
       <c r="P124" s="5"/>
     </row>
-    <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -15151,7 +15294,7 @@
       </c>
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -15199,7 +15342,7 @@
       </c>
       <c r="P126" s="5"/>
     </row>
-    <row r="127" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -15247,7 +15390,7 @@
       </c>
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -15293,7 +15436,7 @@
       </c>
       <c r="P128" s="5"/>
     </row>
-    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -15341,7 +15484,7 @@
       </c>
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15387,7 +15530,7 @@
       </c>
       <c r="P130" s="5"/>
     </row>
-    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15435,7 +15578,7 @@
       </c>
       <c r="P131" s="7"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15483,7 +15626,7 @@
       </c>
       <c r="P132" s="5"/>
     </row>
-    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15531,7 +15674,7 @@
       </c>
       <c r="P133" s="7"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15577,7 +15720,7 @@
       </c>
       <c r="P134" s="5"/>
     </row>
-    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15625,7 +15768,7 @@
       </c>
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15673,7 +15816,7 @@
       </c>
       <c r="P136" s="5"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15721,7 +15864,7 @@
       </c>
       <c r="P137" s="7"/>
     </row>
-    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15767,7 +15910,7 @@
       </c>
       <c r="P138" s="5"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15813,7 +15956,7 @@
       </c>
       <c r="P139" s="7"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15859,7 +16002,7 @@
       </c>
       <c r="P140" s="5"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15907,7 +16050,7 @@
       </c>
       <c r="P141" s="7"/>
     </row>
-    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15953,7 +16096,7 @@
       </c>
       <c r="P142" s="5"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15999,7 +16142,7 @@
       </c>
       <c r="P143" s="7"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16047,7 +16190,7 @@
       </c>
       <c r="P144" s="5"/>
     </row>
-    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16095,7 +16238,7 @@
       </c>
       <c r="P145" s="7"/>
     </row>
-    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16143,7 +16286,7 @@
       </c>
       <c r="P146" s="5"/>
     </row>
-    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16191,7 +16334,7 @@
       </c>
       <c r="P147" s="7"/>
     </row>
-    <row r="148" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16239,7 +16382,7 @@
       </c>
       <c r="P148" s="5"/>
     </row>
-    <row r="149" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16287,7 +16430,7 @@
       </c>
       <c r="P149" s="7"/>
     </row>
-    <row r="150" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16335,7 +16478,7 @@
       </c>
       <c r="P150" s="5"/>
     </row>
-    <row r="151" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16381,7 +16524,7 @@
       </c>
       <c r="P151" s="7"/>
     </row>
-    <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16429,7 +16572,7 @@
       </c>
       <c r="P152" s="5"/>
     </row>
-    <row r="153" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16475,7 +16618,7 @@
       </c>
       <c r="P153" s="7"/>
     </row>
-    <row r="154" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16523,7 +16666,7 @@
       </c>
       <c r="P154" s="5"/>
     </row>
-    <row r="155" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16569,7 +16712,7 @@
       </c>
       <c r="P155" s="7"/>
     </row>
-    <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -16615,7 +16758,7 @@
       </c>
       <c r="P156" s="5"/>
     </row>
-    <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -16663,7 +16806,7 @@
       </c>
       <c r="P157" s="7"/>
     </row>
-    <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -16709,7 +16852,7 @@
       </c>
       <c r="P158" s="5"/>
     </row>
-    <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -16757,7 +16900,7 @@
       </c>
       <c r="P159" s="7"/>
     </row>
-    <row r="160" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -16803,7 +16946,7 @@
       </c>
       <c r="P160" s="5"/>
     </row>
-    <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -16851,7 +16994,7 @@
       </c>
       <c r="P161" s="7"/>
     </row>
-    <row r="162" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -16897,7 +17040,7 @@
       </c>
       <c r="P162" s="5"/>
     </row>
-    <row r="163" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -16945,7 +17088,7 @@
       </c>
       <c r="P163" s="7"/>
     </row>
-    <row r="164" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -16991,7 +17134,7 @@
       </c>
       <c r="P164" s="5"/>
     </row>
-    <row r="165" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17039,7 +17182,7 @@
       </c>
       <c r="P165" s="7"/>
     </row>
-    <row r="166" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17087,7 +17230,7 @@
       </c>
       <c r="P166" s="5"/>
     </row>
-    <row r="167" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -17133,7 +17276,7 @@
       </c>
       <c r="P167" s="7"/>
     </row>
-    <row r="168" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -17181,7 +17324,7 @@
       </c>
       <c r="P168" s="5"/>
     </row>
-    <row r="169" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -17227,7 +17370,7 @@
       </c>
       <c r="P169" s="7"/>
     </row>
-    <row r="170" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -17275,7 +17418,7 @@
       </c>
       <c r="P170" s="5"/>
     </row>
-    <row r="171" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -17321,7 +17464,7 @@
       </c>
       <c r="P171" s="7"/>
     </row>
-    <row r="172" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -17369,7 +17512,7 @@
       </c>
       <c r="P172" s="5"/>
     </row>
-    <row r="173" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -17417,7 +17560,7 @@
       </c>
       <c r="P173" s="7"/>
     </row>
-    <row r="174" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -17465,7 +17608,7 @@
       </c>
       <c r="P174" s="5"/>
     </row>
-    <row r="175" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -17511,7 +17654,7 @@
       </c>
       <c r="P175" s="7"/>
     </row>
-    <row r="176" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -17559,7 +17702,7 @@
       </c>
       <c r="P176" s="5"/>
     </row>
-    <row r="177" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -17607,7 +17750,7 @@
       </c>
       <c r="P177" s="7"/>
     </row>
-    <row r="178" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -17655,7 +17798,7 @@
       </c>
       <c r="P178" s="5"/>
     </row>
-    <row r="179" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -17701,7 +17844,7 @@
       </c>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -17747,7 +17890,7 @@
       </c>
       <c r="P180" s="5"/>
     </row>
-    <row r="181" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -17793,7 +17936,7 @@
       </c>
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -17841,7 +17984,7 @@
       </c>
       <c r="P182" s="5"/>
     </row>
-    <row r="183" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -17887,7 +18030,7 @@
       </c>
       <c r="P183" s="7"/>
     </row>
-    <row r="184" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -17933,7 +18076,7 @@
       </c>
       <c r="P184" s="5"/>
     </row>
-    <row r="185" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -17981,7 +18124,7 @@
       </c>
       <c r="P185" s="7"/>
     </row>
-    <row r="186" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -18029,7 +18172,7 @@
       </c>
       <c r="P186" s="5"/>
     </row>
-    <row r="187" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -18075,7 +18218,7 @@
       </c>
       <c r="P187" s="7"/>
     </row>
-    <row r="188" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -18122,10 +18265,10 @@
         <v>269</v>
       </c>
       <c r="P188" s="7" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -18171,7 +18314,7 @@
       </c>
       <c r="P189" s="7"/>
     </row>
-    <row r="190" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -18219,7 +18362,7 @@
       </c>
       <c r="P190" s="5"/>
     </row>
-    <row r="191" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -18265,7 +18408,7 @@
       </c>
       <c r="P191" s="7"/>
     </row>
-    <row r="192" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -18311,7 +18454,7 @@
       </c>
       <c r="P192" s="5"/>
     </row>
-    <row r="193" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -18357,7 +18500,7 @@
       </c>
       <c r="P193" s="7"/>
     </row>
-    <row r="194" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -18403,7 +18546,7 @@
       </c>
       <c r="P194" s="5"/>
     </row>
-    <row r="195" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -18448,10 +18591,10 @@
         <v>1106</v>
       </c>
       <c r="P195" s="7" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -18499,7 +18642,7 @@
       </c>
       <c r="P196" s="5"/>
     </row>
-    <row r="197" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -18547,7 +18690,7 @@
       </c>
       <c r="P197" s="7"/>
     </row>
-    <row r="198" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -18595,7 +18738,7 @@
       </c>
       <c r="P198" s="5"/>
     </row>
-    <row r="199" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -18643,7 +18786,7 @@
       </c>
       <c r="P199" s="7"/>
     </row>
-    <row r="200" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -18689,7 +18832,7 @@
       </c>
       <c r="P200" s="5"/>
     </row>
-    <row r="201" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -18733,7 +18876,7 @@
       </c>
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -18779,7 +18922,7 @@
       </c>
       <c r="P202" s="5"/>
     </row>
-    <row r="203" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -18827,7 +18970,7 @@
       </c>
       <c r="P203" s="7"/>
     </row>
-    <row r="204" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -18873,7 +19016,7 @@
       </c>
       <c r="P204" s="5"/>
     </row>
-    <row r="205" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -18919,7 +19062,7 @@
       </c>
       <c r="P205" s="7"/>
     </row>
-    <row r="206" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -18967,7 +19110,7 @@
       </c>
       <c r="P206" s="5"/>
     </row>
-    <row r="207" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -19015,7 +19158,7 @@
       </c>
       <c r="P207" s="7"/>
     </row>
-    <row r="208" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -19061,7 +19204,7 @@
       </c>
       <c r="P208" s="5"/>
     </row>
-    <row r="209" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -19107,7 +19250,7 @@
       </c>
       <c r="P209" s="7"/>
     </row>
-    <row r="210" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -19153,7 +19296,7 @@
       </c>
       <c r="P210" s="5"/>
     </row>
-    <row r="211" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -19201,7 +19344,7 @@
       </c>
       <c r="P211" s="7"/>
     </row>
-    <row r="212" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -19245,7 +19388,7 @@
       </c>
       <c r="P212" s="5"/>
     </row>
-    <row r="213" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -19293,7 +19436,7 @@
       </c>
       <c r="P213" s="7"/>
     </row>
-    <row r="214" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -19339,7 +19482,7 @@
       </c>
       <c r="P214" s="5"/>
     </row>
-    <row r="215" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -19387,7 +19530,7 @@
       </c>
       <c r="P215" s="7"/>
     </row>
-    <row r="216" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -19433,7 +19576,7 @@
       </c>
       <c r="P216" s="5"/>
     </row>
-    <row r="217" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -19479,7 +19622,7 @@
       </c>
       <c r="P217" s="7"/>
     </row>
-    <row r="218" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -19527,7 +19670,7 @@
       </c>
       <c r="P218" s="5"/>
     </row>
-    <row r="219" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -19575,7 +19718,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -19620,10 +19763,10 @@
         <v>23</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19671,7 +19814,7 @@
       </c>
       <c r="P221" s="7"/>
     </row>
-    <row r="222" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19717,7 +19860,7 @@
       </c>
       <c r="P222" s="4"/>
     </row>
-    <row r="223" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19765,7 +19908,7 @@
       </c>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19813,7 +19956,7 @@
       </c>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19861,7 +20004,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19907,7 +20050,7 @@
       </c>
       <c r="P226" s="4"/>
     </row>
-    <row r="227" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19955,7 +20098,7 @@
       </c>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -20001,7 +20144,7 @@
       </c>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -20047,7 +20190,7 @@
       </c>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -20093,7 +20236,7 @@
       </c>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -20141,7 +20284,7 @@
       </c>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -20186,10 +20329,10 @@
         <v>1106</v>
       </c>
       <c r="P232" s="14" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -20235,7 +20378,7 @@
       </c>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -20281,7 +20424,7 @@
       </c>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20327,7 +20470,7 @@
       </c>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20372,10 +20515,10 @@
         <v>23</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20421,7 +20564,7 @@
       </c>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20469,7 +20612,7 @@
       </c>
       <c r="P238" s="4"/>
     </row>
-    <row r="239" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20515,7 +20658,7 @@
       </c>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20561,7 +20704,7 @@
       </c>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20609,7 +20752,7 @@
       </c>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20657,7 +20800,7 @@
       </c>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20703,7 +20846,7 @@
       </c>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20749,7 +20892,7 @@
       </c>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20797,7 +20940,7 @@
       </c>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20843,7 +20986,7 @@
       </c>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20891,7 +21034,7 @@
       </c>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -20939,7 +21082,7 @@
       </c>
       <c r="P248" s="4"/>
     </row>
-    <row r="249" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -20987,7 +21130,7 @@
       </c>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21033,7 +21176,7 @@
       </c>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21079,7 +21222,7 @@
       </c>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21125,7 +21268,7 @@
       </c>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21171,7 +21314,7 @@
       </c>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21219,7 +21362,7 @@
       </c>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21265,7 +21408,7 @@
       </c>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21311,7 +21454,7 @@
       </c>
       <c r="P256" s="4"/>
     </row>
-    <row r="257" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21357,7 +21500,7 @@
       </c>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21403,7 +21546,7 @@
       </c>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21451,7 +21594,7 @@
       </c>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21497,7 +21640,7 @@
       </c>
       <c r="P260" s="4"/>
     </row>
-    <row r="261" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -21543,7 +21686,7 @@
       </c>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -21589,7 +21732,7 @@
       </c>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -21637,7 +21780,7 @@
       </c>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -21685,7 +21828,7 @@
       </c>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -21733,7 +21876,7 @@
       </c>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -21776,10 +21919,10 @@
         <v>36</v>
       </c>
       <c r="P266" s="14" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -21827,7 +21970,7 @@
       </c>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -21873,7 +22016,7 @@
       </c>
       <c r="P268" s="4"/>
     </row>
-    <row r="269" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -21919,7 +22062,7 @@
       </c>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -21965,7 +22108,7 @@
       </c>
       <c r="P270" s="4"/>
     </row>
-    <row r="271" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22011,7 +22154,7 @@
       </c>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22057,7 +22200,7 @@
       </c>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22103,7 +22246,7 @@
       </c>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22151,7 +22294,7 @@
       </c>
       <c r="P274" s="4"/>
     </row>
-    <row r="275" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -22199,7 +22342,7 @@
       </c>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -22245,7 +22388,7 @@
       </c>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -22293,7 +22436,7 @@
       </c>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -22341,7 +22484,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -22389,7 +22532,7 @@
       </c>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -22435,7 +22578,7 @@
       </c>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -22483,7 +22626,7 @@
       </c>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -22529,7 +22672,7 @@
       </c>
       <c r="P282" s="4"/>
     </row>
-    <row r="283" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -22575,7 +22718,7 @@
       </c>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -22623,7 +22766,7 @@
       </c>
       <c r="P284" s="4"/>
     </row>
-    <row r="285" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -22669,7 +22812,7 @@
       </c>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -22717,7 +22860,7 @@
       </c>
       <c r="P286" s="4"/>
     </row>
-    <row r="287" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -22765,7 +22908,7 @@
       </c>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -22813,7 +22956,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -22859,7 +23002,7 @@
       </c>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -22907,7 +23050,7 @@
       </c>
       <c r="P290" s="4"/>
     </row>
-    <row r="291" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -22951,7 +23094,7 @@
       </c>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -22997,7 +23140,7 @@
       </c>
       <c r="P292" s="4"/>
     </row>
-    <row r="293" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -23043,7 +23186,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -23091,7 +23234,7 @@
       </c>
       <c r="P294" s="4"/>
     </row>
-    <row r="295" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -23137,7 +23280,7 @@
       </c>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -23183,7 +23326,7 @@
       </c>
       <c r="P296" s="4"/>
     </row>
-    <row r="297" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -23231,7 +23374,7 @@
       </c>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -23277,7 +23420,7 @@
       </c>
       <c r="P298" s="4"/>
     </row>
-    <row r="299" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -23325,7 +23468,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -23373,7 +23516,7 @@
       </c>
       <c r="P300" s="4"/>
     </row>
-    <row r="301" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -23419,7 +23562,7 @@
       </c>
       <c r="P301" s="6"/>
     </row>
-    <row r="302" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -23464,10 +23607,10 @@
         <v>23</v>
       </c>
       <c r="P302" s="22" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -23513,7 +23656,7 @@
       </c>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -23561,7 +23704,7 @@
       </c>
       <c r="P304" s="4"/>
     </row>
-    <row r="305" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -23607,7 +23750,7 @@
       </c>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -23653,7 +23796,7 @@
       </c>
       <c r="P306" s="4"/>
     </row>
-    <row r="307" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -23699,7 +23842,7 @@
       </c>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -23747,7 +23890,7 @@
       </c>
       <c r="P308" s="4"/>
     </row>
-    <row r="309" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -23793,7 +23936,7 @@
       </c>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -23841,7 +23984,7 @@
       </c>
       <c r="P310" s="4"/>
     </row>
-    <row r="311" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -23889,7 +24032,7 @@
       </c>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -23935,7 +24078,7 @@
       </c>
       <c r="P312" s="4"/>
     </row>
-    <row r="313" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -23981,7 +24124,7 @@
       </c>
       <c r="P313" s="6"/>
     </row>
-    <row r="314" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -24029,7 +24172,7 @@
       </c>
       <c r="P314" s="4"/>
     </row>
-    <row r="315" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -24075,7 +24218,7 @@
       </c>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -24123,7 +24266,7 @@
       </c>
       <c r="P316" s="4"/>
     </row>
-    <row r="317" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -24169,7 +24312,7 @@
       </c>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -24215,7 +24358,7 @@
       </c>
       <c r="P318" s="4"/>
     </row>
-    <row r="319" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -24263,7 +24406,7 @@
       </c>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -24308,10 +24451,10 @@
         <v>23</v>
       </c>
       <c r="P320" s="14" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -24359,7 +24502,7 @@
       </c>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -24405,7 +24548,7 @@
       </c>
       <c r="P322" s="4"/>
     </row>
-    <row r="323" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -24453,7 +24596,7 @@
       </c>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -24496,10 +24639,10 @@
         <v>36</v>
       </c>
       <c r="P324" s="14" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -24545,7 +24688,7 @@
       </c>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -24593,7 +24736,7 @@
       </c>
       <c r="P326" s="4"/>
     </row>
-    <row r="327" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -24639,7 +24782,7 @@
       </c>
       <c r="P327" s="6"/>
     </row>
-    <row r="328" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -24685,7 +24828,7 @@
       </c>
       <c r="P328" s="4"/>
     </row>
-    <row r="329" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -24733,7 +24876,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -24781,7 +24924,7 @@
       </c>
       <c r="P330" s="4"/>
     </row>
-    <row r="331" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -24829,7 +24972,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -24875,7 +25018,7 @@
       </c>
       <c r="P332" s="4"/>
     </row>
-    <row r="333" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -24921,7 +25064,7 @@
       </c>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -24966,10 +25109,10 @@
         <v>23</v>
       </c>
       <c r="P334" s="4" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -25017,7 +25160,7 @@
       </c>
       <c r="P335" s="6"/>
     </row>
-    <row r="336" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -25063,7 +25206,7 @@
       </c>
       <c r="P336" s="4"/>
     </row>
-    <row r="337" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -25111,7 +25254,7 @@
       </c>
       <c r="P337" s="6"/>
     </row>
-    <row r="338" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -25159,7 +25302,7 @@
       </c>
       <c r="P338" s="4"/>
     </row>
-    <row r="339" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -25207,7 +25350,7 @@
       </c>
       <c r="P339" s="6"/>
     </row>
-    <row r="340" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -25255,7 +25398,7 @@
       </c>
       <c r="P340" s="4"/>
     </row>
-    <row r="341" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -25303,7 +25446,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -25351,7 +25494,7 @@
       </c>
       <c r="P342" s="4"/>
     </row>
-    <row r="343" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -25399,7 +25542,7 @@
       </c>
       <c r="P343" s="6"/>
     </row>
-    <row r="344" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -25447,7 +25590,7 @@
       </c>
       <c r="P344" s="4"/>
     </row>
-    <row r="345" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -25493,7 +25636,7 @@
       </c>
       <c r="P345" s="6"/>
     </row>
-    <row r="346" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -25539,7 +25682,7 @@
       </c>
       <c r="P346" s="4"/>
     </row>
-    <row r="347" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -25587,7 +25730,7 @@
       </c>
       <c r="P347" s="6"/>
     </row>
-    <row r="348" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -25633,7 +25776,7 @@
       </c>
       <c r="P348" s="4"/>
     </row>
-    <row r="349" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -25679,7 +25822,7 @@
       </c>
       <c r="P349" s="6"/>
     </row>
-    <row r="350" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -25727,7 +25870,7 @@
       </c>
       <c r="P350" s="4"/>
     </row>
-    <row r="351" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -25773,7 +25916,7 @@
       </c>
       <c r="P351" s="6"/>
     </row>
-    <row r="352" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -25818,10 +25961,10 @@
         <v>36</v>
       </c>
       <c r="P352" s="14" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="353" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -25869,7 +26012,7 @@
       </c>
       <c r="P353" s="6"/>
     </row>
-    <row r="354" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -25917,7 +26060,7 @@
       </c>
       <c r="P354" s="4"/>
     </row>
-    <row r="355" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -25965,7 +26108,7 @@
       </c>
       <c r="P355" s="6"/>
     </row>
-    <row r="356" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -26013,7 +26156,7 @@
       </c>
       <c r="P356" s="4"/>
     </row>
-    <row r="357" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -26059,7 +26202,7 @@
       </c>
       <c r="P357" s="6"/>
     </row>
-    <row r="358" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -26107,7 +26250,7 @@
       </c>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -26155,7 +26298,7 @@
       </c>
       <c r="P359" s="6"/>
     </row>
-    <row r="360" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -26201,7 +26344,7 @@
       </c>
       <c r="P360" s="4"/>
     </row>
-    <row r="361" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -26249,7 +26392,7 @@
       </c>
       <c r="P361" s="6"/>
     </row>
-    <row r="362" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -26297,7 +26440,7 @@
       </c>
       <c r="P362" s="4"/>
     </row>
-    <row r="363" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -26345,7 +26488,7 @@
       </c>
       <c r="P363" s="6"/>
     </row>
-    <row r="364" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -26393,7 +26536,7 @@
       </c>
       <c r="P364" s="4"/>
     </row>
-    <row r="365" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -26439,7 +26582,7 @@
       </c>
       <c r="P365" s="6"/>
     </row>
-    <row r="366" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -26487,7 +26630,7 @@
       </c>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -26533,7 +26676,7 @@
       </c>
       <c r="P367" s="6"/>
     </row>
-    <row r="368" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -26580,7 +26723,7 @@
         <v>269</v>
       </c>
       <c r="P368" s="9" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
@@ -26592,7 +26735,7 @@
       <c r="X368" s="8"/>
       <c r="Y368" s="8"/>
     </row>
-    <row r="369" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -26638,7 +26781,7 @@
       </c>
       <c r="P369" s="6"/>
     </row>
-    <row r="370" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -26686,7 +26829,7 @@
       </c>
       <c r="P370" s="4"/>
     </row>
-    <row r="371" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -26732,7 +26875,7 @@
       </c>
       <c r="P371" s="6"/>
     </row>
-    <row r="372" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -26780,7 +26923,7 @@
       </c>
       <c r="P372" s="4"/>
     </row>
-    <row r="373" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -26826,7 +26969,7 @@
       </c>
       <c r="P373" s="6"/>
     </row>
-    <row r="374" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -26872,7 +27015,7 @@
       </c>
       <c r="P374" s="4"/>
     </row>
-    <row r="375" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -26916,7 +27059,7 @@
       </c>
       <c r="P375" s="6"/>
     </row>
-    <row r="376" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -26964,7 +27107,7 @@
       </c>
       <c r="P376" s="4"/>
     </row>
-    <row r="377" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -27010,7 +27153,7 @@
       </c>
       <c r="P377" s="6"/>
     </row>
-    <row r="378" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -27058,7 +27201,7 @@
       </c>
       <c r="P378" s="4"/>
     </row>
-    <row r="379" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -27104,7 +27247,7 @@
       </c>
       <c r="P379" s="6"/>
     </row>
-    <row r="380" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -27150,7 +27293,7 @@
       </c>
       <c r="P380" s="4"/>
     </row>
-    <row r="381" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -27198,7 +27341,7 @@
       </c>
       <c r="P381" s="6"/>
     </row>
-    <row r="382" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -27243,10 +27386,10 @@
         <v>1256</v>
       </c>
       <c r="P382" s="7" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -27292,7 +27435,7 @@
       </c>
       <c r="P383" s="6"/>
     </row>
-    <row r="384" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -27338,7 +27481,7 @@
       </c>
       <c r="P384" s="4"/>
     </row>
-    <row r="385" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -27386,7 +27529,7 @@
       </c>
       <c r="P385" s="6"/>
     </row>
-    <row r="386" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -27434,7 +27577,7 @@
       </c>
       <c r="P386" s="4"/>
     </row>
-    <row r="387" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -27482,7 +27625,7 @@
       </c>
       <c r="P387" s="6"/>
     </row>
-    <row r="388" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -27530,7 +27673,7 @@
       </c>
       <c r="P388" s="4"/>
     </row>
-    <row r="389" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -27578,7 +27721,7 @@
       </c>
       <c r="P389" s="6"/>
     </row>
-    <row r="390" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -27623,8 +27766,14 @@
         <v>23</v>
       </c>
       <c r="P390" s="4"/>
-    </row>
-    <row r="391" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q390" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R390" s="24" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -27670,7 +27819,7 @@
       </c>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -27716,7 +27865,7 @@
       </c>
       <c r="P392" s="4"/>
     </row>
-    <row r="393" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -27762,7 +27911,7 @@
       </c>
       <c r="P393" s="6"/>
     </row>
-    <row r="394" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -27810,7 +27959,7 @@
       </c>
       <c r="P394" s="4"/>
     </row>
-    <row r="395" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -27858,7 +28007,7 @@
       </c>
       <c r="P395" s="6"/>
     </row>
-    <row r="396" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -27904,7 +28053,7 @@
       </c>
       <c r="P396" s="4"/>
     </row>
-    <row r="397" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -27949,8 +28098,14 @@
         <v>23</v>
       </c>
       <c r="P397" s="6"/>
-    </row>
-    <row r="398" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q397" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R397" s="25" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -27996,7 +28151,7 @@
       </c>
       <c r="P398" s="4"/>
     </row>
-    <row r="399" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -28042,7 +28197,7 @@
       </c>
       <c r="P399" s="6"/>
     </row>
-    <row r="400" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -28088,7 +28243,7 @@
       </c>
       <c r="P400" s="4"/>
     </row>
-    <row r="401" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -28136,7 +28291,7 @@
       </c>
       <c r="P401" s="6"/>
     </row>
-    <row r="402" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -28182,7 +28337,7 @@
       </c>
       <c r="P402" s="4"/>
     </row>
-    <row r="403" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -28228,7 +28383,7 @@
       </c>
       <c r="P403" s="6"/>
     </row>
-    <row r="404" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -28274,7 +28429,7 @@
       </c>
       <c r="P404" s="4"/>
     </row>
-    <row r="405" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -28320,7 +28475,7 @@
       </c>
       <c r="P405" s="6"/>
     </row>
-    <row r="406" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -28366,7 +28521,7 @@
       </c>
       <c r="P406" s="4"/>
     </row>
-    <row r="407" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -28414,7 +28569,7 @@
       </c>
       <c r="P407" s="6"/>
     </row>
-    <row r="408" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -28462,7 +28617,7 @@
       </c>
       <c r="P408" s="4"/>
     </row>
-    <row r="409" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -28508,7 +28663,7 @@
       </c>
       <c r="P409" s="6"/>
     </row>
-    <row r="410" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -28556,7 +28711,7 @@
       </c>
       <c r="P410" s="4"/>
     </row>
-    <row r="411" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -28602,7 +28757,7 @@
       </c>
       <c r="P411" s="6"/>
     </row>
-    <row r="412" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -28650,7 +28805,7 @@
       </c>
       <c r="P412" s="4"/>
     </row>
-    <row r="413" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -28696,7 +28851,7 @@
       </c>
       <c r="P413" s="6"/>
     </row>
-    <row r="414" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -28743,10 +28898,10 @@
         <v>269</v>
       </c>
       <c r="P414" s="14" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="415" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -28792,7 +28947,7 @@
       </c>
       <c r="P415" s="6"/>
     </row>
-    <row r="416" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -28838,7 +28993,7 @@
       </c>
       <c r="P416" s="4"/>
     </row>
-    <row r="417" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -28884,7 +29039,7 @@
       </c>
       <c r="P417" s="6"/>
     </row>
-    <row r="418" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -28930,7 +29085,7 @@
       </c>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -28978,7 +29133,7 @@
       </c>
       <c r="P419" s="6"/>
     </row>
-    <row r="420" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -29022,9 +29177,11 @@
       <c r="O420" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P420" s="4"/>
-    </row>
-    <row r="421" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P420" s="24" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -29072,7 +29229,7 @@
       </c>
       <c r="P421" s="6"/>
     </row>
-    <row r="422" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -29118,7 +29275,7 @@
       </c>
       <c r="P422" s="4"/>
     </row>
-    <row r="423" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -29165,10 +29322,10 @@
         <v>269</v>
       </c>
       <c r="P423" s="13" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="424" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -29216,7 +29373,7 @@
       </c>
       <c r="P424" s="4"/>
     </row>
-    <row r="425" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -29262,7 +29419,7 @@
       </c>
       <c r="P425" s="6"/>
     </row>
-    <row r="426" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -29308,7 +29465,7 @@
       </c>
       <c r="P426" s="4"/>
     </row>
-    <row r="427" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -29356,7 +29513,7 @@
       </c>
       <c r="P427" s="6"/>
     </row>
-    <row r="428" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -29400,7 +29557,7 @@
       </c>
       <c r="P428" s="4"/>
     </row>
-    <row r="429" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -29446,7 +29603,7 @@
       </c>
       <c r="P429" s="6"/>
     </row>
-    <row r="430" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -29493,10 +29650,10 @@
         <v>269</v>
       </c>
       <c r="P430" s="14" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -29544,7 +29701,7 @@
       </c>
       <c r="P431" s="6"/>
     </row>
-    <row r="432" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -29592,7 +29749,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -29638,7 +29795,7 @@
       </c>
       <c r="P433" s="6"/>
     </row>
-    <row r="434" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -29684,7 +29841,7 @@
       </c>
       <c r="P434" s="4"/>
     </row>
-    <row r="435" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -29730,7 +29887,7 @@
       </c>
       <c r="P435" s="6"/>
     </row>
-    <row r="436" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -29778,7 +29935,7 @@
       </c>
       <c r="P436" s="4"/>
     </row>
-    <row r="437" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -29824,7 +29981,7 @@
       </c>
       <c r="P437" s="6"/>
     </row>
-    <row r="438" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -29872,7 +30029,7 @@
       </c>
       <c r="P438" s="4"/>
     </row>
-    <row r="439" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -29918,7 +30075,7 @@
       </c>
       <c r="P439" s="6"/>
     </row>
-    <row r="440" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -29966,7 +30123,7 @@
       </c>
       <c r="P440" s="4"/>
     </row>
-    <row r="441" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -30013,10 +30170,10 @@
         <v>2261</v>
       </c>
       <c r="P441" s="13" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -30059,10 +30216,10 @@
         <v>1256</v>
       </c>
       <c r="P442" s="7" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -30108,7 +30265,7 @@
       </c>
       <c r="P443" s="6"/>
     </row>
-    <row r="444" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -30154,7 +30311,7 @@
       </c>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -30202,7 +30359,7 @@
       </c>
       <c r="P445" s="6"/>
     </row>
-    <row r="446" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -30248,7 +30405,7 @@
       </c>
       <c r="P446" s="4"/>
     </row>
-    <row r="447" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -30294,7 +30451,7 @@
       </c>
       <c r="P447" s="6"/>
     </row>
-    <row r="448" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -30340,7 +30497,7 @@
       </c>
       <c r="P448" s="4"/>
     </row>
-    <row r="449" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -30386,7 +30543,7 @@
       </c>
       <c r="P449" s="6"/>
     </row>
-    <row r="450" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -30432,7 +30589,7 @@
       </c>
       <c r="P450" s="4"/>
     </row>
-    <row r="451" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -30480,7 +30637,7 @@
       </c>
       <c r="P451" s="6"/>
     </row>
-    <row r="452" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -30528,7 +30685,7 @@
       </c>
       <c r="P452" s="4"/>
     </row>
-    <row r="453" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -30573,8 +30730,14 @@
         <v>23</v>
       </c>
       <c r="P453" s="6"/>
-    </row>
-    <row r="454" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q453" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R453" s="25" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -30617,10 +30780,10 @@
         <v>1608</v>
       </c>
       <c r="P454" s="7" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="455" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -30668,7 +30831,7 @@
       </c>
       <c r="P455" s="6"/>
     </row>
-    <row r="456" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -30714,7 +30877,7 @@
       </c>
       <c r="P456" s="4"/>
     </row>
-    <row r="457" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -30760,7 +30923,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -30806,7 +30969,7 @@
       </c>
       <c r="P458" s="4"/>
     </row>
-    <row r="459" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -30852,7 +31015,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -30900,7 +31063,7 @@
       </c>
       <c r="P460" s="4"/>
     </row>
-    <row r="461" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -30946,7 +31109,7 @@
       </c>
       <c r="P461" s="6"/>
     </row>
-    <row r="462" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -30994,7 +31157,7 @@
       </c>
       <c r="P462" s="4"/>
     </row>
-    <row r="463" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -31042,7 +31205,7 @@
       </c>
       <c r="P463" s="6"/>
     </row>
-    <row r="464" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -31090,7 +31253,7 @@
       </c>
       <c r="P464" s="4"/>
     </row>
-    <row r="465" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -31138,7 +31301,7 @@
       </c>
       <c r="P465" s="6"/>
     </row>
-    <row r="466" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -31186,7 +31349,7 @@
       </c>
       <c r="P466" s="4"/>
     </row>
-    <row r="467" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -31233,10 +31396,10 @@
         <v>269</v>
       </c>
       <c r="P467" s="13" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="468" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -31282,7 +31445,7 @@
       </c>
       <c r="P468" s="4"/>
     </row>
-    <row r="469" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -31326,7 +31489,7 @@
       </c>
       <c r="P469" s="6"/>
     </row>
-    <row r="470" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -31372,7 +31535,7 @@
       </c>
       <c r="P470" s="4"/>
     </row>
-    <row r="471" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -31418,7 +31581,7 @@
       </c>
       <c r="P471" s="6"/>
     </row>
-    <row r="472" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -31464,7 +31627,7 @@
       </c>
       <c r="P472" s="4"/>
     </row>
-    <row r="473" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -31512,7 +31675,7 @@
       </c>
       <c r="P473" s="6"/>
     </row>
-    <row r="474" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -31560,7 +31723,7 @@
       </c>
       <c r="P474" s="4"/>
     </row>
-    <row r="475" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -31606,7 +31769,7 @@
       </c>
       <c r="P475" s="6"/>
     </row>
-    <row r="476" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -31650,7 +31813,7 @@
       </c>
       <c r="P476" s="4"/>
     </row>
-    <row r="477" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -31698,7 +31861,7 @@
       </c>
       <c r="P477" s="6"/>
     </row>
-    <row r="478" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -31744,7 +31907,7 @@
       </c>
       <c r="P478" s="4"/>
     </row>
-    <row r="479" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -31790,7 +31953,7 @@
       </c>
       <c r="P479" s="6"/>
     </row>
-    <row r="480" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -31836,7 +31999,7 @@
       </c>
       <c r="P480" s="4"/>
     </row>
-    <row r="481" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -31882,7 +32045,7 @@
       </c>
       <c r="P481" s="6"/>
     </row>
-    <row r="482" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -31927,8 +32090,14 @@
         <v>23</v>
       </c>
       <c r="P482" s="4"/>
-    </row>
-    <row r="483" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q482" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R482" s="24" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="483" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -31976,7 +32145,7 @@
       </c>
       <c r="P483" s="6"/>
     </row>
-    <row r="484" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -32022,7 +32191,7 @@
       </c>
       <c r="P484" s="4"/>
     </row>
-    <row r="485" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -32066,7 +32235,7 @@
       </c>
       <c r="P485" s="6"/>
     </row>
-    <row r="486" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -32110,7 +32279,7 @@
       </c>
       <c r="P486" s="4"/>
     </row>
-    <row r="487" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -32154,7 +32323,7 @@
       </c>
       <c r="P487" s="6"/>
     </row>
-    <row r="488" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -32200,7 +32369,7 @@
       </c>
       <c r="P488" s="4"/>
     </row>
-    <row r="489" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -32246,7 +32415,7 @@
       </c>
       <c r="P489" s="6"/>
     </row>
-    <row r="490" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -32294,7 +32463,7 @@
       </c>
       <c r="P490" s="4"/>
     </row>
-    <row r="491" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -32340,7 +32509,7 @@
       </c>
       <c r="P491" s="6"/>
     </row>
-    <row r="492" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -32386,7 +32555,7 @@
       </c>
       <c r="P492" s="4"/>
     </row>
-    <row r="493" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -32434,7 +32603,7 @@
       </c>
       <c r="P493" s="6"/>
     </row>
-    <row r="494" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -32480,7 +32649,7 @@
       </c>
       <c r="P494" s="4"/>
     </row>
-    <row r="495" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -32528,7 +32697,7 @@
       </c>
       <c r="P495" s="6"/>
     </row>
-    <row r="496" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -32574,7 +32743,7 @@
       </c>
       <c r="P496" s="4"/>
     </row>
-    <row r="497" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -32621,10 +32790,10 @@
         <v>2261</v>
       </c>
       <c r="P497" s="13" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="498" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -32670,7 +32839,7 @@
       </c>
       <c r="P498" s="4"/>
     </row>
-    <row r="499" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -32716,7 +32885,7 @@
       </c>
       <c r="P499" s="6"/>
     </row>
-    <row r="500" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -32764,7 +32933,7 @@
       </c>
       <c r="P500" s="4"/>
     </row>
-    <row r="501" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -32807,10 +32976,10 @@
         <v>2215</v>
       </c>
       <c r="P501" s="14" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -32858,7 +33027,7 @@
       </c>
       <c r="P502" s="4"/>
     </row>
-    <row r="503" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -32902,7 +33071,7 @@
       </c>
       <c r="P503" s="6"/>
     </row>
-    <row r="504" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -32950,7 +33119,7 @@
       </c>
       <c r="P504" s="4"/>
     </row>
-    <row r="505" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -32998,7 +33167,7 @@
       </c>
       <c r="P505" s="6"/>
     </row>
-    <row r="506" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -33046,7 +33215,7 @@
       </c>
       <c r="P506" s="4"/>
     </row>
-    <row r="507" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -33092,7 +33261,7 @@
       </c>
       <c r="P507" s="6"/>
     </row>
-    <row r="508" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -33140,7 +33309,7 @@
       </c>
       <c r="P508" s="4"/>
     </row>
-    <row r="509" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -33184,7 +33353,7 @@
       </c>
       <c r="P509" s="6"/>
     </row>
-    <row r="510" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -33232,7 +33401,7 @@
       </c>
       <c r="P510" s="4"/>
     </row>
-    <row r="511" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -33278,7 +33447,7 @@
       </c>
       <c r="P511" s="6"/>
     </row>
-    <row r="512" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -33326,7 +33495,7 @@
       </c>
       <c r="P512" s="4"/>
     </row>
-    <row r="513" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -33374,7 +33543,7 @@
       </c>
       <c r="P513" s="6"/>
     </row>
-    <row r="514" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -33422,7 +33591,7 @@
       </c>
       <c r="P514" s="4"/>
     </row>
-    <row r="515" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -33468,7 +33637,7 @@
       </c>
       <c r="P515" s="6"/>
     </row>
-    <row r="516" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -33516,7 +33685,7 @@
       </c>
       <c r="P516" s="4"/>
     </row>
-    <row r="517" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -33564,7 +33733,7 @@
       </c>
       <c r="P517" s="6"/>
     </row>
-    <row r="518" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -33610,7 +33779,7 @@
       </c>
       <c r="P518" s="4"/>
     </row>
-    <row r="519" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -33658,7 +33827,7 @@
       </c>
       <c r="P519" s="6"/>
     </row>
-    <row r="520" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -33704,7 +33873,7 @@
       </c>
       <c r="P520" s="4"/>
     </row>
-    <row r="521" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -33750,7 +33919,7 @@
       </c>
       <c r="P521" s="6"/>
     </row>
-    <row r="522" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -33796,7 +33965,7 @@
       </c>
       <c r="P522" s="4"/>
     </row>
-    <row r="523" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -33844,7 +34013,7 @@
       </c>
       <c r="P523" s="6"/>
     </row>
-    <row r="524" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -33890,7 +34059,7 @@
       </c>
       <c r="P524" s="4"/>
     </row>
-    <row r="525" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -33936,7 +34105,7 @@
       </c>
       <c r="P525" s="6"/>
     </row>
-    <row r="526" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -33982,7 +34151,7 @@
       </c>
       <c r="P526" s="4"/>
     </row>
-    <row r="527" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -34030,7 +34199,7 @@
       </c>
       <c r="P527" s="6"/>
     </row>
-    <row r="528" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -34076,7 +34245,7 @@
       </c>
       <c r="P528" s="4"/>
     </row>
-    <row r="529" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -34124,7 +34293,7 @@
       </c>
       <c r="P529" s="6"/>
     </row>
-    <row r="530" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -34167,10 +34336,10 @@
         <v>36</v>
       </c>
       <c r="P530" s="14" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="531" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -34218,7 +34387,7 @@
       </c>
       <c r="P531" s="6"/>
     </row>
-    <row r="532" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -34266,7 +34435,7 @@
       </c>
       <c r="P532" s="4"/>
     </row>
-    <row r="533" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -34314,7 +34483,7 @@
       </c>
       <c r="P533" s="6"/>
     </row>
-    <row r="534" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -34362,7 +34531,7 @@
       </c>
       <c r="P534" s="4"/>
     </row>
-    <row r="535" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -34408,7 +34577,7 @@
       </c>
       <c r="P535" s="6"/>
     </row>
-    <row r="536" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -34454,7 +34623,7 @@
       </c>
       <c r="P536" s="4"/>
     </row>
-    <row r="537" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -34500,7 +34669,7 @@
       </c>
       <c r="P537" s="6"/>
     </row>
-    <row r="538" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -34546,7 +34715,7 @@
       </c>
       <c r="P538" s="4"/>
     </row>
-    <row r="539" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -34592,7 +34761,7 @@
       </c>
       <c r="P539" s="6"/>
     </row>
-    <row r="540" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -34640,7 +34809,7 @@
       </c>
       <c r="P540" s="4"/>
     </row>
-    <row r="541" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -34688,7 +34857,7 @@
       </c>
       <c r="P541" s="6"/>
     </row>
-    <row r="542" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -34734,7 +34903,7 @@
       </c>
       <c r="P542" s="4"/>
     </row>
-    <row r="543" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -34782,7 +34951,7 @@
       </c>
       <c r="P543" s="6"/>
     </row>
-    <row r="544" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -34828,7 +34997,7 @@
       </c>
       <c r="P544" s="4"/>
     </row>
-    <row r="545" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -34874,7 +35043,7 @@
       </c>
       <c r="P545" s="6"/>
     </row>
-    <row r="546" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -34920,7 +35089,7 @@
       </c>
       <c r="P546" s="4"/>
     </row>
-    <row r="547" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -34966,7 +35135,7 @@
       </c>
       <c r="P547" s="6"/>
     </row>
-    <row r="548" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -35012,7 +35181,7 @@
       </c>
       <c r="P548" s="4"/>
     </row>
-    <row r="549" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -35060,7 +35229,7 @@
       </c>
       <c r="P549" s="6"/>
     </row>
-    <row r="550" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -35108,7 +35277,7 @@
       </c>
       <c r="P550" s="4"/>
     </row>
-    <row r="551" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -35152,7 +35321,7 @@
       </c>
       <c r="P551" s="6"/>
     </row>
-    <row r="552" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -35198,7 +35367,7 @@
       </c>
       <c r="P552" s="4"/>
     </row>
-    <row r="553" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -35246,7 +35415,7 @@
       </c>
       <c r="P553" s="6"/>
     </row>
-    <row r="554" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -35293,10 +35462,10 @@
         <v>36</v>
       </c>
       <c r="P554" s="14" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="555" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -35344,7 +35513,7 @@
       </c>
       <c r="P555" s="6"/>
     </row>
-    <row r="556" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -35392,7 +35561,7 @@
       </c>
       <c r="P556" s="4"/>
     </row>
-    <row r="557" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -35440,7 +35609,7 @@
       </c>
       <c r="P557" s="6"/>
     </row>
-    <row r="558" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -35488,7 +35657,7 @@
       </c>
       <c r="P558" s="4"/>
     </row>
-    <row r="559" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -35536,7 +35705,7 @@
       </c>
       <c r="P559" s="6"/>
     </row>
-    <row r="560" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -35582,7 +35751,7 @@
       </c>
       <c r="P560" s="4"/>
     </row>
-    <row r="561" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -35630,7 +35799,7 @@
       </c>
       <c r="P561" s="6"/>
     </row>
-    <row r="562" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -35676,7 +35845,7 @@
       </c>
       <c r="P562" s="4"/>
     </row>
-    <row r="563" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -35722,7 +35891,7 @@
       </c>
       <c r="P563" s="6"/>
     </row>
-    <row r="564" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -35770,7 +35939,7 @@
       </c>
       <c r="P564" s="4"/>
     </row>
-    <row r="565" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -35816,7 +35985,7 @@
       </c>
       <c r="P565" s="6"/>
     </row>
-    <row r="566" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -35862,7 +36031,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -35908,7 +36077,7 @@
       </c>
       <c r="P567" s="6"/>
     </row>
-    <row r="568" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -35956,7 +36125,7 @@
       </c>
       <c r="P568" s="4"/>
     </row>
-    <row r="569" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -36002,7 +36171,7 @@
       </c>
       <c r="P569" s="6"/>
     </row>
-    <row r="570" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -36050,7 +36219,7 @@
       </c>
       <c r="P570" s="4"/>
     </row>
-    <row r="571" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -36098,7 +36267,7 @@
       </c>
       <c r="P571" s="6"/>
     </row>
-    <row r="572" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -36146,7 +36315,7 @@
       </c>
       <c r="P572" s="4"/>
     </row>
-    <row r="573" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -36194,7 +36363,7 @@
       </c>
       <c r="P573" s="6"/>
     </row>
-    <row r="574" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -36240,8 +36409,8 @@
       </c>
       <c r="P574" s="11"/>
     </row>
-    <row r="575" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36667,7 +36836,13 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Plant selection initiates alternative successional trajectories in the soil microbial community after disturbance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="P302" r:id="rId1" xr:uid="{C526291E-5CDF-41FB-B82D-B39701F6BE8B}"/>
   </hyperlinks>
@@ -36677,11 +36852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36690,104 +36865,113 @@
     <col min="2" max="2" width="14.81640625" style="16" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="16" customWidth="1"/>
     <col min="4" max="5" width="8.6328125" style="16" customWidth="1"/>
-    <col min="6" max="7" width="11.08984375" style="16" customWidth="1"/>
-    <col min="8" max="9" width="15.90625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="16" customWidth="1"/>
-    <col min="16" max="18" width="9" style="16" customWidth="1"/>
-    <col min="19" max="20" width="14.7265625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="11.08984375" style="16" customWidth="1"/>
+    <col min="10" max="11" width="15.90625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="16" customWidth="1"/>
+    <col min="18" max="20" width="9" style="16" customWidth="1"/>
     <col min="21" max="21" width="13" style="16" customWidth="1"/>
-    <col min="22" max="22" width="18.90625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="17.453125" style="16" customWidth="1"/>
-    <col min="24" max="39" width="8.6328125" style="16" customWidth="1"/>
-    <col min="40" max="16384" width="12.6328125" style="16"/>
+    <col min="22" max="23" width="14.7265625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" style="16" customWidth="1"/>
+    <col min="25" max="25" width="18.90625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="17.453125" style="16" customWidth="1"/>
+    <col min="27" max="41" width="8.6328125" style="16" customWidth="1"/>
+    <col min="42" max="16384" width="12.6328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>2870</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>2872</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>2873</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>2897</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>2871</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>2872</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>2873</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="K1" s="20" t="s">
+        <v>2898</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>2874</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>2898</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>2899</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>2875</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>2876</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>2877</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>2878</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>2879</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>2880</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="S1" s="20" t="s">
+        <v>2931</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>2943</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>2901</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>2923</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>2944</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>2902</v>
+      </c>
+      <c r="Y1" s="20" t="s">
         <v>2881</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>2925</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>2926</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>2902</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>2927</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>2903</v>
-      </c>
-      <c r="V1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>2882</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>2883</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="AB1" s="21" t="s">
         <v>2884</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>2885</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -36797,17 +36981,17 @@
       <c r="D2" s="16">
         <v>2009</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>2913</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>2914</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>2915</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>5</v>
       </c>
@@ -36817,26 +37001,26 @@
       <c r="D3" s="16">
         <v>2011</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>2908</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>2909</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>2910</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>2911</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>2912</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>2901</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="L3" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N3" s="16">
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>6</v>
       </c>
@@ -36844,19 +37028,19 @@
         <v>51</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="D4" s="16">
         <v>2023</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>2909</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="F4" s="16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N4" s="16">
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>8</v>
       </c>
@@ -36864,22 +37048,22 @@
         <v>62</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D5" s="16">
         <v>2007</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>2913</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>2914</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>2915</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>10</v>
       </c>
@@ -36887,7 +37071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>11</v>
       </c>
@@ -36895,51 +37079,296 @@
         <v>79</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D7" s="16">
         <v>2010</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O7" s="16">
+        <v>4</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>2922</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>2923</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>2901</v>
-      </c>
-      <c r="L7" s="16">
-        <v>2003</v>
-      </c>
-      <c r="M7" s="16">
+      <c r="V7" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>481</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>2929</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>2930</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>2900</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="23">
+        <v>2009</v>
+      </c>
+      <c r="O8" s="23">
+        <v>8</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="S8" s="23">
         <v>4</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>2924</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>4</v>
-      </c>
-      <c r="R7" s="16">
-        <v>12</v>
-      </c>
-      <c r="S7" s="16">
-        <v>108</v>
-      </c>
-      <c r="T7" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="U8" s="23" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>2933</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>2935</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>452</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>2939</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2012</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>2922</v>
+      </c>
+      <c r="T9" s="16">
+        <v>27</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>2945</v>
+      </c>
+      <c r="W9" s="16">
+        <v>27</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>2935</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>396</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2004</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1999</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>2922</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>2948</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>389</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1995</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>2954</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V11" s="16">
+        <v>18</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>2955</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>389</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1995</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>2954</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>2957</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>2955</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37924,7 +38353,9 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1307374A-982B-45A3-B363-EE156686A326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41150A-21EB-4248-B05A-0E5126C514FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -9101,7 +9101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9126,8 +9126,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9347,8 +9345,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P586" sqref="P586"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -26630,7 +26628,7 @@
       </c>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -27721,11 +27719,11 @@
       </c>
       <c r="P389" s="6"/>
     </row>
-    <row r="390" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" s="14" t="s">
         <v>2028</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -27766,10 +27764,10 @@
         <v>23</v>
       </c>
       <c r="P390" s="4"/>
-      <c r="Q390" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R390" s="24" t="s">
+      <c r="Q390" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R390" s="14" t="s">
         <v>2958</v>
       </c>
     </row>
@@ -28098,10 +28096,10 @@
         <v>23</v>
       </c>
       <c r="P397" s="6"/>
-      <c r="Q397" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R397" s="25" t="s">
+      <c r="Q397" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R397" s="13" t="s">
         <v>2950</v>
       </c>
     </row>
@@ -29177,7 +29175,7 @@
       <c r="O420" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P420" s="24" t="s">
+      <c r="P420" s="14" t="s">
         <v>2946</v>
       </c>
     </row>
@@ -30730,10 +30728,10 @@
         <v>23</v>
       </c>
       <c r="P453" s="6"/>
-      <c r="Q453" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R453" s="25" t="s">
+      <c r="Q453" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R453" s="13" t="s">
         <v>2941</v>
       </c>
     </row>
@@ -32090,10 +32088,10 @@
         <v>23</v>
       </c>
       <c r="P482" s="4"/>
-      <c r="Q482" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R482" s="24" t="s">
+      <c r="Q482" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R482" s="14" t="s">
         <v>2937</v>
       </c>
     </row>
@@ -36839,7 +36837,7 @@
   <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Plant selection initiates alternative successional trajectories in the soil microbial community after disturbance"/>
+        <filter val="Macrofungal diversity and community ecology in mature and regrowth wet eucalypt forest in Tasmania: A multivariate study"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -36855,7 +36853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41150A-21EB-4248-B05A-0E5126C514FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBF895-A386-42C9-A4D5-5AE0677F806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
     <sheet name="my_datasheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">my_datasheet!$A$1:$AF$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WOS_download1!$A$1:$Y$576</definedName>
     <definedName name="ExternalData_1" localSheetId="0">WOS_download1!$B$1:$J$574</definedName>
   </definedNames>
@@ -46,7 +47,7 @@
     <author>Amara</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D84F99D3-E6AD-4EFE-A6A4-FCA0AC0201C1}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{D84F99D3-E6AD-4EFE-A6A4-FCA0AC0201C1}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6844" uniqueCount="2959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="3032">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -8717,9 +8718,6 @@
     <t>Other_disturbances</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Method_ECM_measurement</t>
   </si>
   <si>
@@ -8894,9 +8892,6 @@
     <t>Sampling_year</t>
   </si>
   <si>
-    <t>Northern_Canada</t>
-  </si>
-  <si>
     <t>ITS2</t>
   </si>
   <si>
@@ -8952,17 +8947,249 @@
   </si>
   <si>
     <t>Both descriptive study and bioassay</t>
+  </si>
+  <si>
+    <t>Not much information about the fire. Probably will be discarded</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>Sporocarp_survey</t>
+  </si>
+  <si>
+    <t>Sporocarps</t>
+  </si>
+  <si>
+    <t>2017; 2018; 2019</t>
+  </si>
+  <si>
+    <t>Great_Smoky_Mt</t>
+  </si>
+  <si>
+    <t>Prefire</t>
+  </si>
+  <si>
+    <t>Quercus_suber</t>
+  </si>
+  <si>
+    <t>Root_colonization; DNA</t>
+  </si>
+  <si>
+    <t>PCR?</t>
+  </si>
+  <si>
+    <t>Northwest_Territories</t>
+  </si>
+  <si>
+    <t>Northwest_Territories; Yukon</t>
+  </si>
+  <si>
+    <t>2.85Mha</t>
+  </si>
+  <si>
+    <t>Picea_mariana</t>
+  </si>
+  <si>
+    <t>Prefire; Unburnt</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Eucalyptus_diversicolor</t>
+  </si>
+  <si>
+    <t>N_burned sites</t>
+  </si>
+  <si>
+    <t>1998; 2002</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Boreal</t>
+  </si>
+  <si>
+    <t>Pinus_sylvestris</t>
+  </si>
+  <si>
+    <t>RFLP</t>
+  </si>
+  <si>
+    <t>Quercus_garryana</t>
+  </si>
+  <si>
+    <t>Control_type</t>
+  </si>
+  <si>
+    <t>N_total_sites</t>
+  </si>
+  <si>
+    <t>N_total_samples</t>
+  </si>
+  <si>
+    <t>No control. No replications</t>
+  </si>
+  <si>
+    <t>Does not approach wildfires as a treatment</t>
+  </si>
+  <si>
+    <t>Management (clearing and grazing)</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>rRNA</t>
+  </si>
+  <si>
+    <t>16S; 18S</t>
+  </si>
+  <si>
+    <t>Southeastern_Australia</t>
+  </si>
+  <si>
+    <t>Semiarid</t>
+  </si>
+  <si>
+    <t>Northeastern_Australia</t>
+  </si>
+  <si>
+    <t>1995; 1996</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Pyrosequencing</t>
+  </si>
+  <si>
+    <t>Caution!! They talk about fungal communities in general, not just ECM</t>
+  </si>
+  <si>
+    <t>Prescribed_fire</t>
+  </si>
+  <si>
+    <t>1; 2</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Need to find the database. They don't provide raw data. Methods are very scarce</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Sclerotia</t>
+  </si>
+  <si>
+    <t>Sampling design layout unclear</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>None of the treatments approaches our question. The ones that are burned are agricultural fields, and forest have been undisturbed for more than 60 years</t>
+  </si>
+  <si>
+    <t>Sampling design does not meet the necessary criteria</t>
+  </si>
+  <si>
+    <t>Descriptive; field_experiment</t>
+  </si>
+  <si>
+    <t>Cistus_ladanifer</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>Guild_studied</t>
+  </si>
+  <si>
+    <t>The article is focused on other topic so results about fungal community in burned vs unburned soil is not sufficient</t>
+  </si>
+  <si>
+    <t>Is a discussion article</t>
+  </si>
+  <si>
+    <t>Sites afected by wildfires are more than 30 y-old. Only one stand burned 15 years ago</t>
+  </si>
+  <si>
+    <t>Focused in boletis edulis ONLY. Probably will be discarded. Also only one site but many sampling plots.</t>
+  </si>
+  <si>
+    <t>Boletus_edulis</t>
+  </si>
+  <si>
+    <t>2013; 2014</t>
+  </si>
+  <si>
+    <t>Clearing</t>
+  </si>
+  <si>
+    <t>0-26</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Eastern_Australia</t>
+  </si>
+  <si>
+    <t>NO replication. Only one site per fire intensity and 3 plots per site</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>Hypogeous</t>
+  </si>
+  <si>
+    <t>Allocasuarina</t>
+  </si>
+  <si>
+    <t>Low-medium</t>
+  </si>
+  <si>
+    <t>&gt;1000</t>
+  </si>
+  <si>
+    <t>Only 1 UB site. Samples from potoro feces (only hypogeous fungi)</t>
+  </si>
+  <si>
+    <t>No replication. Only 1 site per treatment in each natural reserve</t>
+  </si>
+  <si>
+    <t>No replicates of each fire…</t>
+  </si>
+  <si>
+    <t>Last fire event in 1970 (more than 45 years ago)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9025,7 +9252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9080,6 +9307,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9099,33 +9392,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9345,8 +9654,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R584" sqref="R583:R584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9360,14 +9669,14 @@
     <col min="9" max="9" width="5.26953125" customWidth="1"/>
     <col min="10" max="10" width="80.7265625" customWidth="1"/>
     <col min="11" max="11" width="13.08984375" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
     <col min="13" max="13" width="12.36328125" customWidth="1"/>
     <col min="14" max="25" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9400,7 +9709,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -9412,13 +9721,13 @@
         <v>12</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9472,7 +9781,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9526,7 +9835,7 @@
         <v>20</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9628,7 +9937,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9825,7 +10134,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="5" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9879,7 +10188,7 @@
         <v>20</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9927,6 +10236,9 @@
         <v>23</v>
       </c>
       <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -9973,6 +10285,9 @@
         <v>23</v>
       </c>
       <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -10119,7 +10434,7 @@
         <v>20</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -10170,7 +10485,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10218,7 +10533,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10264,7 +10579,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10307,10 +10622,10 @@
         <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10358,7 +10673,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10404,7 +10719,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10450,7 +10765,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10498,7 +10813,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10546,7 +10861,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10594,7 +10909,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10640,7 +10955,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10688,7 +11003,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10734,7 +11049,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10782,7 +11097,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10827,8 +11142,11 @@
         <v>23</v>
       </c>
       <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10874,7 +11192,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11429,7 +11747,7 @@
         <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -12555,7 +12873,7 @@
         <v>269</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -13498,7 +13816,7 @@
         <v>36</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="P87" s="7"/>
     </row>
@@ -16944,7 +17262,7 @@
       </c>
       <c r="P160" s="5"/>
     </row>
-    <row r="161" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -16992,7 +17310,7 @@
       </c>
       <c r="P161" s="7"/>
     </row>
-    <row r="162" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17038,7 +17356,7 @@
       </c>
       <c r="P162" s="5"/>
     </row>
-    <row r="163" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17086,7 +17404,7 @@
       </c>
       <c r="P163" s="7"/>
     </row>
-    <row r="164" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17132,7 +17450,7 @@
       </c>
       <c r="P164" s="5"/>
     </row>
-    <row r="165" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17180,7 +17498,7 @@
       </c>
       <c r="P165" s="7"/>
     </row>
-    <row r="166" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17228,7 +17546,7 @@
       </c>
       <c r="P166" s="5"/>
     </row>
-    <row r="167" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -17274,7 +17592,7 @@
       </c>
       <c r="P167" s="7"/>
     </row>
-    <row r="168" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -17322,7 +17640,7 @@
       </c>
       <c r="P168" s="5"/>
     </row>
-    <row r="169" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -17368,7 +17686,7 @@
       </c>
       <c r="P169" s="7"/>
     </row>
-    <row r="170" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -17416,7 +17734,7 @@
       </c>
       <c r="P170" s="5"/>
     </row>
-    <row r="171" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -17461,8 +17779,11 @@
         <v>23</v>
       </c>
       <c r="P171" s="7"/>
-    </row>
-    <row r="172" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q171" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -17510,7 +17831,7 @@
       </c>
       <c r="P172" s="5"/>
     </row>
-    <row r="173" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -17558,7 +17879,7 @@
       </c>
       <c r="P173" s="7"/>
     </row>
-    <row r="174" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -17606,7 +17927,7 @@
       </c>
       <c r="P174" s="5"/>
     </row>
-    <row r="175" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -17652,7 +17973,7 @@
       </c>
       <c r="P175" s="7"/>
     </row>
-    <row r="176" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -17700,7 +18021,7 @@
       </c>
       <c r="P176" s="5"/>
     </row>
-    <row r="177" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -17748,7 +18069,7 @@
       </c>
       <c r="P177" s="7"/>
     </row>
-    <row r="178" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -17796,7 +18117,7 @@
       </c>
       <c r="P178" s="5"/>
     </row>
-    <row r="179" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -17842,7 +18163,7 @@
       </c>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -17888,7 +18209,7 @@
       </c>
       <c r="P180" s="5"/>
     </row>
-    <row r="181" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -17934,7 +18255,7 @@
       </c>
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -17982,7 +18303,7 @@
       </c>
       <c r="P182" s="5"/>
     </row>
-    <row r="183" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -18028,7 +18349,7 @@
       </c>
       <c r="P183" s="7"/>
     </row>
-    <row r="184" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -18074,7 +18395,7 @@
       </c>
       <c r="P184" s="5"/>
     </row>
-    <row r="185" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -18122,7 +18443,7 @@
       </c>
       <c r="P185" s="7"/>
     </row>
-    <row r="186" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -18170,7 +18491,7 @@
       </c>
       <c r="P186" s="5"/>
     </row>
-    <row r="187" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -18216,7 +18537,7 @@
       </c>
       <c r="P187" s="7"/>
     </row>
-    <row r="188" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -18263,10 +18584,10 @@
         <v>269</v>
       </c>
       <c r="P188" s="7" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -18311,8 +18632,11 @@
         <v>23</v>
       </c>
       <c r="P189" s="7"/>
-    </row>
-    <row r="190" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q189" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -18360,7 +18684,7 @@
       </c>
       <c r="P190" s="5"/>
     </row>
-    <row r="191" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -18406,7 +18730,7 @@
       </c>
       <c r="P191" s="7"/>
     </row>
-    <row r="192" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -18589,7 +18913,7 @@
         <v>1106</v>
       </c>
       <c r="P195" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -19761,7 +20085,7 @@
         <v>23</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -20327,7 +20651,7 @@
         <v>1106</v>
       </c>
       <c r="P232" s="14" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -20513,7 +20837,7 @@
         <v>23</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -21163,14 +21487,14 @@
         <v>22</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="4" t="s">
-        <v>22</v>
+      <c r="M250" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="N250" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="P250" s="4"/>
     </row>
@@ -21917,7 +22241,7 @@
         <v>36</v>
       </c>
       <c r="P266" s="14" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -23605,7 +23929,7 @@
         <v>23</v>
       </c>
       <c r="P302" s="22" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -24449,7 +24773,7 @@
         <v>23</v>
       </c>
       <c r="P320" s="14" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="321" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -24637,7 +24961,7 @@
         <v>36</v>
       </c>
       <c r="P324" s="14" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -25107,7 +25431,7 @@
         <v>23</v>
       </c>
       <c r="P334" s="4" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -25959,7 +26283,7 @@
         <v>36</v>
       </c>
       <c r="P352" s="14" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="353" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -26199,6 +26523,9 @@
         <v>23</v>
       </c>
       <c r="P357" s="6"/>
+      <c r="Q357" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="358" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
@@ -26628,7 +26955,7 @@
       </c>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -26673,6 +27000,12 @@
         <v>23</v>
       </c>
       <c r="P367" s="6"/>
+      <c r="Q367" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R367" s="13" t="s">
+        <v>2957</v>
+      </c>
     </row>
     <row r="368" spans="1:25" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="8">
@@ -26721,7 +27054,7 @@
         <v>269</v>
       </c>
       <c r="P368" s="9" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
@@ -27384,7 +27717,7 @@
         <v>1256</v>
       </c>
       <c r="P382" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="383" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -27768,7 +28101,7 @@
         <v>22</v>
       </c>
       <c r="R390" s="14" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="391" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -28100,7 +28433,7 @@
         <v>22</v>
       </c>
       <c r="R397" s="13" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="398" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -28896,7 +29229,7 @@
         <v>269</v>
       </c>
       <c r="P414" s="14" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -29176,7 +29509,7 @@
         <v>23</v>
       </c>
       <c r="P420" s="14" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -29320,7 +29653,7 @@
         <v>269</v>
       </c>
       <c r="P423" s="13" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -29648,7 +29981,7 @@
         <v>269</v>
       </c>
       <c r="P430" s="14" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="431" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -30168,7 +30501,7 @@
         <v>2261</v>
       </c>
       <c r="P441" s="13" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="442" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -30214,7 +30547,7 @@
         <v>1256</v>
       </c>
       <c r="P442" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="443" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -30732,7 +31065,7 @@
         <v>22</v>
       </c>
       <c r="R453" s="13" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="454" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -30778,7 +31111,7 @@
         <v>1608</v>
       </c>
       <c r="P454" s="7" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="455" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -31394,7 +31727,7 @@
         <v>269</v>
       </c>
       <c r="P467" s="13" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="468" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -32092,7 +32425,7 @@
         <v>22</v>
       </c>
       <c r="R482" s="14" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="483" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -32277,7 +32610,7 @@
       </c>
       <c r="P486" s="4"/>
     </row>
-    <row r="487" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -32320,6 +32653,12 @@
         <v>23</v>
       </c>
       <c r="P487" s="6"/>
+      <c r="Q487" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R487" s="39" t="s">
+        <v>3031</v>
+      </c>
     </row>
     <row r="488" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
@@ -32412,6 +32751,12 @@
         <v>23</v>
       </c>
       <c r="P489" s="6"/>
+      <c r="Q489" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R489" s="39" t="s">
+        <v>3030</v>
+      </c>
     </row>
     <row r="490" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
@@ -32506,6 +32851,12 @@
         <v>23</v>
       </c>
       <c r="P491" s="6"/>
+      <c r="Q491" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R491" s="39" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="492" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
@@ -32552,6 +32903,9 @@
         <v>23</v>
       </c>
       <c r="P492" s="4"/>
+      <c r="Q492" s="37" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="493" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
@@ -32646,6 +33000,12 @@
         <v>23</v>
       </c>
       <c r="P494" s="4"/>
+      <c r="Q494" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R494" s="37" t="s">
+        <v>3022</v>
+      </c>
     </row>
     <row r="495" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
@@ -32741,7 +33101,7 @@
       </c>
       <c r="P496" s="4"/>
     </row>
-    <row r="497" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -32788,10 +33148,10 @@
         <v>2261</v>
       </c>
       <c r="P497" s="13" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="498" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="498" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -32836,8 +33196,14 @@
         <v>23</v>
       </c>
       <c r="P498" s="4"/>
-    </row>
-    <row r="499" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q498" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R498" s="14" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="499" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -32882,8 +33248,14 @@
         <v>23</v>
       </c>
       <c r="P499" s="6"/>
-    </row>
-    <row r="500" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q499" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R499" s="13" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="500" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -32931,7 +33303,7 @@
       </c>
       <c r="P500" s="4"/>
     </row>
-    <row r="501" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -32974,10 +33346,10 @@
         <v>2215</v>
       </c>
       <c r="P501" s="14" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="502" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -33025,7 +33397,7 @@
       </c>
       <c r="P502" s="4"/>
     </row>
-    <row r="503" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -33067,9 +33439,14 @@
       <c r="O503" s="7" t="s">
         <v>2215</v>
       </c>
-      <c r="P503" s="6"/>
-    </row>
-    <row r="504" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P503" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Q503" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="504" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -33117,7 +33494,7 @@
       </c>
       <c r="P504" s="4"/>
     </row>
-    <row r="505" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -33165,7 +33542,7 @@
       </c>
       <c r="P505" s="6"/>
     </row>
-    <row r="506" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -33213,7 +33590,7 @@
       </c>
       <c r="P506" s="4"/>
     </row>
-    <row r="507" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -33259,7 +33636,7 @@
       </c>
       <c r="P507" s="6"/>
     </row>
-    <row r="508" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -33307,7 +33684,7 @@
       </c>
       <c r="P508" s="4"/>
     </row>
-    <row r="509" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -33350,8 +33727,12 @@
         <v>23</v>
       </c>
       <c r="P509" s="6"/>
-    </row>
-    <row r="510" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q509" s="13"/>
+      <c r="R509" s="13" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="510" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -33399,7 +33780,7 @@
       </c>
       <c r="P510" s="4"/>
     </row>
-    <row r="511" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -33445,7 +33826,7 @@
       </c>
       <c r="P511" s="6"/>
     </row>
-    <row r="512" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -33493,7 +33874,7 @@
       </c>
       <c r="P512" s="4"/>
     </row>
-    <row r="513" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -33541,7 +33922,7 @@
       </c>
       <c r="P513" s="6"/>
     </row>
-    <row r="514" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -33589,7 +33970,7 @@
       </c>
       <c r="P514" s="4"/>
     </row>
-    <row r="515" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -33635,7 +34016,7 @@
       </c>
       <c r="P515" s="6"/>
     </row>
-    <row r="516" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -33683,7 +34064,7 @@
       </c>
       <c r="P516" s="4"/>
     </row>
-    <row r="517" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -33731,7 +34112,7 @@
       </c>
       <c r="P517" s="6"/>
     </row>
-    <row r="518" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -33777,7 +34158,7 @@
       </c>
       <c r="P518" s="4"/>
     </row>
-    <row r="519" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -33825,7 +34206,7 @@
       </c>
       <c r="P519" s="6"/>
     </row>
-    <row r="520" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -33870,8 +34251,14 @@
         <v>23</v>
       </c>
       <c r="P520" s="4"/>
-    </row>
-    <row r="521" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q520" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R520" s="14" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="521" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -33916,8 +34303,14 @@
         <v>23</v>
       </c>
       <c r="P521" s="6"/>
-    </row>
-    <row r="522" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q521" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R521" s="13" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="522" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -33962,8 +34355,11 @@
         <v>23</v>
       </c>
       <c r="P522" s="4"/>
-    </row>
-    <row r="523" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q522" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="523" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -34011,7 +34407,7 @@
       </c>
       <c r="P523" s="6"/>
     </row>
-    <row r="524" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -34057,7 +34453,7 @@
       </c>
       <c r="P524" s="4"/>
     </row>
-    <row r="525" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -34102,8 +34498,14 @@
         <v>23</v>
       </c>
       <c r="P525" s="6"/>
-    </row>
-    <row r="526" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q525" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R525" s="13" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="526" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -34148,8 +34550,14 @@
         <v>23</v>
       </c>
       <c r="P526" s="4"/>
-    </row>
-    <row r="527" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q526" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R526" s="14" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="527" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -34197,7 +34605,7 @@
       </c>
       <c r="P527" s="6"/>
     </row>
-    <row r="528" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -34243,7 +34651,7 @@
       </c>
       <c r="P528" s="4"/>
     </row>
-    <row r="529" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -34291,7 +34699,7 @@
       </c>
       <c r="P529" s="6"/>
     </row>
-    <row r="530" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -34334,10 +34742,10 @@
         <v>36</v>
       </c>
       <c r="P530" s="14" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="531" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="531" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -34385,7 +34793,7 @@
       </c>
       <c r="P531" s="6"/>
     </row>
-    <row r="532" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -34433,7 +34841,7 @@
       </c>
       <c r="P532" s="4"/>
     </row>
-    <row r="533" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -34481,7 +34889,7 @@
       </c>
       <c r="P533" s="6"/>
     </row>
-    <row r="534" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -34529,7 +34937,7 @@
       </c>
       <c r="P534" s="4"/>
     </row>
-    <row r="535" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -34574,8 +34982,11 @@
         <v>23</v>
       </c>
       <c r="P535" s="6"/>
-    </row>
-    <row r="536" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q535" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="536" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -34621,7 +35032,7 @@
       </c>
       <c r="P536" s="4"/>
     </row>
-    <row r="537" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -34667,7 +35078,7 @@
       </c>
       <c r="P537" s="6"/>
     </row>
-    <row r="538" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -34712,8 +35123,14 @@
         <v>23</v>
       </c>
       <c r="P538" s="4"/>
-    </row>
-    <row r="539" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q538" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R538" s="14" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="539" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -34759,7 +35176,7 @@
       </c>
       <c r="P539" s="6"/>
     </row>
-    <row r="540" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -34807,7 +35224,7 @@
       </c>
       <c r="P540" s="4"/>
     </row>
-    <row r="541" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -34855,7 +35272,7 @@
       </c>
       <c r="P541" s="6"/>
     </row>
-    <row r="542" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -34900,8 +35317,14 @@
         <v>23</v>
       </c>
       <c r="P542" s="4"/>
-    </row>
-    <row r="543" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q542" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R542" s="14" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -34949,7 +35372,7 @@
       </c>
       <c r="P543" s="6"/>
     </row>
-    <row r="544" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -34995,7 +35418,7 @@
       </c>
       <c r="P544" s="4"/>
     </row>
-    <row r="545" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -35041,11 +35464,11 @@
       </c>
       <c r="P545" s="6"/>
     </row>
-    <row r="546" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>545</v>
       </c>
-      <c r="B546" s="4" t="s">
+      <c r="B546" s="14" t="s">
         <v>2739</v>
       </c>
       <c r="C546" s="5" t="s">
@@ -35086,8 +35509,11 @@
         <v>23</v>
       </c>
       <c r="P546" s="4"/>
-    </row>
-    <row r="547" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q546" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="547" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -35131,9 +35557,14 @@
       <c r="O547" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P547" s="6"/>
-    </row>
-    <row r="548" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P547" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Q547" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="548" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -35179,7 +35610,7 @@
       </c>
       <c r="P548" s="4"/>
     </row>
-    <row r="549" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -35227,7 +35658,7 @@
       </c>
       <c r="P549" s="6"/>
     </row>
-    <row r="550" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -35275,7 +35706,7 @@
       </c>
       <c r="P550" s="4"/>
     </row>
-    <row r="551" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -35319,7 +35750,7 @@
       </c>
       <c r="P551" s="6"/>
     </row>
-    <row r="552" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -35365,7 +35796,7 @@
       </c>
       <c r="P552" s="4"/>
     </row>
-    <row r="553" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -35413,7 +35844,7 @@
       </c>
       <c r="P553" s="6"/>
     </row>
-    <row r="554" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -35460,10 +35891,10 @@
         <v>36</v>
       </c>
       <c r="P554" s="14" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="555" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="555" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -35511,7 +35942,7 @@
       </c>
       <c r="P555" s="6"/>
     </row>
-    <row r="556" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -35559,7 +35990,7 @@
       </c>
       <c r="P556" s="4"/>
     </row>
-    <row r="557" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -35607,7 +36038,7 @@
       </c>
       <c r="P557" s="6"/>
     </row>
-    <row r="558" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -35655,7 +36086,7 @@
       </c>
       <c r="P558" s="4"/>
     </row>
-    <row r="559" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -35703,7 +36134,7 @@
       </c>
       <c r="P559" s="6"/>
     </row>
-    <row r="560" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -35748,8 +36179,14 @@
         <v>23</v>
       </c>
       <c r="P560" s="4"/>
-    </row>
-    <row r="561" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q560" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R560" s="14" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="561" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -35797,7 +36234,7 @@
       </c>
       <c r="P561" s="6"/>
     </row>
-    <row r="562" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -35842,8 +36279,14 @@
         <v>23</v>
       </c>
       <c r="P562" s="4"/>
-    </row>
-    <row r="563" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q562" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R562" s="38" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="563" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -35888,8 +36331,11 @@
         <v>23</v>
       </c>
       <c r="P563" s="6"/>
-    </row>
-    <row r="564" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q563" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -35937,7 +36383,7 @@
       </c>
       <c r="P564" s="4"/>
     </row>
-    <row r="565" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -35982,8 +36428,11 @@
         <v>23</v>
       </c>
       <c r="P565" s="6"/>
-    </row>
-    <row r="566" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q565" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="566" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -36029,7 +36478,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -36075,7 +36524,7 @@
       </c>
       <c r="P567" s="6"/>
     </row>
-    <row r="568" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -36123,7 +36572,7 @@
       </c>
       <c r="P568" s="4"/>
     </row>
-    <row r="569" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -36168,8 +36617,14 @@
         <v>23</v>
       </c>
       <c r="P569" s="6"/>
-    </row>
-    <row r="570" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q569" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R569" s="13" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="570" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -36217,7 +36672,7 @@
       </c>
       <c r="P570" s="4"/>
     </row>
-    <row r="571" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -36265,7 +36720,7 @@
       </c>
       <c r="P571" s="6"/>
     </row>
-    <row r="572" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -36313,7 +36768,7 @@
       </c>
       <c r="P572" s="4"/>
     </row>
-    <row r="573" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -36361,7 +36816,7 @@
       </c>
       <c r="P573" s="6"/>
     </row>
-    <row r="574" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -36406,9 +36861,15 @@
         <v>23</v>
       </c>
       <c r="P574" s="11"/>
-    </row>
-    <row r="575" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="Q574" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R574" s="35" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="575" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36837,7 +37298,7 @@
   <autoFilter ref="A1:Y576" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Macrofungal diversity and community ecology in mature and regrowth wet eucalypt forest in Tasmania: A multivariate study"/>
+        <filter val="Communities of tropical soil fungi differ between burned and unburned forest, with corresponding changes in plant community composition, litter and soil chemistry"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -36851,538 +37312,1484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB999"/>
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="16" customWidth="1"/>
     <col min="4" max="5" width="8.6328125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="16" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" style="16" customWidth="1"/>
     <col min="8" max="9" width="11.08984375" style="16" customWidth="1"/>
-    <col min="10" max="11" width="15.90625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="16" customWidth="1"/>
-    <col min="18" max="20" width="9" style="16" customWidth="1"/>
-    <col min="21" max="21" width="13" style="16" customWidth="1"/>
-    <col min="22" max="23" width="14.7265625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" style="16" customWidth="1"/>
-    <col min="25" max="25" width="18.90625" style="16" customWidth="1"/>
-    <col min="26" max="26" width="17.453125" style="16" customWidth="1"/>
-    <col min="27" max="41" width="8.6328125" style="16" customWidth="1"/>
-    <col min="42" max="16384" width="12.6328125" style="16"/>
+    <col min="10" max="10" width="13.7265625" style="16" customWidth="1"/>
+    <col min="11" max="12" width="15.90625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="17.1796875" style="16" customWidth="1"/>
+    <col min="22" max="22" width="16.08984375" style="16" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="13" style="16" customWidth="1"/>
+    <col min="27" max="27" width="14.7265625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="16" customWidth="1"/>
+    <col min="29" max="29" width="18.90625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="17.453125" style="16" customWidth="1"/>
+    <col min="31" max="45" width="8.6328125" style="16" customWidth="1"/>
+    <col min="46" max="16384" width="12.6328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:36" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>2870</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>2872</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>2873</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>3011</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>2896</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>2928</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>2938</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>2871</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>2952</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>2872</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>2873</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>2897</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>2898</v>
-      </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="27" t="s">
         <v>2874</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="27" t="s">
         <v>2875</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="27" t="s">
         <v>2876</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="27" t="s">
         <v>2877</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="27" t="s">
         <v>2878</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="29" t="s">
         <v>2879</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="26" t="s">
+        <v>2982</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>2983</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>2984</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>2930</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>2941</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>2975</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>2900</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AC1" s="32" t="s">
         <v>2880</v>
       </c>
-      <c r="S1" s="20" t="s">
-        <v>2931</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>2943</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>2901</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>2923</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>2944</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>2902</v>
-      </c>
-      <c r="Y1" s="20" t="s">
+      <c r="AD1" s="32" t="s">
         <v>2881</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AE1" s="32" t="s">
         <v>2882</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AF1" s="33" t="s">
         <v>2883</v>
       </c>
-      <c r="AB1" s="21" t="s">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="16">
         <v>2009</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>2911</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>2912</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>2913</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    </row>
+    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="16">
         <v>2011</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>2907</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>2908</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>2909</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="M3" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>6</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>2910</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N3" s="16">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>2911</v>
       </c>
       <c r="D4" s="16">
         <v>2023</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>2907</v>
-      </c>
-      <c r="N4" s="16">
+        <v>2906</v>
+      </c>
+      <c r="O4" s="16">
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D5" s="16">
         <v>2007</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>2911</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>2912</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>2913</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    </row>
+    <row r="6" spans="1:36" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="C6" s="23" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>2968</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O6" s="23">
+        <v>2014</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>2972</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>10</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>2968</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O7" s="23">
+        <v>2014</v>
+      </c>
+      <c r="P7" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>2972</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="24" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2007</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>2919</v>
       </c>
-      <c r="D7" s="16">
+      <c r="G8" s="24" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>2965</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O8" s="24">
+        <v>2003</v>
+      </c>
+      <c r="P8" s="24">
+        <v>4</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AD8" s="24" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AE8" s="24" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>11</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D9" s="24">
         <v>2010</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E9" s="24">
+        <v>2007</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>2920</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="L9" s="24" t="s">
+        <v>2965</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O9" s="24">
+        <v>2003</v>
+      </c>
+      <c r="P9" s="24">
+        <v>4</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>2921</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2003</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="Z9" s="24" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>2966</v>
+      </c>
+      <c r="AD9" s="24" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AE9" s="24" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>481</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>2899</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="23">
+        <v>2009</v>
+      </c>
+      <c r="P10" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>2921</v>
+      </c>
+      <c r="V10" s="23">
         <v>4</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>2922</v>
-      </c>
-      <c r="V7" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>481</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>2932</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="23" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE10" s="23" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>452</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2015</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>2969</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>2899</v>
       </c>
-      <c r="D8" s="23">
+      <c r="O11" s="16">
+        <v>2012</v>
+      </c>
+      <c r="P11" s="16">
+        <v>3</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="W11" s="16">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>396</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2004</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>2906</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1999</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>2947</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>389</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O13" s="24">
+        <v>1995</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>2952</v>
+      </c>
+      <c r="Z13" s="24" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AE13" s="24" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>389</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O14" s="24">
+        <v>1995</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>2952</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>2955</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>366</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2002</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1994</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>2958</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>2959</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>356</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>2963</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O16" s="16">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>2964</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>2967</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>188</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2008</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>2974</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1997</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="V17" s="16">
+        <v>4</v>
+      </c>
+      <c r="X17" s="16">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>29</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1999</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>2978</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>2979</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>29</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1999</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>2978</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>2979</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>170</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>970</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E20" s="16">
+        <v>2017</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>2981</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O20" s="16">
+        <v>2017</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>90000</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD20" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>564</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2020</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O21" s="16">
+        <v>2019</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>2987</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="T21" s="16">
+        <v>12</v>
+      </c>
+      <c r="U21" s="16">
+        <v>36</v>
+      </c>
+      <c r="V21" s="16">
+        <v>4</v>
+      </c>
+      <c r="X21" s="16">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>2989</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>562</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="16">
         <v>2021</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>2929</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>2930</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>2900</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="23">
-        <v>2009</v>
-      </c>
-      <c r="O8" s="23">
+      <c r="F22" s="16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>2992</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="T22" s="16">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>559</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2018</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O23" s="16">
+        <v>2014</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>2996</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>545</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>2998</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>2999</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="T24" s="16">
+        <v>24</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>541</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2023</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>537</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1994</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>3002</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1988</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <v>534</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="O27" s="16">
+        <v>2018</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="T27" s="16">
+        <v>9</v>
+      </c>
+      <c r="U27" s="16">
+        <v>36</v>
+      </c>
+      <c r="V27" s="16">
+        <v>3</v>
+      </c>
+      <c r="X27" s="16">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <v>521</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="16">
+        <v>2014</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>3009</v>
+      </c>
+      <c r="U28" s="16">
+        <v>135</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>3010</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <v>498</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>3016</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="P29" s="16">
         <v>8</v>
       </c>
-      <c r="P8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>2922</v>
-      </c>
-      <c r="S8" s="23">
-        <v>4</v>
-      </c>
-      <c r="U8" s="23" t="s">
-        <v>2932</v>
-      </c>
-      <c r="V8" s="23" t="s">
+      <c r="R29" s="16" t="s">
+        <v>3018</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="U29" s="16">
+        <v>27</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AC29" s="16" t="s">
         <v>2933</v>
       </c>
-      <c r="X8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y8" s="23" t="s">
+    </row>
+    <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <v>497</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2020</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>3021</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>2959</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="P30" s="16">
+        <v>3</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AD30" s="16" t="s">
         <v>2934</v>
       </c>
-      <c r="Z8" s="23" t="s">
-        <v>2935</v>
-      </c>
-      <c r="AA8" s="23" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>452</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2015</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>2939</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>2942</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N9" s="16">
-        <v>2012</v>
-      </c>
-      <c r="O9" s="16">
-        <v>3</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>2922</v>
-      </c>
-      <c r="T9" s="16">
-        <v>27</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>2932</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>2945</v>
-      </c>
-      <c r="W9" s="16">
-        <v>27</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>2934</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>2935</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>396</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="AE30" s="16" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <v>491</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D31" s="16">
         <v>2004</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>2947</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>2907</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>2942</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N10" s="16">
-        <v>1999</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>2922</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>2932</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>2948</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>2949</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>389</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2019</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>2951</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>2953</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N11" s="16">
-        <v>1995</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>2954</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>2932</v>
-      </c>
-      <c r="V11" s="16">
-        <v>18</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>2934</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>2955</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>389</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>2919</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2019</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>2951</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>2953</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N12" s="16">
-        <v>1995</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>2954</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>2957</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>2934</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>2955</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E31" s="16" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>3023</v>
+      </c>
+      <c r="H31" s="16">
+        <v>-17.016667000000002</v>
+      </c>
+      <c r="I31" s="16">
+        <v>145.58333300000001</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>3024</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>2959</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>3025</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>2998</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>3026</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>2994</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>3027</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z31" s="16" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC31" s="16" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38350,8 +39757,10 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <autoFilter ref="A1:AF1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E6BBB8-C96D-4F5D-9F71-5DBA66F74706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DB700-D363-49B9-BE6C-AE0E79E4E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7203" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="3055">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -6978,9 +6978,6 @@
     <t>Wildfire is the dominant disturbance in boreal forests and fire activity is increasing in these regions. Soil fungal communities are important for plant growth and nutrient cycling postfire but there is little understanding of how fires impact fungal communities across landscapes, fire severity gradients, and stand types in boreal forests. Understanding relationships between fungal community composition, particularly mycorrhizas, and understory plant composition is therefore important in predicting how future fire regimes may affect vegetation. We used an extreme wildfire event in boreal forests of Canada's Northwest Territories to test drivers of fungal communities and assess relationships with plant communities. We sampled soils from 39 plots 1 year after fire and 8 unburned plots. High-throughput sequencing (MiSeq, ITS) revealed 2,034 fungal operational taxonomic units. We found soil pH and fire severity (proportion soil organic layer combusted), and interactions between these drivers were important for fungal community structure (composition, richness, diversity, functional groups). Where fire severity was low, samples with low pH had higher total fungal, mycorrhizal, and saprotroph richness compared to where severity was high. Increased fire severity caused declines in richness of total fungi, mycorrhizas, and saprotrophs, and declines in diversity of total fungi and mycorrhizas. The importance of stand age (a surrogate for fire return interval) for fungal composition suggests we could detect long-term successional patterns even after fire. Mycorrhizal and plant community composition, richness, and diversity were weakly but significantly correlated. These weak relationships and the distribution of fungi across plots suggest that the underlying driver of fungal community structure is pH, which is modified by fire severity. This study shows the importance of edaphic factors in determining fungal community structure at large scales, but suggests these patterns are mediated by interactions between fire and forest stand composition.</t>
   </si>
   <si>
-    <t>Pre-print</t>
-  </si>
-  <si>
     <t>Dundas, Shannon J.; Hopkins, Anna J. M.; Ruthrof, Katinka X.; Tay, Natasha E.; Burgess, Treena, I; Hardy, Giles E. St J.; Fleming, Patricia A.</t>
   </si>
   <si>
@@ -8799,12 +8796,6 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t xml:space="preserve">65.14793N </t>
-  </si>
-  <si>
-    <t>147.47123W</t>
-  </si>
-  <si>
     <t>Alnus_viridis</t>
   </si>
   <si>
@@ -8982,21 +8973,12 @@
     <t>PCR?</t>
   </si>
   <si>
-    <t>Northwest_Territories</t>
-  </si>
-  <si>
     <t>Northwest_Territories; Yukon</t>
   </si>
   <si>
-    <t>2.85Mha</t>
-  </si>
-  <si>
     <t>Picea_mariana</t>
   </si>
   <si>
-    <t>Prefire; Unburnt</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
@@ -9198,9 +9180,6 @@
     <t>All_fungi</t>
   </si>
   <si>
-    <t>Pinus_mariana</t>
-  </si>
-  <si>
     <t>Does not approach the topic. They only classify tree species as ECM-AM…</t>
   </si>
   <si>
@@ -9226,6 +9205,42 @@
   </si>
   <si>
     <t>Halimium</t>
+  </si>
+  <si>
+    <t>Pinus_contortata</t>
+  </si>
+  <si>
+    <t>0-5; 5-10</t>
+  </si>
+  <si>
+    <t>Off topic. Also no sampling in unburnt/control sites</t>
+  </si>
+  <si>
+    <t>Same dataset that in Day et al. 2019</t>
+  </si>
+  <si>
+    <t>Northern_Territories</t>
+  </si>
+  <si>
+    <t>2.85M ha</t>
+  </si>
+  <si>
+    <t>Pinus_banksiana</t>
+  </si>
+  <si>
+    <t>Same fire as in Day 2019</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Chronosequence. Last fire 20 years ago</t>
+  </si>
+  <si>
+    <t>Interesting but the results cannot fit in the meta-analysis</t>
+  </si>
+  <si>
+    <t>Eucalyptus_pilularis</t>
   </si>
 </sst>
 </file>
@@ -9664,8 +9679,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461:B461"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R444" sqref="R444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9687,7 +9702,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9720,7 +9735,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -9732,16 +9747,16 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9796,7 +9811,7 @@
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9850,10 +9865,10 @@
         <v>20</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9955,10 +9970,10 @@
         <v>20</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10157,7 +10172,7 @@
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="19" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="R9" s="19"/>
     </row>
@@ -10212,13 +10227,13 @@
         <v>20</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10264,9 +10279,14 @@
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3046</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -10463,10 +10483,10 @@
         <v>20</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10654,7 +10674,7 @@
         <v>36</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11780,7 +11800,7 @@
         <v>269</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12906,7 +12926,7 @@
         <v>269</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13849,7 +13869,7 @@
         <v>36</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="P87" s="3"/>
     </row>
@@ -18618,7 +18638,7 @@
         <v>269</v>
       </c>
       <c r="P188" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18948,7 +18968,7 @@
         <v>1106</v>
       </c>
       <c r="P195" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20120,7 +20140,7 @@
         <v>23</v>
       </c>
       <c r="P220" s="19" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20686,7 +20706,7 @@
         <v>1106</v>
       </c>
       <c r="P232" s="19" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20872,7 +20892,7 @@
         <v>23</v>
       </c>
       <c r="P236" s="19" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22276,7 +22296,7 @@
         <v>36</v>
       </c>
       <c r="P266" s="19" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23964,7 +23984,7 @@
         <v>23</v>
       </c>
       <c r="P302" s="20" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24808,7 +24828,7 @@
         <v>23</v>
       </c>
       <c r="P320" s="19" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="321" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24996,7 +25016,7 @@
         <v>36</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25466,7 +25486,7 @@
         <v>23</v>
       </c>
       <c r="P334" s="19" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26318,7 +26338,7 @@
         <v>36</v>
       </c>
       <c r="P352" s="19" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="353" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27041,7 +27061,7 @@
       </c>
       <c r="R367" s="3"/>
       <c r="S367" s="3" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="368" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27091,7 +27111,7 @@
         <v>269</v>
       </c>
       <c r="P368" s="22" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="Q368" s="21"/>
       <c r="R368" s="21"/>
@@ -27755,7 +27775,7 @@
         <v>1256</v>
       </c>
       <c r="P382" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="383" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28140,7 +28160,7 @@
       </c>
       <c r="R390" s="19"/>
       <c r="S390" s="19" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28473,7 +28493,7 @@
       </c>
       <c r="R397" s="3"/>
       <c r="S397" s="3" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29269,7 +29289,7 @@
         <v>269</v>
       </c>
       <c r="P414" s="19" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29549,7 +29569,7 @@
         <v>23</v>
       </c>
       <c r="P420" s="19" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29693,7 +29713,7 @@
         <v>269</v>
       </c>
       <c r="P423" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30021,7 +30041,7 @@
         <v>269</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="431" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30120,7 +30140,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -30166,7 +30186,7 @@
       </c>
       <c r="P433" s="3"/>
     </row>
-    <row r="434" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -30212,7 +30232,7 @@
       </c>
       <c r="P434" s="19"/>
     </row>
-    <row r="435" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -30258,7 +30278,7 @@
       </c>
       <c r="P435" s="3"/>
     </row>
-    <row r="436" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -30306,7 +30326,7 @@
       </c>
       <c r="P436" s="19"/>
     </row>
-    <row r="437" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -30352,7 +30372,7 @@
       </c>
       <c r="P437" s="3"/>
     </row>
-    <row r="438" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -30400,7 +30420,7 @@
       </c>
       <c r="P438" s="19"/>
     </row>
-    <row r="439" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -30446,7 +30466,7 @@
       </c>
       <c r="P439" s="3"/>
     </row>
-    <row r="440" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -30494,7 +30514,7 @@
       </c>
       <c r="P440" s="19"/>
     </row>
-    <row r="441" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -30541,10 +30561,10 @@
         <v>2261</v>
       </c>
       <c r="P441" s="3" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -30587,10 +30607,10 @@
         <v>1256</v>
       </c>
       <c r="P442" s="3" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -30636,7 +30656,7 @@
       </c>
       <c r="P443" s="3"/>
     </row>
-    <row r="444" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -30681,8 +30701,11 @@
         <v>23</v>
       </c>
       <c r="P444" s="19"/>
-    </row>
-    <row r="445" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q444" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -30730,7 +30753,7 @@
       </c>
       <c r="P445" s="3"/>
     </row>
-    <row r="446" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -30775,8 +30798,17 @@
         <v>23</v>
       </c>
       <c r="P446" s="19"/>
-    </row>
-    <row r="447" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q446" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -30821,8 +30853,17 @@
         <v>23</v>
       </c>
       <c r="P447" s="3"/>
-    </row>
-    <row r="448" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q447" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R447" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -30913,6 +30954,12 @@
         <v>23</v>
       </c>
       <c r="P449" s="3"/>
+      <c r="Q449" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>3050</v>
+      </c>
     </row>
     <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
@@ -30956,19 +31003,22 @@
         <v>22</v>
       </c>
       <c r="O450" s="19" t="s">
-        <v>2300</v>
+        <v>23</v>
       </c>
       <c r="P450" s="19"/>
+      <c r="Q450" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>2301</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>2302</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>2279</v>
@@ -30977,19 +31027,19 @@
         <v>27</v>
       </c>
       <c r="F451" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G451" s="3" t="s">
         <v>2303</v>
       </c>
-      <c r="G451" s="3" t="s">
+      <c r="H451" s="3" t="s">
         <v>2304</v>
-      </c>
-      <c r="H451" s="3" t="s">
-        <v>2305</v>
       </c>
       <c r="I451" s="3">
         <v>2018</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="K451" s="3" t="s">
         <v>20</v>
@@ -31013,13 +31063,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="19" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C452" s="19" t="s">
         <v>2307</v>
       </c>
-      <c r="C452" s="19" t="s">
+      <c r="D452" s="19" t="s">
         <v>2308</v>
-      </c>
-      <c r="D452" s="19" t="s">
-        <v>2309</v>
       </c>
       <c r="E452" s="19">
         <v>5</v>
@@ -31028,16 +31078,16 @@
         <v>1328</v>
       </c>
       <c r="G452" s="19" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H452" s="19" t="s">
         <v>2310</v>
-      </c>
-      <c r="H452" s="19" t="s">
-        <v>2311</v>
       </c>
       <c r="I452" s="19">
         <v>2021</v>
       </c>
       <c r="J452" s="19" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="K452" s="19" t="s">
         <v>20</v>
@@ -31061,10 +31111,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>2313</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>2314</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>217</v>
@@ -31079,13 +31129,13 @@
         <v>2092</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="I453" s="3">
         <v>2023</v>
       </c>
       <c r="J453" s="3" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="K453" s="3" t="s">
         <v>22</v>
@@ -31106,7 +31156,7 @@
       </c>
       <c r="R453" s="3"/>
       <c r="S453" s="3" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31114,10 +31164,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="19" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C454" s="19" t="s">
         <v>2317</v>
-      </c>
-      <c r="C454" s="19" t="s">
-        <v>2318</v>
       </c>
       <c r="D454" s="19" t="s">
         <v>27</v>
@@ -31152,7 +31202,7 @@
         <v>1608</v>
       </c>
       <c r="P454" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31160,10 +31210,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C455" s="3" t="s">
         <v>2319</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>2320</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>53</v>
@@ -31175,16 +31225,16 @@
         <v>1285</v>
       </c>
       <c r="G455" s="3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="H455" s="3" t="s">
         <v>2321</v>
-      </c>
-      <c r="H455" s="3" t="s">
-        <v>2322</v>
       </c>
       <c r="I455" s="3">
         <v>2011</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="K455" s="3" t="s">
         <v>20</v>
@@ -31208,10 +31258,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="19" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C456" s="19" t="s">
         <v>2324</v>
-      </c>
-      <c r="C456" s="19" t="s">
-        <v>2325</v>
       </c>
       <c r="D456" s="19" t="s">
         <v>472</v>
@@ -31220,19 +31270,19 @@
         <v>108</v>
       </c>
       <c r="F456" s="19" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G456" s="19" t="s">
         <v>2326</v>
       </c>
-      <c r="G456" s="19" t="s">
+      <c r="H456" s="19" t="s">
         <v>2327</v>
-      </c>
-      <c r="H456" s="19" t="s">
-        <v>2328</v>
       </c>
       <c r="I456" s="19">
         <v>2016</v>
       </c>
       <c r="J456" s="19" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="K456" s="19" t="s">
         <v>22</v>
@@ -31248,16 +31298,25 @@
         <v>23</v>
       </c>
       <c r="P456" s="19"/>
+      <c r="Q456" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R456" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>3045</v>
+      </c>
     </row>
     <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C457" s="3" t="s">
         <v>2330</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>2331</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>27</v>
@@ -31300,31 +31359,31 @@
         <v>457</v>
       </c>
       <c r="B458" s="19" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C458" s="19" t="s">
         <v>2332</v>
       </c>
-      <c r="C458" s="19" t="s">
+      <c r="D458" s="19" t="s">
         <v>2333</v>
-      </c>
-      <c r="D458" s="19" t="s">
-        <v>2334</v>
       </c>
       <c r="E458" s="19">
         <v>7</v>
       </c>
       <c r="F458" s="19" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G458" s="19" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H458" s="19" t="s">
         <v>2335</v>
-      </c>
-      <c r="G458" s="19" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H458" s="19" t="s">
-        <v>2336</v>
       </c>
       <c r="I458" s="19">
         <v>2022</v>
       </c>
       <c r="J458" s="19" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="K458" s="19" t="s">
         <v>22</v>
@@ -31340,16 +31399,19 @@
         <v>23</v>
       </c>
       <c r="P458" s="19"/>
+      <c r="Q458" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C459" s="3" t="s">
         <v>2338</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>2339</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>27</v>
@@ -31392,37 +31454,37 @@
         <v>459</v>
       </c>
       <c r="B460" s="19" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C460" s="19" t="s">
         <v>2340</v>
       </c>
-      <c r="C460" s="19" t="s">
+      <c r="D460" s="19" t="s">
         <v>2341</v>
       </c>
-      <c r="D460" s="19" t="s">
+      <c r="E460" s="19">
+        <v>36</v>
+      </c>
+      <c r="F460" s="19" t="s">
         <v>2342</v>
       </c>
-      <c r="E460" s="19">
-        <v>36</v>
-      </c>
-      <c r="F460" s="19" t="s">
+      <c r="G460" s="19" t="s">
         <v>2343</v>
       </c>
-      <c r="G460" s="19" t="s">
+      <c r="H460" s="19" t="s">
         <v>2344</v>
-      </c>
-      <c r="H460" s="19" t="s">
-        <v>2345</v>
       </c>
       <c r="I460" s="19">
         <v>2019</v>
       </c>
       <c r="J460" s="19" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="K460" s="19" t="s">
         <v>268</v>
       </c>
       <c r="L460" s="19" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M460" s="19" t="s">
         <v>268</v>
@@ -31435,15 +31497,15 @@
       </c>
       <c r="P460" s="19"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>2348</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>2349</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>978</v>
@@ -31458,13 +31520,13 @@
         <v>27</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="I461" s="3">
         <v>2023</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="K461" s="3" t="s">
         <v>22</v>
@@ -31480,16 +31542,19 @@
         <v>23</v>
       </c>
       <c r="P461" s="3"/>
+      <c r="Q461" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="19" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C462" s="19" t="s">
         <v>2352</v>
-      </c>
-      <c r="C462" s="19" t="s">
-        <v>2353</v>
       </c>
       <c r="D462" s="19" t="s">
         <v>1121</v>
@@ -31501,16 +31566,16 @@
         <v>684</v>
       </c>
       <c r="G462" s="19" t="s">
+        <v>2353</v>
+      </c>
+      <c r="H462" s="19" t="s">
         <v>2354</v>
-      </c>
-      <c r="H462" s="19" t="s">
-        <v>2355</v>
       </c>
       <c r="I462" s="19">
         <v>2009</v>
       </c>
       <c r="J462" s="19" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="K462" s="19" t="s">
         <v>20</v>
@@ -31537,19 +31602,19 @@
         <v>939</v>
       </c>
       <c r="C463" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D463" s="3" t="s">
         <v>2357</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>2358</v>
       </c>
       <c r="E463" s="3">
         <v>51</v>
       </c>
       <c r="F463" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G463" s="3" t="s">
         <v>2359</v>
-      </c>
-      <c r="G463" s="3" t="s">
-        <v>2360</v>
       </c>
       <c r="H463" s="3" t="s">
         <v>27</v>
@@ -31558,7 +31623,7 @@
         <v>2005</v>
       </c>
       <c r="J463" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="K463" s="3" t="s">
         <v>20</v>
@@ -31582,31 +31647,31 @@
         <v>463</v>
       </c>
       <c r="B464" s="19" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C464" s="19" t="s">
         <v>2362</v>
       </c>
-      <c r="C464" s="19" t="s">
+      <c r="D464" s="19" t="s">
         <v>2363</v>
-      </c>
-      <c r="D464" s="19" t="s">
-        <v>2364</v>
       </c>
       <c r="E464" s="19">
         <v>63</v>
       </c>
       <c r="F464" s="19" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="G464" s="19" t="s">
         <v>1580</v>
       </c>
       <c r="H464" s="19" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="I464" s="19">
         <v>2006</v>
       </c>
       <c r="J464" s="19" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="K464" s="19" t="s">
         <v>20</v>
@@ -31630,31 +31695,31 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="D465" s="3" t="s">
         <v>2369</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>2370</v>
       </c>
       <c r="E465" s="3">
         <v>52</v>
       </c>
       <c r="F465" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G465" s="3" t="s">
         <v>2371</v>
       </c>
-      <c r="G465" s="3" t="s">
+      <c r="H465" s="3" t="s">
         <v>2372</v>
-      </c>
-      <c r="H465" s="3" t="s">
-        <v>2373</v>
       </c>
       <c r="I465" s="3">
         <v>2024</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="K465" s="3" t="s">
         <v>20</v>
@@ -31678,10 +31743,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="19" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C466" s="19" t="s">
         <v>2375</v>
-      </c>
-      <c r="C466" s="19" t="s">
-        <v>2376</v>
       </c>
       <c r="D466" s="19" t="s">
         <v>64</v>
@@ -31693,10 +31758,10 @@
         <v>1906</v>
       </c>
       <c r="G466" s="19" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H466" s="19" t="s">
         <v>2377</v>
-      </c>
-      <c r="H466" s="19" t="s">
-        <v>2378</v>
       </c>
       <c r="I466" s="19">
         <v>2021</v>
@@ -31708,7 +31773,7 @@
         <v>268</v>
       </c>
       <c r="L466" s="19" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M466" s="19" t="s">
         <v>268</v>
@@ -31726,10 +31791,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>2379</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>2380</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>1243</v>
@@ -31738,7 +31803,7 @@
         <v>2</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>1122</v>
@@ -31750,7 +31815,7 @@
         <v>2002</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K467" s="3" t="s">
         <v>268</v>
@@ -31768,18 +31833,18 @@
         <v>269</v>
       </c>
       <c r="P467" s="3" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="19" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C468" s="19" t="s">
         <v>2383</v>
-      </c>
-      <c r="C468" s="19" t="s">
-        <v>2384</v>
       </c>
       <c r="D468" s="19" t="s">
         <v>636</v>
@@ -31794,13 +31859,13 @@
         <v>27</v>
       </c>
       <c r="H468" s="19" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="I468" s="19">
         <v>2023</v>
       </c>
       <c r="J468" s="19" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K468" s="19" t="s">
         <v>22</v>
@@ -31820,10 +31885,10 @@
         <v>20</v>
       </c>
       <c r="R468" s="1" t="s">
-        <v>3047</v>
+        <v>3040</v>
       </c>
       <c r="S468" s="1" t="s">
-        <v>3048</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31831,20 +31896,20 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="D469" s="3" t="s">
         <v>2388</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>2389</v>
       </c>
       <c r="E469" s="3"/>
       <c r="F469" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="H469" s="3" t="s">
         <v>27</v>
@@ -31853,7 +31918,7 @@
         <v>2002</v>
       </c>
       <c r="J469" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K469" s="3" t="s">
         <v>22</v>
@@ -31866,7 +31931,7 @@
         <v>36</v>
       </c>
       <c r="O469" s="3" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="P469" s="3"/>
     </row>
@@ -31875,10 +31940,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="19" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C470" s="19" t="s">
         <v>2393</v>
-      </c>
-      <c r="C470" s="19" t="s">
-        <v>2394</v>
       </c>
       <c r="D470" s="19" t="s">
         <v>308</v>
@@ -31887,19 +31952,19 @@
         <v>55</v>
       </c>
       <c r="F470" s="19" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G470" s="19" t="s">
         <v>1587</v>
       </c>
       <c r="H470" s="19" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="I470" s="19">
         <v>2012</v>
       </c>
       <c r="J470" s="19" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K470" s="19" t="s">
         <v>22</v>
@@ -31919,10 +31984,10 @@
         <v>20</v>
       </c>
       <c r="R470" s="19" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S470" s="19" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31930,10 +31995,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C471" s="3" t="s">
         <v>2398</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>2399</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>308</v>
@@ -31948,13 +32013,13 @@
         <v>491</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="I471" s="3">
         <v>2017</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="K471" s="3" t="s">
         <v>22</v>
@@ -31974,10 +32039,10 @@
         <v>20</v>
       </c>
       <c r="R471" s="3" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S471" s="3" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31985,13 +32050,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="19" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C472" s="19" t="s">
         <v>2402</v>
       </c>
-      <c r="C472" s="19" t="s">
+      <c r="D472" s="19" t="s">
         <v>2403</v>
-      </c>
-      <c r="D472" s="19" t="s">
-        <v>2404</v>
       </c>
       <c r="E472" s="19">
         <v>16</v>
@@ -32003,13 +32068,13 @@
         <v>27</v>
       </c>
       <c r="H472" s="19" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="I472" s="19">
         <v>2016</v>
       </c>
       <c r="J472" s="19" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="K472" s="19" t="s">
         <v>22</v>
@@ -32035,10 +32100,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>2407</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>2408</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>1556</v>
@@ -32053,13 +32118,13 @@
         <v>296</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="I473" s="3">
         <v>2003</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="K473" s="3" t="s">
         <v>20</v>
@@ -32083,13 +32148,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="19" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C474" s="19" t="s">
         <v>2411</v>
       </c>
-      <c r="C474" s="19" t="s">
+      <c r="D474" s="19" t="s">
         <v>2412</v>
-      </c>
-      <c r="D474" s="19" t="s">
-        <v>2413</v>
       </c>
       <c r="E474" s="19">
         <v>36</v>
@@ -32101,13 +32166,13 @@
         <v>2174</v>
       </c>
       <c r="H474" s="19" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="I474" s="19">
         <v>2014</v>
       </c>
       <c r="J474" s="19" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="K474" s="19" t="s">
         <v>20</v>
@@ -32131,13 +32196,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="D475" s="3" t="s">
         <v>2417</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>2418</v>
       </c>
       <c r="E475" s="3">
         <v>10</v>
@@ -32149,13 +32214,13 @@
         <v>27</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="I475" s="3">
         <v>2023</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="K475" s="3" t="s">
         <v>22</v>
@@ -32181,13 +32246,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="19" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C476" s="19" t="s">
         <v>2421</v>
       </c>
-      <c r="C476" s="19" t="s">
+      <c r="D476" s="19" t="s">
         <v>2422</v>
-      </c>
-      <c r="D476" s="19" t="s">
-        <v>2423</v>
       </c>
       <c r="E476" s="19"/>
       <c r="F476" s="19" t="s">
@@ -32203,7 +32268,7 @@
         <v>2001</v>
       </c>
       <c r="J476" s="19" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="K476" s="19" t="s">
         <v>22</v>
@@ -32223,10 +32288,10 @@
         <v>20</v>
       </c>
       <c r="R476" s="19" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S476" s="19" t="s">
-        <v>3038</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32234,10 +32299,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>2425</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>2426</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>1668</v>
@@ -32249,16 +32314,16 @@
         <v>1792</v>
       </c>
       <c r="G477" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H477" s="3" t="s">
         <v>2427</v>
-      </c>
-      <c r="H477" s="3" t="s">
-        <v>2428</v>
       </c>
       <c r="I477" s="3">
         <v>2015</v>
       </c>
       <c r="J477" s="3" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K477" s="3" t="s">
         <v>20</v>
@@ -32282,19 +32347,19 @@
         <v>477</v>
       </c>
       <c r="B478" s="19" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C478" s="19" t="s">
         <v>2430</v>
       </c>
-      <c r="C478" s="19" t="s">
+      <c r="D478" s="19" t="s">
         <v>2431</v>
-      </c>
-      <c r="D478" s="19" t="s">
-        <v>2432</v>
       </c>
       <c r="E478" s="19">
         <v>5</v>
       </c>
       <c r="F478" s="19" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="G478" s="19" t="s">
         <v>1284</v>
@@ -32306,7 +32371,7 @@
         <v>2014</v>
       </c>
       <c r="J478" s="19" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="K478" s="19" t="s">
         <v>22</v>
@@ -32332,10 +32397,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>2435</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>2436</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>839</v>
@@ -32344,10 +32409,10 @@
         <v>89</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="H479" s="3" t="s">
         <v>27</v>
@@ -32378,20 +32443,20 @@
         <v>479</v>
       </c>
       <c r="B480" s="19" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C480" s="19" t="s">
         <v>2438</v>
       </c>
-      <c r="C480" s="19" t="s">
+      <c r="D480" s="19" t="s">
         <v>2439</v>
-      </c>
-      <c r="D480" s="19" t="s">
-        <v>2440</v>
       </c>
       <c r="E480" s="19"/>
       <c r="F480" s="19" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G480" s="19" t="s">
         <v>2441</v>
-      </c>
-      <c r="G480" s="19" t="s">
-        <v>2442</v>
       </c>
       <c r="H480" s="19" t="s">
         <v>27</v>
@@ -32400,7 +32465,7 @@
         <v>1997</v>
       </c>
       <c r="J480" s="19" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="K480" s="19" t="s">
         <v>20</v>
@@ -32424,13 +32489,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C481" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="D481" s="3" t="s">
         <v>2445</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>2446</v>
       </c>
       <c r="E481" s="3">
         <v>231</v>
@@ -32442,13 +32507,13 @@
         <v>27</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="I481" s="3">
         <v>2023</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="K481" s="3" t="s">
         <v>22</v>
@@ -32468,10 +32533,10 @@
         <v>20</v>
       </c>
       <c r="R481" s="3" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="S481" s="3" t="s">
-        <v>3032</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32479,10 +32544,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="19" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C482" s="19" t="s">
         <v>2449</v>
-      </c>
-      <c r="C482" s="19" t="s">
-        <v>2450</v>
       </c>
       <c r="D482" s="19" t="s">
         <v>185</v>
@@ -32491,19 +32556,19 @@
         <v>31</v>
       </c>
       <c r="F482" s="19" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G482" s="19" t="s">
         <v>2451</v>
       </c>
-      <c r="G482" s="19" t="s">
+      <c r="H482" s="19" t="s">
         <v>2452</v>
-      </c>
-      <c r="H482" s="19" t="s">
-        <v>2453</v>
       </c>
       <c r="I482" s="19">
         <v>2022</v>
       </c>
       <c r="J482" s="19" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="K482" s="19" t="s">
         <v>22</v>
@@ -32524,7 +32589,7 @@
       </c>
       <c r="R482" s="19"/>
       <c r="S482" s="19" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32532,13 +32597,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>1741</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E483" s="3">
         <v>28</v>
@@ -32550,13 +32615,13 @@
         <v>1743</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="I483" s="3">
         <v>1998</v>
       </c>
       <c r="J483" s="3" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="K483" s="3" t="s">
         <v>20</v>
@@ -32583,7 +32648,7 @@
         <v>27</v>
       </c>
       <c r="C484" s="19" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D484" s="19" t="s">
         <v>27</v>
@@ -32602,7 +32667,7 @@
         <v>2004</v>
       </c>
       <c r="J484" s="19" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="K484" s="19" t="s">
         <v>20</v>
@@ -32626,27 +32691,27 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="D485" s="3" t="s">
         <v>2462</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>2463</v>
       </c>
       <c r="E485" s="3"/>
       <c r="F485" s="3" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="H485" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I485" s="3"/>
       <c r="J485" s="3" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="K485" s="3" t="s">
         <v>20</v>
@@ -32670,20 +32735,20 @@
         <v>485</v>
       </c>
       <c r="B486" s="19" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C486" s="19" t="s">
         <v>2466</v>
       </c>
-      <c r="C486" s="19" t="s">
+      <c r="D486" s="19" t="s">
         <v>2467</v>
-      </c>
-      <c r="D486" s="19" t="s">
-        <v>2468</v>
       </c>
       <c r="E486" s="19"/>
       <c r="F486" s="19" t="s">
         <v>1174</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="H486" s="19" t="s">
         <v>27</v>
@@ -32692,7 +32757,7 @@
         <v>1986</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K486" s="19" t="s">
         <v>22</v>
@@ -32705,7 +32770,7 @@
         <v>190</v>
       </c>
       <c r="O486" s="19" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="P486" s="19"/>
     </row>
@@ -32714,13 +32779,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="D487" s="3" t="s">
         <v>2473</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>2474</v>
       </c>
       <c r="E487" s="3"/>
       <c r="F487" s="3" t="s">
@@ -32730,13 +32795,13 @@
         <v>27</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="I487" s="3">
         <v>2021</v>
       </c>
       <c r="J487" s="3" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="K487" s="3" t="s">
         <v>22</v>
@@ -32756,10 +32821,10 @@
         <v>20</v>
       </c>
       <c r="R487" s="3" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
       <c r="S487" s="3" t="s">
-        <v>3031</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32767,20 +32832,20 @@
         <v>487</v>
       </c>
       <c r="B488" s="19" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C488" s="19" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D488" s="19" t="s">
         <v>2477</v>
-      </c>
-      <c r="D488" s="19" t="s">
-        <v>2478</v>
       </c>
       <c r="E488" s="19"/>
       <c r="F488" s="19" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="H488" s="19" t="s">
         <v>27</v>
@@ -32789,7 +32854,7 @@
         <v>1979</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="K488" s="19" t="s">
         <v>20</v>
@@ -32813,13 +32878,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C489" s="3" t="s">
         <v>2480</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="D489" s="3" t="s">
         <v>2481</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>2482</v>
       </c>
       <c r="E489" s="3">
         <v>4</v>
@@ -32837,7 +32902,7 @@
         <v>2008</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K489" s="3" t="s">
         <v>22</v>
@@ -32857,10 +32922,10 @@
         <v>20</v>
       </c>
       <c r="R489" s="3" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="S489" s="3" t="s">
-        <v>3030</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32868,10 +32933,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="19" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C490" s="19" t="s">
         <v>2484</v>
-      </c>
-      <c r="C490" s="19" t="s">
-        <v>2485</v>
       </c>
       <c r="D490" s="19" t="s">
         <v>1611</v>
@@ -32880,19 +32945,19 @@
         <v>28</v>
       </c>
       <c r="F490" s="19" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G490" s="19" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H490" s="19" t="s">
         <v>2486</v>
-      </c>
-      <c r="G490" s="19" t="s">
-        <v>2327</v>
-      </c>
-      <c r="H490" s="19" t="s">
-        <v>2487</v>
       </c>
       <c r="I490" s="19">
         <v>2001</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="K490" s="19" t="s">
         <v>20</v>
@@ -32916,10 +32981,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>2489</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>2490</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>2279</v>
@@ -32928,19 +32993,19 @@
         <v>21</v>
       </c>
       <c r="F491" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G491" s="3" t="s">
         <v>2491</v>
       </c>
-      <c r="G491" s="3" t="s">
+      <c r="H491" s="3" t="s">
         <v>2492</v>
-      </c>
-      <c r="H491" s="3" t="s">
-        <v>2493</v>
       </c>
       <c r="I491" s="3">
         <v>2012</v>
       </c>
       <c r="J491" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="K491" s="3" t="s">
         <v>22</v>
@@ -32960,10 +33025,10 @@
         <v>20</v>
       </c>
       <c r="R491" s="3" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="S491" s="3" t="s">
-        <v>3029</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32971,10 +33036,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="19" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C492" s="19" t="s">
         <v>2495</v>
-      </c>
-      <c r="C492" s="19" t="s">
-        <v>2496</v>
       </c>
       <c r="D492" s="19" t="s">
         <v>1121</v>
@@ -32983,19 +33048,19 @@
         <v>108</v>
       </c>
       <c r="F492" s="19" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G492" s="19" t="s">
         <v>2497</v>
       </c>
-      <c r="G492" s="19" t="s">
+      <c r="H492" s="19" t="s">
         <v>2498</v>
-      </c>
-      <c r="H492" s="19" t="s">
-        <v>2499</v>
       </c>
       <c r="I492" s="19">
         <v>2004</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K492" s="19" t="s">
         <v>22</v>
@@ -33021,31 +33086,31 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C493" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="C493" s="3" t="s">
+      <c r="D493" s="3" t="s">
         <v>2502</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>2503</v>
       </c>
       <c r="E493" s="3">
         <v>38</v>
       </c>
       <c r="F493" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G493" s="3" t="s">
         <v>2504</v>
       </c>
-      <c r="G493" s="3" t="s">
+      <c r="H493" s="3" t="s">
         <v>2505</v>
-      </c>
-      <c r="H493" s="3" t="s">
-        <v>2506</v>
       </c>
       <c r="I493" s="3">
         <v>2011</v>
       </c>
       <c r="J493" s="3" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="K493" s="3" t="s">
         <v>20</v>
@@ -33069,10 +33134,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="19" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C494" s="19" t="s">
         <v>2508</v>
-      </c>
-      <c r="C494" s="19" t="s">
-        <v>2509</v>
       </c>
       <c r="D494" s="19" t="s">
         <v>109</v>
@@ -33087,13 +33152,13 @@
         <v>27</v>
       </c>
       <c r="H494" s="19" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="I494" s="19">
         <v>2023</v>
       </c>
       <c r="J494" s="19" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="K494" s="19" t="s">
         <v>22</v>
@@ -33113,10 +33178,10 @@
         <v>20</v>
       </c>
       <c r="R494" s="19" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="S494" s="19" t="s">
-        <v>3022</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33124,10 +33189,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>2512</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>2513</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>530</v>
@@ -33142,13 +33207,13 @@
         <v>1373</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I495" s="3">
         <v>2016</v>
       </c>
       <c r="J495" s="3" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="K495" s="3" t="s">
         <v>20</v>
@@ -33172,17 +33237,17 @@
         <v>495</v>
       </c>
       <c r="B496" s="19" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C496" s="19" t="s">
         <v>2516</v>
       </c>
-      <c r="C496" s="19" t="s">
+      <c r="D496" s="19" t="s">
         <v>2517</v>
-      </c>
-      <c r="D496" s="19" t="s">
-        <v>2518</v>
       </c>
       <c r="E496" s="19"/>
       <c r="F496" s="19" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G496" s="19" t="s">
         <v>2173</v>
@@ -33194,7 +33259,7 @@
         <v>2016</v>
       </c>
       <c r="J496" s="19" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="K496" s="19" t="s">
         <v>20</v>
@@ -33218,31 +33283,31 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>2521</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="D497" s="3" t="s">
         <v>2522</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>2523</v>
       </c>
       <c r="E497" s="3">
         <v>29</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>1732</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="I497" s="3">
         <v>2015</v>
       </c>
       <c r="J497" s="3" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="K497" s="3" t="s">
         <v>268</v>
@@ -33260,7 +33325,7 @@
         <v>2261</v>
       </c>
       <c r="P497" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33268,10 +33333,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="19" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C498" s="19" t="s">
         <v>2527</v>
-      </c>
-      <c r="C498" s="19" t="s">
-        <v>2528</v>
       </c>
       <c r="D498" s="19" t="s">
         <v>185</v>
@@ -33280,19 +33345,19 @@
         <v>32</v>
       </c>
       <c r="F498" s="19" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G498" s="19" t="s">
         <v>2529</v>
       </c>
-      <c r="G498" s="19" t="s">
+      <c r="H498" s="19" t="s">
         <v>2530</v>
-      </c>
-      <c r="H498" s="19" t="s">
-        <v>2531</v>
       </c>
       <c r="I498" s="19">
         <v>2023</v>
       </c>
       <c r="J498" s="19" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="K498" s="19" t="s">
         <v>22</v>
@@ -33313,7 +33378,7 @@
       </c>
       <c r="R498" s="19"/>
       <c r="S498" s="19" t="s">
-        <v>3020</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33321,10 +33386,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>2533</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>2534</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>102</v>
@@ -33339,13 +33404,13 @@
         <v>983</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="I499" s="3">
         <v>2017</v>
       </c>
       <c r="J499" s="3" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="K499" s="3" t="s">
         <v>22</v>
@@ -33366,7 +33431,7 @@
       </c>
       <c r="R499" s="3"/>
       <c r="S499" s="3" t="s">
-        <v>3015</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33374,19 +33439,19 @@
         <v>499</v>
       </c>
       <c r="B500" s="19" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C500" s="19" t="s">
         <v>2537</v>
       </c>
-      <c r="C500" s="19" t="s">
+      <c r="D500" s="19" t="s">
         <v>2538</v>
-      </c>
-      <c r="D500" s="19" t="s">
-        <v>2539</v>
       </c>
       <c r="E500" s="19">
         <v>5</v>
       </c>
       <c r="F500" s="19" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="G500" s="19" t="s">
         <v>60</v>
@@ -33398,7 +33463,7 @@
         <v>2014</v>
       </c>
       <c r="J500" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K500" s="19" t="s">
         <v>20</v>
@@ -33422,10 +33487,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>2542</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>2543</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>27</v>
@@ -33460,7 +33525,7 @@
         <v>2215</v>
       </c>
       <c r="P501" s="19" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33468,10 +33533,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="19" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C502" s="19" t="s">
         <v>2544</v>
-      </c>
-      <c r="C502" s="19" t="s">
-        <v>2545</v>
       </c>
       <c r="D502" s="19" t="s">
         <v>1756</v>
@@ -33492,7 +33557,7 @@
         <v>2009</v>
       </c>
       <c r="J502" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="K502" s="19" t="s">
         <v>20</v>
@@ -33516,20 +33581,20 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>2547</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="D503" s="3" t="s">
         <v>2548</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>2549</v>
       </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="H503" s="3" t="s">
         <v>27</v>
@@ -33538,7 +33603,7 @@
         <v>1998</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="K503" s="3" t="s">
         <v>22</v>
@@ -33566,10 +33631,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="19" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C504" s="19" t="s">
         <v>2552</v>
-      </c>
-      <c r="C504" s="19" t="s">
-        <v>2553</v>
       </c>
       <c r="D504" s="19" t="s">
         <v>1831</v>
@@ -33578,19 +33643,19 @@
         <v>24</v>
       </c>
       <c r="F504" s="19" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G504" s="19" t="s">
         <v>2554</v>
       </c>
-      <c r="G504" s="19" t="s">
+      <c r="H504" s="19" t="s">
         <v>2555</v>
-      </c>
-      <c r="H504" s="19" t="s">
-        <v>2556</v>
       </c>
       <c r="I504" s="19">
         <v>2018</v>
       </c>
       <c r="J504" s="19" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="K504" s="19" t="s">
         <v>20</v>
@@ -33614,10 +33679,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C505" s="3" t="s">
         <v>2558</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>2559</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>1073</v>
@@ -33632,13 +33697,13 @@
         <v>401</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="I505" s="3">
         <v>2009</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="K505" s="3" t="s">
         <v>20</v>
@@ -33662,13 +33727,13 @@
         <v>505</v>
       </c>
       <c r="B506" s="19" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C506" s="19" t="s">
         <v>2562</v>
       </c>
-      <c r="C506" s="19" t="s">
+      <c r="D506" s="19" t="s">
         <v>2563</v>
-      </c>
-      <c r="D506" s="19" t="s">
-        <v>2564</v>
       </c>
       <c r="E506" s="19">
         <v>30</v>
@@ -33677,7 +33742,7 @@
         <v>799</v>
       </c>
       <c r="G506" s="19" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="H506" s="19" t="s">
         <v>27</v>
@@ -33686,7 +33751,7 @@
         <v>2009</v>
       </c>
       <c r="J506" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="K506" s="19" t="s">
         <v>20</v>
@@ -33710,10 +33775,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>2567</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>2568</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>27</v>
@@ -33756,31 +33821,31 @@
         <v>507</v>
       </c>
       <c r="B508" s="19" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C508" s="19" t="s">
         <v>2569</v>
       </c>
-      <c r="C508" s="19" t="s">
+      <c r="D508" s="19" t="s">
         <v>2570</v>
-      </c>
-      <c r="D508" s="19" t="s">
-        <v>2571</v>
       </c>
       <c r="E508" s="19">
         <v>33</v>
       </c>
       <c r="F508" s="19" t="s">
+        <v>2571</v>
+      </c>
+      <c r="G508" s="19" t="s">
         <v>2572</v>
       </c>
-      <c r="G508" s="19" t="s">
+      <c r="H508" s="19" t="s">
         <v>2573</v>
-      </c>
-      <c r="H508" s="19" t="s">
-        <v>2574</v>
       </c>
       <c r="I508" s="19">
         <v>2022</v>
       </c>
       <c r="J508" s="19" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="K508" s="19" t="s">
         <v>20</v>
@@ -33804,20 +33869,20 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="D509" s="3" t="s">
         <v>2577</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>2578</v>
       </c>
       <c r="E509" s="3"/>
       <c r="F509" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="H509" s="3" t="s">
         <v>27</v>
@@ -33826,7 +33891,7 @@
         <v>1986</v>
       </c>
       <c r="J509" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="K509" s="3" t="s">
         <v>22</v>
@@ -33842,10 +33907,14 @@
         <v>23</v>
       </c>
       <c r="P509" s="3"/>
-      <c r="Q509" s="3"/>
-      <c r="R509" s="3"/>
+      <c r="Q509" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R509" s="3" t="s">
+        <v>3039</v>
+      </c>
       <c r="S509" s="3" t="s">
-        <v>3014</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33853,19 +33922,19 @@
         <v>509</v>
       </c>
       <c r="B510" s="19" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C510" s="19" t="s">
         <v>2581</v>
       </c>
-      <c r="C510" s="19" t="s">
+      <c r="D510" s="19" t="s">
         <v>2582</v>
-      </c>
-      <c r="D510" s="19" t="s">
-        <v>2583</v>
       </c>
       <c r="E510" s="19">
         <v>33</v>
       </c>
       <c r="F510" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="G510" s="19" t="s">
         <v>328</v>
@@ -33877,7 +33946,7 @@
         <v>2022</v>
       </c>
       <c r="J510" s="19" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="K510" s="19" t="s">
         <v>20</v>
@@ -33901,10 +33970,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>2586</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>2587</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>27</v>
@@ -33947,10 +34016,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="19" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C512" s="19" t="s">
         <v>2588</v>
-      </c>
-      <c r="C512" s="19" t="s">
-        <v>2589</v>
       </c>
       <c r="D512" s="19" t="s">
         <v>64</v>
@@ -33962,16 +34031,16 @@
         <v>551</v>
       </c>
       <c r="G512" s="19" t="s">
+        <v>2589</v>
+      </c>
+      <c r="H512" s="19" t="s">
         <v>2590</v>
-      </c>
-      <c r="H512" s="19" t="s">
-        <v>2591</v>
       </c>
       <c r="I512" s="19">
         <v>2000</v>
       </c>
       <c r="J512" s="19" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="K512" s="19" t="s">
         <v>20</v>
@@ -33995,13 +34064,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="C513" s="3" t="s">
+      <c r="D513" s="3" t="s">
         <v>2594</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>2595</v>
       </c>
       <c r="E513" s="3">
         <v>5</v>
@@ -34013,13 +34082,13 @@
         <v>27</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="I513" s="3">
         <v>2019</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="K513" s="3" t="s">
         <v>20</v>
@@ -34043,10 +34112,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="19" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C514" s="19" t="s">
         <v>2598</v>
-      </c>
-      <c r="C514" s="19" t="s">
-        <v>2599</v>
       </c>
       <c r="D514" s="19" t="s">
         <v>64</v>
@@ -34058,16 +34127,16 @@
         <v>1425</v>
       </c>
       <c r="G514" s="19" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H514" s="19" t="s">
         <v>2600</v>
-      </c>
-      <c r="H514" s="19" t="s">
-        <v>2601</v>
       </c>
       <c r="I514" s="19">
         <v>1982</v>
       </c>
       <c r="J514" s="19" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="K514" s="19" t="s">
         <v>20</v>
@@ -34091,10 +34160,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>2603</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>2604</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>27</v>
@@ -34137,10 +34206,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="19" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C516" s="19" t="s">
         <v>2605</v>
-      </c>
-      <c r="C516" s="19" t="s">
-        <v>2606</v>
       </c>
       <c r="D516" s="19" t="s">
         <v>1073</v>
@@ -34149,19 +34218,19 @@
         <v>25</v>
       </c>
       <c r="F516" s="19" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G516" s="19" t="s">
         <v>2607</v>
       </c>
-      <c r="G516" s="19" t="s">
+      <c r="H516" s="19" t="s">
         <v>2608</v>
-      </c>
-      <c r="H516" s="19" t="s">
-        <v>2609</v>
       </c>
       <c r="I516" s="19">
         <v>2000</v>
       </c>
       <c r="J516" s="19" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="K516" s="19" t="s">
         <v>20</v>
@@ -34185,31 +34254,31 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>2611</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="D517" s="3" t="s">
         <v>2612</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>2613</v>
       </c>
       <c r="E517" s="3">
         <v>23</v>
       </c>
       <c r="F517" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G517" s="3" t="s">
         <v>2614</v>
       </c>
-      <c r="G517" s="3" t="s">
+      <c r="H517" s="3" t="s">
         <v>2615</v>
-      </c>
-      <c r="H517" s="3" t="s">
-        <v>2616</v>
       </c>
       <c r="I517" s="3">
         <v>2023</v>
       </c>
       <c r="J517" s="3" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="K517" s="3" t="s">
         <v>20</v>
@@ -34236,7 +34305,7 @@
         <v>27</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D518" s="19" t="s">
         <v>27</v>
@@ -34255,7 +34324,7 @@
         <v>2014</v>
       </c>
       <c r="J518" s="19" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="K518" s="19" t="s">
         <v>20</v>
@@ -34279,10 +34348,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>2620</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>2621</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>472</v>
@@ -34291,19 +34360,19 @@
         <v>102</v>
       </c>
       <c r="F519" s="3" t="s">
+        <v>2621</v>
+      </c>
+      <c r="G519" s="3" t="s">
         <v>2622</v>
       </c>
-      <c r="G519" s="3" t="s">
+      <c r="H519" s="3" t="s">
         <v>2623</v>
-      </c>
-      <c r="H519" s="3" t="s">
-        <v>2624</v>
       </c>
       <c r="I519" s="3">
         <v>2010</v>
       </c>
       <c r="J519" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="K519" s="3" t="s">
         <v>20</v>
@@ -34327,10 +34396,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="19" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C520" s="19" t="s">
         <v>2626</v>
-      </c>
-      <c r="C520" s="19" t="s">
-        <v>2627</v>
       </c>
       <c r="D520" s="19" t="s">
         <v>102</v>
@@ -34339,19 +34408,19 @@
         <v>257</v>
       </c>
       <c r="F520" s="19" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="G520" s="19" t="s">
         <v>1773</v>
       </c>
       <c r="H520" s="19" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="I520" s="19">
         <v>2009</v>
       </c>
       <c r="J520" s="19" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="K520" s="19" t="s">
         <v>22</v>
@@ -34371,10 +34440,10 @@
         <v>20</v>
       </c>
       <c r="R520" s="19" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S520" s="19" t="s">
-        <v>3013</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34382,10 +34451,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>2631</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>2632</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>53</v>
@@ -34400,13 +34469,13 @@
         <v>27</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="I521" s="3">
         <v>2020</v>
       </c>
       <c r="J521" s="3" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="K521" s="3" t="s">
         <v>22</v>
@@ -34426,10 +34495,10 @@
         <v>20</v>
       </c>
       <c r="R521" s="3" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S521" s="3" t="s">
-        <v>3012</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34437,10 +34506,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="19" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C522" s="19" t="s">
         <v>2635</v>
-      </c>
-      <c r="C522" s="19" t="s">
-        <v>2636</v>
       </c>
       <c r="D522" s="19" t="s">
         <v>102</v>
@@ -34455,13 +34524,13 @@
         <v>27</v>
       </c>
       <c r="H522" s="19" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="I522" s="19">
         <v>2020</v>
       </c>
       <c r="J522" s="19" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="K522" s="19" t="s">
         <v>22</v>
@@ -34487,10 +34556,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>2639</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>2640</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>1205</v>
@@ -34502,16 +34571,16 @@
         <v>1122</v>
       </c>
       <c r="G523" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="H523" s="3" t="s">
         <v>2641</v>
-      </c>
-      <c r="H523" s="3" t="s">
-        <v>2642</v>
       </c>
       <c r="I523" s="3">
         <v>1997</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="K523" s="3" t="s">
         <v>20</v>
@@ -34535,10 +34604,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="19" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C524" s="19" t="s">
         <v>2644</v>
-      </c>
-      <c r="C524" s="19" t="s">
-        <v>2645</v>
       </c>
       <c r="D524" s="19" t="s">
         <v>27</v>
@@ -34581,22 +34650,22 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>2646</v>
       </c>
-      <c r="C525" s="3" t="s">
+      <c r="D525" s="3" t="s">
         <v>2647</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>2648</v>
       </c>
       <c r="E525" s="3">
         <v>7</v>
       </c>
       <c r="F525" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G525" s="3" t="s">
         <v>2649</v>
-      </c>
-      <c r="G525" s="3" t="s">
-        <v>2650</v>
       </c>
       <c r="H525" s="3" t="s">
         <v>27</v>
@@ -34605,7 +34674,7 @@
         <v>2015</v>
       </c>
       <c r="J525" s="3" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="K525" s="3" t="s">
         <v>22</v>
@@ -34625,10 +34694,10 @@
         <v>20</v>
       </c>
       <c r="R525" s="3" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
       <c r="S525" s="3" t="s">
-        <v>3007</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34636,10 +34705,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="19" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C526" s="19" t="s">
         <v>2652</v>
-      </c>
-      <c r="C526" s="19" t="s">
-        <v>2653</v>
       </c>
       <c r="D526" s="19" t="s">
         <v>1943</v>
@@ -34654,13 +34723,13 @@
         <v>27</v>
       </c>
       <c r="H526" s="19" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="I526" s="19">
         <v>2021</v>
       </c>
       <c r="J526" s="19" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="K526" s="19" t="s">
         <v>22</v>
@@ -34680,10 +34749,10 @@
         <v>20</v>
       </c>
       <c r="R526" s="19" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S526" s="19" t="s">
-        <v>3006</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34691,10 +34760,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>2656</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>2657</v>
       </c>
       <c r="D527" s="3" t="s">
         <v>934</v>
@@ -34703,19 +34772,19 @@
         <v>74</v>
       </c>
       <c r="F527" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G527" s="3" t="s">
         <v>2658</v>
       </c>
-      <c r="G527" s="3" t="s">
+      <c r="H527" s="3" t="s">
         <v>2659</v>
-      </c>
-      <c r="H527" s="3" t="s">
-        <v>2660</v>
       </c>
       <c r="I527" s="3">
         <v>1986</v>
       </c>
       <c r="J527" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="K527" s="3" t="s">
         <v>20</v>
@@ -34742,7 +34811,7 @@
         <v>27</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D528" s="19" t="s">
         <v>27</v>
@@ -34761,7 +34830,7 @@
         <v>1999</v>
       </c>
       <c r="J528" s="19" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="K528" s="19" t="s">
         <v>20</v>
@@ -34785,13 +34854,13 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C529" s="3" t="s">
         <v>2664</v>
       </c>
-      <c r="C529" s="3" t="s">
+      <c r="D529" s="3" t="s">
         <v>2665</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>2666</v>
       </c>
       <c r="E529" s="3">
         <v>140</v>
@@ -34836,7 +34905,7 @@
         <v>27</v>
       </c>
       <c r="C530" s="19" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D530" s="19" t="s">
         <v>27</v>
@@ -34855,7 +34924,7 @@
         <v>2007</v>
       </c>
       <c r="J530" s="19" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="K530" s="19" t="s">
         <v>22</v>
@@ -34871,7 +34940,7 @@
         <v>36</v>
       </c>
       <c r="P530" s="19" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34879,31 +34948,31 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C531" s="3" t="s">
         <v>2669</v>
       </c>
-      <c r="C531" s="3" t="s">
+      <c r="D531" s="3" t="s">
         <v>2670</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>2671</v>
       </c>
       <c r="E531" s="3">
         <v>6</v>
       </c>
       <c r="F531" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G531" s="3" t="s">
         <v>2672</v>
       </c>
-      <c r="G531" s="3" t="s">
+      <c r="H531" s="3" t="s">
         <v>2673</v>
-      </c>
-      <c r="H531" s="3" t="s">
-        <v>2674</v>
       </c>
       <c r="I531" s="3">
         <v>2015</v>
       </c>
       <c r="J531" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="K531" s="3" t="s">
         <v>20</v>
@@ -34927,13 +34996,13 @@
         <v>531</v>
       </c>
       <c r="B532" s="19" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C532" s="19" t="s">
         <v>2676</v>
       </c>
-      <c r="C532" s="19" t="s">
+      <c r="D532" s="19" t="s">
         <v>2677</v>
-      </c>
-      <c r="D532" s="19" t="s">
-        <v>2678</v>
       </c>
       <c r="E532" s="19">
         <v>51</v>
@@ -34942,16 +35011,16 @@
         <v>1593</v>
       </c>
       <c r="G532" s="19" t="s">
+        <v>2678</v>
+      </c>
+      <c r="H532" s="19" t="s">
         <v>2679</v>
-      </c>
-      <c r="H532" s="19" t="s">
-        <v>2680</v>
       </c>
       <c r="I532" s="19">
         <v>2005</v>
       </c>
       <c r="J532" s="19" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="K532" s="19" t="s">
         <v>20</v>
@@ -34975,31 +35044,31 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>2682</v>
       </c>
-      <c r="C533" s="3" t="s">
+      <c r="D533" s="3" t="s">
         <v>2683</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>2684</v>
       </c>
       <c r="E533" s="3">
         <v>14</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="G533" s="3" t="s">
         <v>593</v>
       </c>
       <c r="H533" s="3" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="I533" s="3">
         <v>2001</v>
       </c>
       <c r="J533" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="K533" s="3" t="s">
         <v>20</v>
@@ -35023,10 +35092,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="19" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C534" s="19" t="s">
         <v>2688</v>
-      </c>
-      <c r="C534" s="19" t="s">
-        <v>2689</v>
       </c>
       <c r="D534" s="19" t="s">
         <v>636</v>
@@ -35041,13 +35110,13 @@
         <v>881</v>
       </c>
       <c r="H534" s="19" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="I534" s="19">
         <v>2019</v>
       </c>
       <c r="J534" s="19" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="K534" s="19" t="s">
         <v>20</v>
@@ -35071,10 +35140,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C535" s="3" t="s">
         <v>2692</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>2693</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>185</v>
@@ -35083,19 +35152,19 @@
         <v>32</v>
       </c>
       <c r="F535" s="3" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G535" s="3" t="s">
         <v>2694</v>
       </c>
-      <c r="G535" s="3" t="s">
+      <c r="H535" s="3" t="s">
         <v>2695</v>
-      </c>
-      <c r="H535" s="3" t="s">
-        <v>2696</v>
       </c>
       <c r="I535" s="3">
         <v>2023</v>
       </c>
       <c r="J535" s="3" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="K535" s="3" t="s">
         <v>22</v>
@@ -35121,10 +35190,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="19" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C536" s="19" t="s">
         <v>2698</v>
-      </c>
-      <c r="C536" s="19" t="s">
-        <v>2699</v>
       </c>
       <c r="D536" s="19" t="s">
         <v>27</v>
@@ -35167,10 +35236,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C537" s="3" t="s">
         <v>2700</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>2701</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>27</v>
@@ -35213,10 +35282,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="19" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C538" s="19" t="s">
         <v>2702</v>
-      </c>
-      <c r="C538" s="19" t="s">
-        <v>2703</v>
       </c>
       <c r="D538" s="19" t="s">
         <v>472</v>
@@ -35231,13 +35300,13 @@
         <v>1227</v>
       </c>
       <c r="H538" s="19" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I538" s="19">
         <v>1994</v>
       </c>
       <c r="J538" s="19" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K538" s="19" t="s">
         <v>22</v>
@@ -35258,7 +35327,7 @@
       </c>
       <c r="R538" s="19"/>
       <c r="S538" s="19" t="s">
-        <v>3004</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35266,10 +35335,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C539" s="3" t="s">
         <v>2706</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>2707</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>839</v>
@@ -35278,10 +35347,10 @@
         <v>87</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="H539" s="3" t="s">
         <v>27</v>
@@ -35303,7 +35372,7 @@
         <v>20</v>
       </c>
       <c r="O539" s="3" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="P539" s="3"/>
     </row>
@@ -35312,10 +35381,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="19" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C540" s="19" t="s">
         <v>2710</v>
-      </c>
-      <c r="C540" s="19" t="s">
-        <v>2711</v>
       </c>
       <c r="D540" s="19" t="s">
         <v>1121</v>
@@ -35324,13 +35393,13 @@
         <v>106</v>
       </c>
       <c r="F540" s="19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="G540" s="19" t="s">
         <v>2712</v>
       </c>
-      <c r="G540" s="19" t="s">
+      <c r="H540" s="19" t="s">
         <v>2713</v>
-      </c>
-      <c r="H540" s="19" t="s">
-        <v>2714</v>
       </c>
       <c r="I540" s="19">
         <v>2002</v>
@@ -35360,13 +35429,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C541" s="3" t="s">
         <v>2715</v>
       </c>
-      <c r="C541" s="3" t="s">
+      <c r="D541" s="3" t="s">
         <v>2716</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>2717</v>
       </c>
       <c r="E541" s="3">
         <v>98</v>
@@ -35378,13 +35447,13 @@
         <v>27</v>
       </c>
       <c r="H541" s="3" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="I541" s="3">
         <v>2019</v>
       </c>
       <c r="J541" s="3" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="K541" s="3" t="s">
         <v>20</v>
@@ -35408,13 +35477,13 @@
         <v>541</v>
       </c>
       <c r="B542" s="19" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C542" s="19" t="s">
         <v>2720</v>
       </c>
-      <c r="C542" s="19" t="s">
+      <c r="D542" s="19" t="s">
         <v>2721</v>
-      </c>
-      <c r="D542" s="19" t="s">
-        <v>2722</v>
       </c>
       <c r="E542" s="19">
         <v>6</v>
@@ -35426,13 +35495,13 @@
         <v>104</v>
       </c>
       <c r="H542" s="19" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="I542" s="19">
         <v>2023</v>
       </c>
       <c r="J542" s="19" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="K542" s="19" t="s">
         <v>22</v>
@@ -35453,7 +35522,7 @@
       </c>
       <c r="R542" s="19"/>
       <c r="S542" s="19" t="s">
-        <v>3001</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35461,31 +35530,31 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C543" s="3" t="s">
         <v>2725</v>
       </c>
-      <c r="C543" s="3" t="s">
+      <c r="D543" s="3" t="s">
         <v>2726</v>
-      </c>
-      <c r="D543" s="3" t="s">
-        <v>2727</v>
       </c>
       <c r="E543" s="3">
         <v>16</v>
       </c>
       <c r="F543" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G543" s="3" t="s">
         <v>2728</v>
       </c>
-      <c r="G543" s="3" t="s">
+      <c r="H543" s="3" t="s">
         <v>2729</v>
-      </c>
-      <c r="H543" s="3" t="s">
-        <v>2730</v>
       </c>
       <c r="I543" s="3">
         <v>1993</v>
       </c>
       <c r="J543" s="3" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="K543" s="3" t="s">
         <v>20</v>
@@ -35509,13 +35578,13 @@
         <v>543</v>
       </c>
       <c r="B544" s="19" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C544" s="19" t="s">
         <v>2732</v>
       </c>
-      <c r="C544" s="19" t="s">
+      <c r="D544" s="19" t="s">
         <v>2733</v>
-      </c>
-      <c r="D544" s="19" t="s">
-        <v>2734</v>
       </c>
       <c r="E544" s="19">
         <v>46</v>
@@ -35533,7 +35602,7 @@
         <v>2013</v>
       </c>
       <c r="J544" s="19" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="K544" s="19" t="s">
         <v>22</v>
@@ -35546,7 +35615,7 @@
         <v>36</v>
       </c>
       <c r="O544" s="19" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="P544" s="19"/>
     </row>
@@ -35555,10 +35624,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C545" s="3" t="s">
         <v>2737</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>2738</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>27</v>
@@ -35601,10 +35670,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="19" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C546" s="19" t="s">
         <v>2739</v>
-      </c>
-      <c r="C546" s="19" t="s">
-        <v>2740</v>
       </c>
       <c r="D546" s="19" t="s">
         <v>102</v>
@@ -35619,13 +35688,13 @@
         <v>27</v>
       </c>
       <c r="H546" s="19" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="I546" s="19">
         <v>2024</v>
       </c>
       <c r="J546" s="19" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="K546" s="19" t="s">
         <v>22</v>
@@ -35651,10 +35720,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C547" s="3" t="s">
         <v>2743</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>2744</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>27</v>
@@ -35703,10 +35772,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="19" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C548" s="19" t="s">
         <v>2745</v>
-      </c>
-      <c r="C548" s="19" t="s">
-        <v>2746</v>
       </c>
       <c r="D548" s="19" t="s">
         <v>27</v>
@@ -35749,19 +35818,19 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C549" s="3" t="s">
         <v>2747</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="D549" s="3" t="s">
         <v>2748</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>2749</v>
       </c>
       <c r="E549" s="3">
         <v>25</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>1525</v>
@@ -35773,7 +35842,7 @@
         <v>1996</v>
       </c>
       <c r="J549" s="3" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="K549" s="3" t="s">
         <v>20</v>
@@ -35797,10 +35866,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="19" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C550" s="19" t="s">
         <v>2752</v>
-      </c>
-      <c r="C550" s="19" t="s">
-        <v>2753</v>
       </c>
       <c r="D550" s="19" t="s">
         <v>452</v>
@@ -35815,13 +35884,13 @@
         <v>27</v>
       </c>
       <c r="H550" s="19" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="I550" s="19">
         <v>2020</v>
       </c>
       <c r="J550" s="19" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="K550" s="19" t="s">
         <v>20</v>
@@ -35845,13 +35914,13 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C551" s="3" t="s">
         <v>2756</v>
       </c>
-      <c r="C551" s="3" t="s">
-        <v>2757</v>
-      </c>
       <c r="D551" s="3" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E551" s="3"/>
       <c r="F551" s="3" t="s">
@@ -35861,13 +35930,13 @@
         <v>27</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="I551" s="3">
         <v>2020</v>
       </c>
       <c r="J551" s="3" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="K551" s="3" t="s">
         <v>22</v>
@@ -35889,10 +35958,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="19" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C552" s="19" t="s">
         <v>2760</v>
-      </c>
-      <c r="C552" s="19" t="s">
-        <v>2761</v>
       </c>
       <c r="D552" s="19" t="s">
         <v>27</v>
@@ -35935,13 +36004,13 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C553" s="3" t="s">
         <v>2762</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="D553" s="3" t="s">
         <v>2763</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>2764</v>
       </c>
       <c r="E553" s="3">
         <v>44</v>
@@ -35953,13 +36022,13 @@
         <v>1679</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="I553" s="3">
         <v>2014</v>
       </c>
       <c r="J553" s="3" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="K553" s="3" t="s">
         <v>20</v>
@@ -35983,10 +36052,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="19" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C554" s="19" t="s">
         <v>2767</v>
-      </c>
-      <c r="C554" s="19" t="s">
-        <v>2768</v>
       </c>
       <c r="D554" s="19" t="s">
         <v>1477</v>
@@ -35995,10 +36064,10 @@
         <v>91</v>
       </c>
       <c r="F554" s="19" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G554" s="19" t="s">
         <v>2769</v>
-      </c>
-      <c r="G554" s="19" t="s">
-        <v>2770</v>
       </c>
       <c r="H554" s="19" t="s">
         <v>27</v>
@@ -36007,7 +36076,7 @@
         <v>2001</v>
       </c>
       <c r="J554" s="19" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="K554" s="19" t="s">
         <v>20</v>
@@ -36025,7 +36094,7 @@
         <v>36</v>
       </c>
       <c r="P554" s="19" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36033,10 +36102,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C555" s="3" t="s">
         <v>2772</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>2773</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>64</v>
@@ -36045,19 +36114,19 @@
         <v>148</v>
       </c>
       <c r="F555" s="3" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G555" s="3" t="s">
         <v>2774</v>
       </c>
-      <c r="G555" s="3" t="s">
+      <c r="H555" s="3" t="s">
         <v>2775</v>
-      </c>
-      <c r="H555" s="3" t="s">
-        <v>2776</v>
       </c>
       <c r="I555" s="3">
         <v>2000</v>
       </c>
       <c r="J555" s="3" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="K555" s="3" t="s">
         <v>20</v>
@@ -36081,10 +36150,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="19" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C556" s="19" t="s">
         <v>2778</v>
-      </c>
-      <c r="C556" s="19" t="s">
-        <v>2779</v>
       </c>
       <c r="D556" s="19" t="s">
         <v>15</v>
@@ -36093,19 +36162,19 @@
         <v>16</v>
       </c>
       <c r="F556" s="19" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G556" s="19" t="s">
         <v>2780</v>
       </c>
-      <c r="G556" s="19" t="s">
+      <c r="H556" s="19" t="s">
         <v>2781</v>
-      </c>
-      <c r="H556" s="19" t="s">
-        <v>2782</v>
       </c>
       <c r="I556" s="19">
         <v>2006</v>
       </c>
       <c r="J556" s="19" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="K556" s="19" t="s">
         <v>268</v>
@@ -36129,13 +36198,13 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C557" s="3" t="s">
         <v>2784</v>
       </c>
-      <c r="C557" s="3" t="s">
+      <c r="D557" s="3" t="s">
         <v>2785</v>
-      </c>
-      <c r="D557" s="3" t="s">
-        <v>2786</v>
       </c>
       <c r="E557" s="3">
         <v>10</v>
@@ -36177,13 +36246,13 @@
         <v>557</v>
       </c>
       <c r="B558" s="19" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C558" s="19" t="s">
         <v>2787</v>
       </c>
-      <c r="C558" s="19" t="s">
+      <c r="D558" s="19" t="s">
         <v>2788</v>
-      </c>
-      <c r="D558" s="19" t="s">
-        <v>2789</v>
       </c>
       <c r="E558" s="19">
         <v>157</v>
@@ -36192,7 +36261,7 @@
         <v>1950</v>
       </c>
       <c r="G558" s="19" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H558" s="19" t="s">
         <v>27</v>
@@ -36225,10 +36294,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C559" s="3" t="s">
         <v>2790</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>2791</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>64</v>
@@ -36237,19 +36306,19 @@
         <v>230</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="G559" s="3" t="s">
         <v>1839</v>
       </c>
       <c r="H559" s="3" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="I559" s="3">
         <v>2021</v>
       </c>
       <c r="J559" s="3" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="K559" s="3" t="s">
         <v>20</v>
@@ -36273,10 +36342,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="19" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C560" s="19" t="s">
         <v>2795</v>
-      </c>
-      <c r="C560" s="19" t="s">
-        <v>2796</v>
       </c>
       <c r="D560" s="19" t="s">
         <v>185</v>
@@ -36285,19 +36354,19 @@
         <v>27</v>
       </c>
       <c r="F560" s="19" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G560" s="19" t="s">
         <v>2797</v>
       </c>
-      <c r="G560" s="19" t="s">
+      <c r="H560" s="19" t="s">
         <v>2798</v>
-      </c>
-      <c r="H560" s="19" t="s">
-        <v>2799</v>
       </c>
       <c r="I560" s="19">
         <v>2018</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="K560" s="19" t="s">
         <v>22</v>
@@ -36318,7 +36387,7 @@
       </c>
       <c r="R560" s="19"/>
       <c r="S560" s="19" t="s">
-        <v>2997</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36326,10 +36395,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C561" s="3" t="s">
         <v>2801</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>2802</v>
       </c>
       <c r="D561" s="3" t="s">
         <v>39</v>
@@ -36338,19 +36407,19 @@
         <v>17</v>
       </c>
       <c r="F561" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G561" s="3" t="s">
         <v>2803</v>
       </c>
-      <c r="G561" s="3" t="s">
+      <c r="H561" s="3" t="s">
         <v>2804</v>
-      </c>
-      <c r="H561" s="3" t="s">
-        <v>2805</v>
       </c>
       <c r="I561" s="3">
         <v>2014</v>
       </c>
       <c r="J561" s="3" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="K561" s="3" t="s">
         <v>20</v>
@@ -36374,31 +36443,31 @@
         <v>561</v>
       </c>
       <c r="B562" s="19" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C562" s="19" t="s">
         <v>2807</v>
       </c>
-      <c r="C562" s="19" t="s">
+      <c r="D562" s="19" t="s">
         <v>2808</v>
-      </c>
-      <c r="D562" s="19" t="s">
-        <v>2809</v>
       </c>
       <c r="E562" s="19">
         <v>70</v>
       </c>
       <c r="F562" s="19" t="s">
+        <v>2809</v>
+      </c>
+      <c r="G562" s="19" t="s">
         <v>2810</v>
       </c>
-      <c r="G562" s="19" t="s">
+      <c r="H562" s="19" t="s">
         <v>2811</v>
-      </c>
-      <c r="H562" s="19" t="s">
-        <v>2812</v>
       </c>
       <c r="I562" s="19">
         <v>2001</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="K562" s="19" t="s">
         <v>22</v>
@@ -36418,10 +36487,10 @@
         <v>20</v>
       </c>
       <c r="R562" s="19" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
       <c r="S562" s="19" t="s">
-        <v>3028</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36429,10 +36498,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C563" s="3" t="s">
         <v>2814</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>2815</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>185</v>
@@ -36441,19 +36510,19 @@
         <v>32</v>
       </c>
       <c r="F563" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G563" s="3" t="s">
         <v>2816</v>
       </c>
-      <c r="G563" s="3" t="s">
+      <c r="H563" s="3" t="s">
         <v>2817</v>
-      </c>
-      <c r="H563" s="3" t="s">
-        <v>2818</v>
       </c>
       <c r="I563" s="3">
         <v>2023</v>
       </c>
       <c r="J563" s="3" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="K563" s="3" t="s">
         <v>22</v>
@@ -36479,31 +36548,31 @@
         <v>563</v>
       </c>
       <c r="B564" s="19" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C564" s="19" t="s">
         <v>2820</v>
       </c>
-      <c r="C564" s="19" t="s">
+      <c r="D564" s="19" t="s">
         <v>2821</v>
-      </c>
-      <c r="D564" s="19" t="s">
-        <v>2822</v>
       </c>
       <c r="E564" s="19">
         <v>13</v>
       </c>
       <c r="F564" s="19" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="G564" s="19" t="s">
+        <v>2822</v>
+      </c>
+      <c r="H564" s="19" t="s">
         <v>2823</v>
-      </c>
-      <c r="H564" s="19" t="s">
-        <v>2824</v>
       </c>
       <c r="I564" s="19">
         <v>2017</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="K564" s="19" t="s">
         <v>20</v>
@@ -36527,10 +36596,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C565" s="3" t="s">
         <v>2826</v>
-      </c>
-      <c r="C565" s="3" t="s">
-        <v>2827</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>636</v>
@@ -36545,13 +36614,13 @@
         <v>27</v>
       </c>
       <c r="H565" s="3" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="I565" s="3">
         <v>2023</v>
       </c>
       <c r="J565" s="3" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="K565" s="3" t="s">
         <v>22</v>
@@ -36577,10 +36646,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="19" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C566" s="19" t="s">
         <v>2830</v>
-      </c>
-      <c r="C566" s="19" t="s">
-        <v>2831</v>
       </c>
       <c r="D566" s="19" t="s">
         <v>27</v>
@@ -36626,7 +36695,7 @@
         <v>27</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>27</v>
@@ -36645,7 +36714,7 @@
         <v>2003</v>
       </c>
       <c r="J567" s="3" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="K567" s="3" t="s">
         <v>20</v>
@@ -36669,10 +36738,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="19" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C568" s="19" t="s">
         <v>2834</v>
-      </c>
-      <c r="C568" s="19" t="s">
-        <v>2835</v>
       </c>
       <c r="D568" s="19" t="s">
         <v>2241</v>
@@ -36681,19 +36750,19 @@
         <v>29</v>
       </c>
       <c r="F568" s="19" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="G568" s="19" t="s">
         <v>777</v>
       </c>
       <c r="H568" s="19" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="I568" s="19">
         <v>2018</v>
       </c>
       <c r="J568" s="19" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="K568" s="19" t="s">
         <v>20</v>
@@ -36717,10 +36786,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C569" s="3" t="s">
         <v>2838</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>2839</v>
       </c>
       <c r="D569" s="3" t="s">
         <v>572</v>
@@ -36729,19 +36798,19 @@
         <v>448</v>
       </c>
       <c r="F569" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G569" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="G569" s="3" t="s">
+      <c r="H569" s="3" t="s">
         <v>2841</v>
-      </c>
-      <c r="H569" s="3" t="s">
-        <v>2842</v>
       </c>
       <c r="I569" s="3">
         <v>2020</v>
       </c>
       <c r="J569" s="3" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="K569" s="3" t="s">
         <v>22</v>
@@ -36761,10 +36830,10 @@
         <v>20</v>
       </c>
       <c r="R569" s="3" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="S569" s="3" t="s">
-        <v>2986</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36772,10 +36841,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="19" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C570" s="19" t="s">
         <v>2844</v>
-      </c>
-      <c r="C570" s="19" t="s">
-        <v>2845</v>
       </c>
       <c r="D570" s="19" t="s">
         <v>472</v>
@@ -36784,19 +36853,19 @@
         <v>112</v>
       </c>
       <c r="F570" s="19" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G570" s="19" t="s">
         <v>2846</v>
       </c>
-      <c r="G570" s="19" t="s">
+      <c r="H570" s="19" t="s">
         <v>2847</v>
-      </c>
-      <c r="H570" s="19" t="s">
-        <v>2848</v>
       </c>
       <c r="I570" s="19">
         <v>2020</v>
       </c>
       <c r="J570" s="19" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="K570" s="19" t="s">
         <v>20</v>
@@ -36820,13 +36889,13 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C571" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="C571" s="3" t="s">
+      <c r="D571" s="3" t="s">
         <v>2851</v>
-      </c>
-      <c r="D571" s="3" t="s">
-        <v>2852</v>
       </c>
       <c r="E571" s="3">
         <v>7</v>
@@ -36838,13 +36907,13 @@
         <v>27</v>
       </c>
       <c r="H571" s="3" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="I571" s="3">
         <v>2020</v>
       </c>
       <c r="J571" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="K571" s="3" t="s">
         <v>20</v>
@@ -36868,10 +36937,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="19" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C572" s="19" t="s">
         <v>2855</v>
-      </c>
-      <c r="C572" s="19" t="s">
-        <v>2856</v>
       </c>
       <c r="D572" s="19" t="s">
         <v>15</v>
@@ -36880,19 +36949,19 @@
         <v>27</v>
       </c>
       <c r="F572" s="19" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G572" s="19" t="s">
         <v>2857</v>
       </c>
-      <c r="G572" s="19" t="s">
+      <c r="H572" s="19" t="s">
         <v>2858</v>
-      </c>
-      <c r="H572" s="19" t="s">
-        <v>2859</v>
       </c>
       <c r="I572" s="19">
         <v>2017</v>
       </c>
       <c r="J572" s="19" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="K572" s="19" t="s">
         <v>20</v>
@@ -36919,28 +36988,28 @@
         <v>1784</v>
       </c>
       <c r="C573" s="3" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E573" s="3">
+        <v>20</v>
+      </c>
+      <c r="F573" s="3" t="s">
         <v>2861</v>
       </c>
-      <c r="D573" s="3" t="s">
-        <v>2727</v>
-      </c>
-      <c r="E573" s="3">
-        <v>20</v>
-      </c>
-      <c r="F573" s="3" t="s">
+      <c r="G573" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="G573" s="3" t="s">
+      <c r="H573" s="3" t="s">
         <v>2863</v>
-      </c>
-      <c r="H573" s="3" t="s">
-        <v>2864</v>
       </c>
       <c r="I573" s="3">
         <v>1997</v>
       </c>
       <c r="J573" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="K573" s="3" t="s">
         <v>20</v>
@@ -36964,10 +37033,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="23" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C574" s="23" t="s">
         <v>2866</v>
-      </c>
-      <c r="C574" s="23" t="s">
-        <v>2867</v>
       </c>
       <c r="D574" s="23" t="s">
         <v>64</v>
@@ -36979,16 +37048,16 @@
         <v>1164</v>
       </c>
       <c r="G574" s="23" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="H574" s="23" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="I574" s="23">
         <v>2002</v>
       </c>
       <c r="J574" s="23" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="K574" s="23" t="s">
         <v>22</v>
@@ -37008,10 +37077,10 @@
         <v>20</v>
       </c>
       <c r="R574" s="23" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
       <c r="S574" s="23" t="s">
-        <v>2985</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37442,9 +37511,9 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Z576" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="17">
       <filters>
-        <filter val="Unaltered fungal community after fire prevention treatments over widespread Mediterranean rockroses (&lt;i&gt;Halimium lasianthum)&lt;/i&gt;"/>
+        <filter val="Duplicated_dataset"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37458,11 +37527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK1000"/>
+  <dimension ref="A1:AK998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37501,103 +37570,103 @@
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2871</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2872</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>3005</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>3027</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>2895</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="M1" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>2873</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>2874</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>2875</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>2876</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>2877</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>2878</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2976</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>2978</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>2927</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>2937</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>2871</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2950</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>2872</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2873</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>3011</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>3033</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2897</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>2874</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>2875</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>2876</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>2877</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>2878</v>
-      </c>
-      <c r="S1" s="12" t="s">
+      <c r="X1" s="11" t="s">
+        <v>2938</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>2969</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>2939</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>2919</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>2900</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>2879</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>2982</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>2983</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>2984</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>2930</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>2941</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>2975</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>2942</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>2900</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>2922</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>2901</v>
-      </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>2880</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>2881</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="16" t="s">
         <v>2882</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>2883</v>
       </c>
       <c r="AH1" s="16"/>
       <c r="AI1" s="16"/>
@@ -37615,13 +37684,13 @@
         <v>2009</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37635,19 +37704,19 @@
         <v>2011</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H3" s="1">
+        <v>65.147930000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>147.47122999999999</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2909</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="P3" s="1">
         <v>2004</v>
@@ -37661,13 +37730,13 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="D4" s="1">
         <v>2023</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="P4" s="1">
         <v>2004</v>
@@ -37681,522 +37750,513 @@
         <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D5" s="1">
         <v>2007</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2007</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>2948</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>2917</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>2962</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>2898</v>
       </c>
-      <c r="D6" s="6">
+      <c r="P6" s="7">
+        <v>2003</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>4</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2007</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>2948</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>2917</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>2962</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2003</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>481</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>2898</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2009</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>8</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>2918</v>
+      </c>
+      <c r="W8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>452</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="X9" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>396</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1999</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>389</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1995</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>2949</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>389</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1995</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>2949</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>2952</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>366</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1994</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>356</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D14" s="1">
         <v>2020</v>
       </c>
-      <c r="E6" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>2968</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>2971</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P6" s="6">
-        <v>2014</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>2970</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>10</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2973</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2968</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>2971</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2014</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>2970</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>11</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2007</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>2951</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>2920</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>2965</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P8" s="7">
-        <v>2003</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>4</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>2921</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>2973</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2010</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2007</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>2951</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>2920</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>2965</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P9" s="7">
-        <v>2003</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>4</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>2921</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>2966</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>2967</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>481</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E14" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>2928</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>2929</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>2899</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="6">
-        <v>2009</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>8</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>2921</v>
-      </c>
-      <c r="W10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB10" s="6" t="s">
+      <c r="P14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AF14" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>452</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="X11" s="1">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>396</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1999</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>389</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2898</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2019</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1995</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>2952</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>18</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>2953</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>389</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2019</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1995</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>2952</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>2955</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>2953</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>2938</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1994</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="P15" s="1">
+        <v>1997</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1600</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>2961</v>
-      </c>
       <c r="AD15" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>36</v>
@@ -38207,210 +38267,228 @@
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
-        <v>356</v>
+        <v>29</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1873</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1999</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>2961</v>
-      </c>
       <c r="AD16" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>2967</v>
+        <v>2974</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1071</v>
+        <v>183</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2897</v>
       </c>
       <c r="D17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2976</v>
+        <v>1999</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2928</v>
+        <v>2971</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2972</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1997</v>
-      </c>
-      <c r="R17" s="1">
-        <v>1600</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="W17" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>2961</v>
+        <v>2898</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>36</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>183</v>
+        <v>970</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D18" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>2899</v>
+      <c r="P18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="R18" s="1">
+        <v>90000</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>2980</v>
+        <v>2931</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
-        <v>29</v>
+        <v>564</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>183</v>
+        <v>2825</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D19" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>2899</v>
+      <c r="P19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U19" s="1">
+        <v>12</v>
+      </c>
+      <c r="V19" s="1">
+        <v>36</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>2960</v>
+        <v>2983</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>2984</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
-        <v>170</v>
+        <v>562</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>970</v>
+        <v>2813</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2017</v>
-      </c>
-      <c r="R20" s="1">
-        <v>90000</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>2921</v>
+      <c r="U20" s="1">
+        <v>57</v>
       </c>
       <c r="AA20" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>2935</v>
@@ -38418,759 +38496,875 @@
     </row>
     <row r="21" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2826</v>
+        <v>2794</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D21" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>2899</v>
-      </c>
       <c r="P21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>2987</v>
+        <v>2014</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="U21" s="1">
-        <v>12</v>
-      </c>
-      <c r="V21" s="1">
-        <v>36</v>
-      </c>
-      <c r="W21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>4</v>
+        <v>2918</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>2988</v>
+        <v>2982</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>2989</v>
+        <v>2930</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>2990</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>2990</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2814</v>
+        <v>2738</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D22" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2991</v>
+        <v>2985</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>2899</v>
+      <c r="Q22" s="18" t="s">
+        <v>2993</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2918</v>
       </c>
       <c r="U22" s="1">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>22</v>
+        <v>2928</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>2934</v>
+        <v>2950</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>2795</v>
+        <v>2719</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D23" s="1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2014</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>2935</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2739</v>
+        <v>2701</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1994</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D24" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>2999</v>
+      <c r="P24" s="1">
+        <v>1988</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="U24" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>2931</v>
+        <v>2918</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>2935</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2720</v>
+        <v>2691</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>3000</v>
+      <c r="P25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U25" s="1">
+        <v>9</v>
+      </c>
+      <c r="V25" s="1">
+        <v>36</v>
+      </c>
+      <c r="W25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2702</v>
+        <v>2634</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2898</v>
+        <v>3002</v>
       </c>
       <c r="D26" s="1">
-        <v>1994</v>
+        <v>2020</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2014</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1988</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>2921</v>
+        <v>2989</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="V26" s="1">
+        <v>135</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>3003</v>
+        <v>2930</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>2951</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2692</v>
+        <v>2532</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D27" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2018</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>3005</v>
+      <c r="Q27" s="1">
+        <v>8</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>3012</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="U27" s="1">
-        <v>9</v>
+        <v>2918</v>
       </c>
       <c r="V27" s="1">
-        <v>36</v>
-      </c>
-      <c r="W27" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>2946</v>
+        <v>3013</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>2938</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2635</v>
+        <v>2526</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3008</v>
+        <v>2897</v>
       </c>
       <c r="D28" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="1">
         <v>2020</v>
       </c>
-      <c r="E28" s="1">
-        <v>2014</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>2951</v>
+        <v>3015</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>3009</v>
-      </c>
-      <c r="V28" s="1">
-        <v>135</v>
+        <v>2956</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>2918</v>
       </c>
       <c r="AA28" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE28" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>3010</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>2953</v>
-      </c>
       <c r="AF28" s="1" t="s">
-        <v>2954</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2533</v>
+        <v>2494</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D29" s="1">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>3017</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>2951</v>
+      <c r="H29" s="1">
+        <v>-17.016667000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>145.58333300000001</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3016</v>
+        <v>3018</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>3019</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>8</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>3018</v>
+        <v>2992</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>3021</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="V29" s="1">
-        <v>27</v>
+        <v>2918</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>2931</v>
+        <v>2958</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>3019</v>
+        <v>36</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>2933</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2527</v>
+        <v>2429</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D30" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3021</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>2899</v>
+      <c r="P30" s="1" t="s">
+        <v>3031</v>
       </c>
       <c r="Q30" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
+      </c>
+      <c r="U30" s="1">
+        <v>8</v>
+      </c>
+      <c r="W30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>4</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>2931</v>
+        <v>2958</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>2946</v>
+        <v>36</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>2938</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2495</v>
+        <v>2415</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D31" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2994</v>
+        <v>2023</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2020</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="H31" s="1">
-        <v>-17.016667000000002</v>
-      </c>
-      <c r="I31" s="1">
-        <v>145.58333300000001</v>
+        <v>2948</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>3025</v>
+        <v>3033</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>2994</v>
+        <v>2992</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2020</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>3005</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>3027</v>
+        <v>2999</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>2921</v>
+        <v>2961</v>
+      </c>
+      <c r="U31" s="1">
+        <v>3</v>
+      </c>
+      <c r="W31" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>3</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>36</v>
+        <v>2928</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>2960</v>
+        <v>2930</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2430</v>
+        <v>2401</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>3036</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>3037</v>
+      <c r="P32" s="1">
+        <v>2007</v>
       </c>
       <c r="Q32" s="1">
-        <v>14</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="U32" s="1">
-        <v>8</v>
-      </c>
-      <c r="W32" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>2960</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2416</v>
+        <v>2347</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D33" s="1">
         <v>2023</v>
       </c>
-      <c r="E33" s="1">
-        <v>2020</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>2995</v>
+        <v>2989</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3039</v>
+        <v>3033</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L33" s="1" t="s">
+        <v>3042</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="P33" s="1">
-        <v>2020</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>3005</v>
+        <v>2992</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="U33" s="1">
-        <v>3</v>
-      </c>
-      <c r="W33" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>3</v>
+        <v>2918</v>
+      </c>
+      <c r="V33" s="1">
+        <v>36</v>
       </c>
       <c r="AA33" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE33" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="AC33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>2934</v>
-      </c>
       <c r="AF33" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>2402</v>
+        <v>2331</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="D34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>3040</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="P34" s="1">
-        <v>2007</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1</v>
+      <c r="AA34" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>2932</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>2348</v>
+        <v>2294</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="D35" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="P35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="V35" s="1">
+        <v>141</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>448</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="V35" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA35" s="1" t="s">
+      <c r="N36" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U36" s="1">
+        <v>62</v>
+      </c>
+      <c r="W36" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE36" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="AB35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="AF36" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>443</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-26.833333</v>
+      </c>
+      <c r="I37" s="1">
+        <v>152.88333299999999</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
     <row r="38" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -40132,8 +40326,6 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:AG1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DB700-D363-49B9-BE6C-AE0E79E4E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B83E57-C23B-4E51-9539-6A2ED8451865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="3055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7403" uniqueCount="3084">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -9030,9 +9030,6 @@
     <t>rRNA</t>
   </si>
   <si>
-    <t>16S; 18S</t>
-  </si>
-  <si>
     <t>Southeastern_Australia</t>
   </si>
   <si>
@@ -9192,9 +9189,6 @@
     <t>Off_topic</t>
   </si>
   <si>
-    <t>No_replication</t>
-  </si>
-  <si>
     <t>Fire_time</t>
   </si>
   <si>
@@ -9241,6 +9235,99 @@
   </si>
   <si>
     <t>Eucalyptus_pilularis</t>
+  </si>
+  <si>
+    <t>No replicates. Study in Cistus ladanifer. Sporocarp survey</t>
+  </si>
+  <si>
+    <t>South_Australia</t>
+  </si>
+  <si>
+    <t>High_severity</t>
+  </si>
+  <si>
+    <t>2.1M ha</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
+    <t>1999; 2000</t>
+  </si>
+  <si>
+    <t>No control. They compare red vs black soils, all burned</t>
+  </si>
+  <si>
+    <t>Kansas_USA</t>
+  </si>
+  <si>
+    <t>Georgia_USA</t>
+  </si>
+  <si>
+    <t>Pinus_palustris</t>
+  </si>
+  <si>
+    <t>Tallgrass_praire</t>
+  </si>
+  <si>
+    <t>0_2.5</t>
+  </si>
+  <si>
+    <t>0_2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO UB control. No replication either…</t>
+  </si>
+  <si>
+    <t>Insufficient</t>
+  </si>
+  <si>
+    <t>Reported methods are insufficient and results do not cover the extent of this meta-analysis</t>
+  </si>
+  <si>
+    <t>Pinus_tadea</t>
+  </si>
+  <si>
+    <t>3?</t>
+  </si>
+  <si>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>Ion_torrent_sequencing</t>
+  </si>
+  <si>
+    <t>Ion torrent sequencing</t>
+  </si>
+  <si>
+    <t>Bioassay. Results only report % of colonization and morfotypes. Probably will be discarded</t>
+  </si>
+  <si>
+    <t>Root_tips</t>
+  </si>
+  <si>
+    <t>Chronosequence. Only 1 replica per time series</t>
+  </si>
+  <si>
+    <t>Eucalyptus_oblicua</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>0_10; 20_30</t>
+  </si>
+  <si>
+    <t>Great_Lakes</t>
+  </si>
+  <si>
+    <t>continental?</t>
+  </si>
+  <si>
+    <t>Only truffle survey. Hypogeous fungi</t>
   </si>
 </sst>
 </file>
@@ -9679,8 +9766,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R444" sqref="R444"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V437" sqref="V437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9759,7 +9846,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9814,7 +9901,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9865,7 +9952,7 @@
         <v>20</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>2921</v>
@@ -9919,7 +10006,7 @@
       </c>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9970,13 +10057,13 @@
         <v>20</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>2904</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10028,7 +10115,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10176,7 +10263,7 @@
       </c>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10227,7 +10314,7 @@
         <v>20</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>2914</v>
@@ -10282,13 +10369,13 @@
         <v>20</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10434,7 +10521,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10483,7 +10570,7 @@
         <v>20</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>2920</v>
@@ -11149,7 +11236,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17787,7 +17874,7 @@
       </c>
       <c r="P170" s="19"/>
     </row>
-    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18641,7 +18728,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -26533,7 +26620,7 @@
       </c>
       <c r="P356" s="19"/>
     </row>
-    <row r="357" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -27011,7 +27098,7 @@
       </c>
       <c r="P366" s="19"/>
     </row>
-    <row r="367" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -28110,7 +28197,7 @@
       </c>
       <c r="P389" s="3"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -28443,7 +28530,7 @@
       </c>
       <c r="P396" s="19"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -28542,7 +28629,7 @@
       </c>
       <c r="P398" s="19"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -28587,8 +28674,11 @@
         <v>23</v>
       </c>
       <c r="P399" s="3"/>
-    </row>
-    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q399" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -28633,8 +28723,11 @@
         <v>23</v>
       </c>
       <c r="P400" s="19"/>
-    </row>
-    <row r="401" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q400" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -28682,7 +28775,7 @@
       </c>
       <c r="P401" s="3"/>
     </row>
-    <row r="402" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -28728,7 +28821,7 @@
       </c>
       <c r="P402" s="19"/>
     </row>
-    <row r="403" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -28774,7 +28867,7 @@
       </c>
       <c r="P403" s="3"/>
     </row>
-    <row r="404" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -28819,8 +28912,17 @@
         <v>23</v>
       </c>
       <c r="P404" s="19"/>
-    </row>
-    <row r="405" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q404" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -28865,8 +28967,14 @@
         <v>23</v>
       </c>
       <c r="P405" s="3"/>
-    </row>
-    <row r="406" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -28912,7 +29020,7 @@
       </c>
       <c r="P406" s="19"/>
     </row>
-    <row r="407" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -28960,7 +29068,7 @@
       </c>
       <c r="P407" s="3"/>
     </row>
-    <row r="408" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -29008,7 +29116,7 @@
       </c>
       <c r="P408" s="19"/>
     </row>
-    <row r="409" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -29054,7 +29162,7 @@
       </c>
       <c r="P409" s="3"/>
     </row>
-    <row r="410" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -29102,7 +29210,7 @@
       </c>
       <c r="P410" s="19"/>
     </row>
-    <row r="411" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -29147,8 +29255,14 @@
         <v>23</v>
       </c>
       <c r="P411" s="3"/>
-    </row>
-    <row r="412" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q411" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -29196,7 +29310,7 @@
       </c>
       <c r="P412" s="19"/>
     </row>
-    <row r="413" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -29242,7 +29356,7 @@
       </c>
       <c r="P413" s="3"/>
     </row>
-    <row r="414" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -29292,7 +29406,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -29338,7 +29452,7 @@
       </c>
       <c r="P415" s="3"/>
     </row>
-    <row r="416" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -29383,8 +29497,14 @@
         <v>23</v>
       </c>
       <c r="P416" s="19"/>
-    </row>
-    <row r="417" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q416" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -29429,8 +29549,14 @@
         <v>23</v>
       </c>
       <c r="P417" s="3"/>
-    </row>
-    <row r="418" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q417" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -29476,7 +29602,7 @@
       </c>
       <c r="P418" s="19"/>
     </row>
-    <row r="419" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -29524,7 +29650,7 @@
       </c>
       <c r="P419" s="3"/>
     </row>
-    <row r="420" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -29572,7 +29698,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -29620,7 +29746,7 @@
       </c>
       <c r="P421" s="3"/>
     </row>
-    <row r="422" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -29665,8 +29791,17 @@
         <v>23</v>
       </c>
       <c r="P422" s="19"/>
-    </row>
-    <row r="423" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q422" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -29716,7 +29851,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -29764,7 +29899,7 @@
       </c>
       <c r="P424" s="19"/>
     </row>
-    <row r="425" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -29809,8 +29944,17 @@
         <v>23</v>
       </c>
       <c r="P425" s="3"/>
-    </row>
-    <row r="426" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q425" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -29855,8 +29999,11 @@
         <v>23</v>
       </c>
       <c r="P426" s="19"/>
-    </row>
-    <row r="427" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q426" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -29904,7 +30051,7 @@
       </c>
       <c r="P427" s="3"/>
     </row>
-    <row r="428" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -29948,7 +30095,7 @@
       </c>
       <c r="P428" s="19"/>
     </row>
-    <row r="429" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -29993,8 +30140,17 @@
         <v>23</v>
       </c>
       <c r="P429" s="3"/>
-    </row>
-    <row r="430" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q429" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -30044,7 +30200,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -30092,7 +30248,7 @@
       </c>
       <c r="P431" s="3"/>
     </row>
-    <row r="432" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -30140,7 +30296,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -30185,6 +30341,9 @@
         <v>23</v>
       </c>
       <c r="P433" s="3"/>
+      <c r="Q433" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
@@ -30232,7 +30391,7 @@
       </c>
       <c r="P434" s="19"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -30277,6 +30436,12 @@
         <v>23</v>
       </c>
       <c r="P435" s="3"/>
+      <c r="Q435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>3083</v>
+      </c>
     </row>
     <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
@@ -30326,7 +30491,7 @@
       </c>
       <c r="P436" s="19"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -30371,6 +30536,9 @@
         <v>23</v>
       </c>
       <c r="P437" s="3"/>
+      <c r="Q437" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
@@ -30420,7 +30588,7 @@
       </c>
       <c r="P438" s="19"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -30465,6 +30633,9 @@
         <v>23</v>
       </c>
       <c r="P439" s="3"/>
+      <c r="Q439" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
@@ -30610,7 +30781,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -30655,8 +30826,17 @@
         <v>23</v>
       </c>
       <c r="P443" s="3"/>
-    </row>
-    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q443" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -30753,7 +30933,7 @@
       </c>
       <c r="P445" s="3"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -30802,13 +30982,13 @@
         <v>20</v>
       </c>
       <c r="R446" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S446" s="1" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -30857,10 +31037,10 @@
         <v>20</v>
       </c>
       <c r="R447" s="1" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="S447" s="1" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30909,7 +31089,7 @@
       </c>
       <c r="P448" s="19"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -30958,10 +31138,10 @@
         <v>22</v>
       </c>
       <c r="S449" s="1" t="s">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -31106,7 +31286,7 @@
       </c>
       <c r="P452" s="19"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -31253,7 +31433,7 @@
       </c>
       <c r="P455" s="3"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -31302,10 +31482,10 @@
         <v>20</v>
       </c>
       <c r="R456" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S456" s="1" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31354,7 +31534,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -31497,7 +31677,7 @@
       </c>
       <c r="P460" s="19"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -31885,10 +32065,10 @@
         <v>20</v>
       </c>
       <c r="R468" s="1" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="S468" s="1" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31935,7 +32115,7 @@
       </c>
       <c r="P469" s="3"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -31984,13 +32164,13 @@
         <v>20</v>
       </c>
       <c r="R470" s="19" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S470" s="19" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -32039,13 +32219,13 @@
         <v>20</v>
       </c>
       <c r="R471" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S471" s="3" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -32191,7 +32371,7 @@
       </c>
       <c r="P474" s="19"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -32241,7 +32421,7 @@
       </c>
       <c r="R475" s="3"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -32288,10 +32468,10 @@
         <v>20</v>
       </c>
       <c r="R476" s="19" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S476" s="19" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32342,7 +32522,7 @@
       </c>
       <c r="P477" s="3"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -32484,7 +32664,7 @@
       </c>
       <c r="P480" s="19"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -32532,14 +32712,14 @@
       <c r="Q481" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R481" s="3" t="s">
-        <v>3038</v>
+      <c r="R481" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S481" s="3" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -32774,7 +32954,7 @@
       </c>
       <c r="P486" s="19"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -32821,10 +33001,10 @@
         <v>20</v>
       </c>
       <c r="R487" s="3" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="S487" s="3" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32873,7 +33053,7 @@
       </c>
       <c r="P488" s="19"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -32921,11 +33101,11 @@
       <c r="Q489" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R489" s="3" t="s">
-        <v>3038</v>
+      <c r="R489" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S489" s="3" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32976,7 +33156,7 @@
       </c>
       <c r="P490" s="19"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -33024,14 +33204,14 @@
       <c r="Q491" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R491" s="3" t="s">
-        <v>3038</v>
+      <c r="R491" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S491" s="3" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -33129,7 +33309,7 @@
       </c>
       <c r="P493" s="3"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -33177,11 +33357,11 @@
       <c r="Q494" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R494" s="19" t="s">
-        <v>3038</v>
+      <c r="R494" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S494" s="19" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33328,7 +33508,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -33378,10 +33558,10 @@
       </c>
       <c r="R498" s="19"/>
       <c r="S498" s="19" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -33431,7 +33611,7 @@
       </c>
       <c r="R499" s="3"/>
       <c r="S499" s="3" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33864,7 +34044,7 @@
       </c>
       <c r="P508" s="19"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -33911,10 +34091,10 @@
         <v>20</v>
       </c>
       <c r="R509" s="3" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="S509" s="3" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34391,7 +34571,7 @@
       </c>
       <c r="P519" s="3"/>
     </row>
-    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -34440,13 +34620,13 @@
         <v>20</v>
       </c>
       <c r="R520" s="19" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S520" s="19" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -34495,13 +34675,13 @@
         <v>20</v>
       </c>
       <c r="R521" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S521" s="3" t="s">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -34645,7 +34825,7 @@
       </c>
       <c r="P524" s="19"/>
     </row>
-    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -34693,14 +34873,14 @@
       <c r="Q525" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R525" s="3" t="s">
-        <v>3036</v>
+      <c r="R525" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S525" s="3" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -34749,10 +34929,10 @@
         <v>20</v>
       </c>
       <c r="R526" s="19" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S526" s="19" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35135,7 +35315,7 @@
       </c>
       <c r="P534" s="19"/>
     </row>
-    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -35277,7 +35457,7 @@
       </c>
       <c r="P537" s="3"/>
     </row>
-    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -35327,7 +35507,7 @@
       </c>
       <c r="R538" s="19"/>
       <c r="S538" s="19" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35472,7 +35652,7 @@
       </c>
       <c r="P541" s="3"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -35522,7 +35702,7 @@
       </c>
       <c r="R542" s="19"/>
       <c r="S542" s="19" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35665,7 +35845,7 @@
       </c>
       <c r="P545" s="3"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -36337,7 +36517,7 @@
       </c>
       <c r="P559" s="3"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -36387,7 +36567,7 @@
       </c>
       <c r="R560" s="19"/>
       <c r="S560" s="19" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -36438,7 +36618,7 @@
       </c>
       <c r="P561" s="3"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -36486,14 +36666,14 @@
       <c r="Q562" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R562" s="19" t="s">
-        <v>3036</v>
+      <c r="R562" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S562" s="19" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -36591,7 +36771,7 @@
       </c>
       <c r="P564" s="19"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -36781,7 +36961,7 @@
       </c>
       <c r="P568" s="19"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -36830,7 +37010,7 @@
         <v>20</v>
       </c>
       <c r="R569" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="S569" s="3" t="s">
         <v>2980</v>
@@ -37028,7 +37208,7 @@
       </c>
       <c r="P573" s="3"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -37076,8 +37256,8 @@
       <c r="Q574" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R574" s="23" t="s">
-        <v>3036</v>
+      <c r="R574" s="1" t="s">
+        <v>3035</v>
       </c>
       <c r="S574" s="23" t="s">
         <v>2979</v>
@@ -37511,9 +37691,20 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Z576" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="17">
+    <filterColumn colId="12">
       <filters>
-        <filter val="Duplicated_dataset"/>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="NO"/>
+        <filter val="YES"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37529,9 +37720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37597,10 +37788,10 @@
         <v>2872</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>2895</v>
@@ -38402,7 +38593,7 @@
         <v>2020</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>2948</v>
@@ -38444,7 +38635,7 @@
         <v>2983</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>2984</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38464,10 +38655,10 @@
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>2985</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>2898</v>
@@ -38508,7 +38699,7 @@
         <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>2948</v>
@@ -38535,7 +38726,7 @@
         <v>2930</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="AF21" s="1" t="s">
         <v>2932</v>
@@ -38555,16 +38746,16 @@
         <v>2024</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>2948</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="Q22" s="18" t="s">
         <v>2992</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>2993</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>2918</v>
@@ -38599,7 +38790,7 @@
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38616,7 +38807,7 @@
         <v>1994</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>2898</v>
@@ -38628,7 +38819,7 @@
         <v>2918</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38660,7 +38851,7 @@
         <v>2018</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>2918</v>
@@ -38701,7 +38892,7 @@
         <v>2634</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D26" s="1">
         <v>2020</v>
@@ -38710,13 +38901,13 @@
         <v>2014</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>2948</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="V26" s="1">
         <v>135</v>
@@ -38725,7 +38916,7 @@
         <v>2928</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>20</v>
@@ -38754,16 +38945,16 @@
         <v>2017</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2948</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>2898</v>
@@ -38772,7 +38963,7 @@
         <v>8</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>2918</v>
@@ -38784,7 +38975,7 @@
         <v>2928</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>2930</v>
@@ -38807,7 +38998,7 @@
         <v>2020</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2956</v>
@@ -38854,13 +39045,13 @@
         <v>2004</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="H29" s="1">
         <v>-17.016667000000002</v>
@@ -38869,28 +39060,28 @@
         <v>145.58333300000001</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2956</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>2992</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>3020</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>2999</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>3021</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>2918</v>
@@ -38925,25 +39116,25 @@
         <v>2012</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3017</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>3029</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>3030</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>2898</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="Q30" s="1">
         <v>14</v>
@@ -38990,25 +39181,25 @@
         <v>2020</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>2948</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="P31" s="1">
         <v>2020</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>2961</v>
@@ -39061,7 +39252,7 @@
         <v>2972</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>22</v>
@@ -39096,22 +39287,22 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>2948</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>2918</v>
@@ -39155,16 +39346,16 @@
         <v>2019</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>2898</v>
@@ -39179,7 +39370,7 @@
         <v>2928</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>22</v>
@@ -39211,13 +39402,13 @@
         <v>2015</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>2972</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>22</v>
@@ -39226,7 +39417,7 @@
         <v>2966</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>2898</v>
@@ -39238,7 +39429,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>2918</v>
@@ -39276,13 +39467,13 @@
         <v>2015</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2972</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>22</v>
@@ -39291,7 +39482,7 @@
         <v>2966</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>2898</v>
@@ -39350,7 +39541,7 @@
         <v>2003</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="H37" s="1">
         <v>-26.833333</v>
@@ -39359,22 +39550,506 @@
         <v>152.88333299999999</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>438</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>3054</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G38" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U38" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>436</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2002</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>434</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2001</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>432</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1999</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>425</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>425</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17">
+        <v>410</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>404</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1997</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>399</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>398</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>2932</v>
+      </c>
+    </row>
     <row r="48" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B83E57-C23B-4E51-9539-6A2ED8451865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE252FDD-56B2-422B-AA37-5D0B5EB6C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7403" uniqueCount="3084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="3090">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -9328,6 +9328,24 @@
   </si>
   <si>
     <t>Only truffle survey. Hypogeous fungi</t>
+  </si>
+  <si>
+    <t>They talk about a "truffle burnt" which has nothing to do with fires</t>
+  </si>
+  <si>
+    <t>They don't present enough information about the methodology…</t>
+  </si>
+  <si>
+    <t>Southwestern_Australia</t>
+  </si>
+  <si>
+    <t>Eucalyptus_marginata</t>
+  </si>
+  <si>
+    <t>Drought</t>
+  </si>
+  <si>
+    <t>Study design is not sufficiently specifyied. No control?</t>
   </si>
 </sst>
 </file>
@@ -9766,8 +9784,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V437" sqref="V437"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S590" sqref="S590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9846,7 +9864,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9901,7 +9919,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10006,7 +10024,7 @@
       </c>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10063,7 +10081,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10115,7 +10133,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10263,7 +10281,7 @@
       </c>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10320,7 +10338,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10375,7 +10393,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10521,7 +10539,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11236,7 +11254,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17874,7 +17892,7 @@
       </c>
       <c r="P170" s="19"/>
     </row>
-    <row r="171" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18728,7 +18746,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -26620,7 +26638,7 @@
       </c>
       <c r="P356" s="19"/>
     </row>
-    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -27098,7 +27116,7 @@
       </c>
       <c r="P366" s="19"/>
     </row>
-    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -27211,7 +27229,7 @@
       <c r="Y368" s="21"/>
       <c r="Z368" s="21"/>
     </row>
-    <row r="369" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -27257,7 +27275,7 @@
       </c>
       <c r="P369" s="3"/>
     </row>
-    <row r="370" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -27305,7 +27323,7 @@
       </c>
       <c r="P370" s="19"/>
     </row>
-    <row r="371" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -27351,7 +27369,7 @@
       </c>
       <c r="P371" s="3"/>
     </row>
-    <row r="372" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -27399,7 +27417,7 @@
       </c>
       <c r="P372" s="19"/>
     </row>
-    <row r="373" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -27445,7 +27463,7 @@
       </c>
       <c r="P373" s="3"/>
     </row>
-    <row r="374" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -27491,7 +27509,7 @@
       </c>
       <c r="P374" s="19"/>
     </row>
-    <row r="375" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -27535,7 +27553,7 @@
       </c>
       <c r="P375" s="3"/>
     </row>
-    <row r="376" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -27583,7 +27601,7 @@
       </c>
       <c r="P376" s="19"/>
     </row>
-    <row r="377" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -27629,7 +27647,7 @@
       </c>
       <c r="P377" s="3"/>
     </row>
-    <row r="378" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -27677,7 +27695,7 @@
       </c>
       <c r="P378" s="19"/>
     </row>
-    <row r="379" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -27722,8 +27740,17 @@
         <v>23</v>
       </c>
       <c r="P379" s="3"/>
-    </row>
-    <row r="380" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q379" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R379" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S379" s="1" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -27759,17 +27786,17 @@
       </c>
       <c r="L380" s="19"/>
       <c r="M380" s="19" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="N380" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O380" s="19" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="P380" s="19"/>
     </row>
-    <row r="381" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -27817,7 +27844,7 @@
       </c>
       <c r="P381" s="3"/>
     </row>
-    <row r="382" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -27865,7 +27892,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -27910,8 +27937,11 @@
         <v>23</v>
       </c>
       <c r="P383" s="3"/>
-    </row>
-    <row r="384" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q383" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -27956,6 +27986,15 @@
         <v>23</v>
       </c>
       <c r="P384" s="19"/>
+      <c r="Q384" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R384" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="S384" s="1" t="s">
+        <v>3084</v>
+      </c>
     </row>
     <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
@@ -28197,7 +28236,7 @@
       </c>
       <c r="P389" s="3"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -28529,8 +28568,17 @@
         <v>23</v>
       </c>
       <c r="P396" s="19"/>
-    </row>
-    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q396" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R396" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S396" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -28629,7 +28677,7 @@
       </c>
       <c r="P398" s="19"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -28678,7 +28726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -28867,7 +28915,7 @@
       </c>
       <c r="P403" s="3"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -28922,7 +28970,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -29210,7 +29258,7 @@
       </c>
       <c r="P410" s="19"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -29452,7 +29500,7 @@
       </c>
       <c r="P415" s="3"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -29504,7 +29552,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -29746,7 +29794,7 @@
       </c>
       <c r="P421" s="3"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -29899,7 +29947,7 @@
       </c>
       <c r="P424" s="19"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -29954,7 +30002,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -30095,7 +30143,7 @@
       </c>
       <c r="P428" s="19"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -30296,7 +30344,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -30391,7 +30439,7 @@
       </c>
       <c r="P434" s="19"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -30491,7 +30539,7 @@
       </c>
       <c r="P436" s="19"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -30588,7 +30636,7 @@
       </c>
       <c r="P438" s="19"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -30781,7 +30829,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -30836,7 +30884,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -30933,7 +30981,7 @@
       </c>
       <c r="P445" s="3"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -30988,7 +31036,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -31089,7 +31137,7 @@
       </c>
       <c r="P448" s="19"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -31141,7 +31189,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -31286,7 +31334,7 @@
       </c>
       <c r="P452" s="19"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -31433,7 +31481,7 @@
       </c>
       <c r="P455" s="3"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -31534,7 +31582,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -31677,7 +31725,7 @@
       </c>
       <c r="P460" s="19"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -32016,7 +32064,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -32115,7 +32163,7 @@
       </c>
       <c r="P469" s="3"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -32170,7 +32218,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -32225,7 +32273,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -32371,7 +32419,7 @@
       </c>
       <c r="P474" s="19"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -32421,7 +32469,7 @@
       </c>
       <c r="R475" s="3"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -32522,7 +32570,7 @@
       </c>
       <c r="P477" s="3"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -32664,7 +32712,7 @@
       </c>
       <c r="P480" s="19"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -32719,7 +32767,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -32954,7 +33002,7 @@
       </c>
       <c r="P486" s="19"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -33053,7 +33101,7 @@
       </c>
       <c r="P488" s="19"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -33156,7 +33204,7 @@
       </c>
       <c r="P490" s="19"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -33211,7 +33259,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -33309,7 +33357,7 @@
       </c>
       <c r="P493" s="3"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -33508,7 +33556,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -33561,7 +33609,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -34044,7 +34092,7 @@
       </c>
       <c r="P508" s="19"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -34571,7 +34619,7 @@
       </c>
       <c r="P519" s="3"/>
     </row>
-    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -34626,7 +34674,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -34681,7 +34729,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -34825,7 +34873,7 @@
       </c>
       <c r="P524" s="19"/>
     </row>
-    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -34880,7 +34928,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -35315,7 +35363,7 @@
       </c>
       <c r="P534" s="19"/>
     </row>
-    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -35457,7 +35505,7 @@
       </c>
       <c r="P537" s="3"/>
     </row>
-    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -35652,7 +35700,7 @@
       </c>
       <c r="P541" s="3"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -35845,7 +35893,7 @@
       </c>
       <c r="P545" s="3"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -36517,7 +36565,7 @@
       </c>
       <c r="P559" s="3"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -36618,7 +36666,7 @@
       </c>
       <c r="P561" s="3"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -36673,7 +36721,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -36771,7 +36819,7 @@
       </c>
       <c r="P564" s="19"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -36961,7 +37009,7 @@
       </c>
       <c r="P568" s="19"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -37208,7 +37256,7 @@
       </c>
       <c r="P573" s="3"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -37691,20 +37739,9 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Z576" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="12">
+    <filterColumn colId="2">
       <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="NO"/>
-        <filter val="YES"/>
+        <filter val="Diagnose of species of ectomycorrhizal mushrooms in a natural forest of Pinus cubensis Griseb affected for the fire."/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37720,9 +37757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection pane="bottomLeft" activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -40050,7 +40087,71 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>382</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2016</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4</v>
+      </c>
+      <c r="R48" s="1">
+        <v>69000</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE252FDD-56B2-422B-AA37-5D0B5EB6C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097296D-62EA-4C69-A62C-5C8C7D122C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WOS_download1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="3090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7456" uniqueCount="3093">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -9201,9 +9201,6 @@
     <t>Halimium</t>
   </si>
   <si>
-    <t>Pinus_contortata</t>
-  </si>
-  <si>
     <t>0-5; 5-10</t>
   </si>
   <si>
@@ -9346,6 +9343,18 @@
   </si>
   <si>
     <t>Study design is not sufficiently specifyied. No control?</t>
+  </si>
+  <si>
+    <t>Pinus_contorta</t>
+  </si>
+  <si>
+    <t>Soil; root tips</t>
+  </si>
+  <si>
+    <t>Descrptive</t>
+  </si>
+  <si>
+    <t>1990; 1991</t>
   </si>
 </sst>
 </file>
@@ -9784,8 +9793,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S590" sqref="S590"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A369" sqref="A369:B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10390,7 +10399,7 @@
         <v>3038</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27229,7 +27238,7 @@
       <c r="Y368" s="21"/>
       <c r="Z368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -27274,6 +27283,9 @@
         <v>23</v>
       </c>
       <c r="P369" s="3"/>
+      <c r="Q369" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
@@ -27368,6 +27380,12 @@
         <v>23</v>
       </c>
       <c r="P371" s="3"/>
+      <c r="Q371" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R371" s="1" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
@@ -27695,7 +27713,7 @@
       </c>
       <c r="P378" s="19"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -27747,7 +27765,7 @@
         <v>3035</v>
       </c>
       <c r="S379" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27993,7 +28011,7 @@
         <v>3036</v>
       </c>
       <c r="S384" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28575,7 +28593,7 @@
         <v>3035</v>
       </c>
       <c r="S396" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28967,7 +28985,7 @@
         <v>3035</v>
       </c>
       <c r="S404" s="1" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29019,7 +29037,7 @@
         <v>22</v>
       </c>
       <c r="S405" s="1" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29307,7 +29325,7 @@
         <v>22</v>
       </c>
       <c r="S411" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29843,10 +29861,10 @@
         <v>20</v>
       </c>
       <c r="R422" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="S422" s="1" t="s">
         <v>3068</v>
-      </c>
-      <c r="S422" s="1" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29999,7 +30017,7 @@
         <v>3035</v>
       </c>
       <c r="S425" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30195,7 +30213,7 @@
         <v>3036</v>
       </c>
       <c r="S429" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30488,7 +30506,7 @@
         <v>22</v>
       </c>
       <c r="S435" s="1" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30881,7 +30899,7 @@
         <v>3035</v>
       </c>
       <c r="S443" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31033,7 +31051,7 @@
         <v>3036</v>
       </c>
       <c r="S446" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31088,7 +31106,7 @@
         <v>3037</v>
       </c>
       <c r="S447" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31186,7 +31204,7 @@
         <v>22</v>
       </c>
       <c r="S449" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31533,7 +31551,7 @@
         <v>3036</v>
       </c>
       <c r="S456" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -37741,7 +37759,7 @@
   <autoFilter ref="A1:Z576" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Diagnose of species of ectomycorrhizal mushrooms in a natural forest of Pinus cubensis Griseb affected for the fire."/>
+        <filter val="INTERACTIONS BETWEEN FIRE, MYCOPHAGOUS MAMMALS, AND DISPERSAL OF ECTROMYCORRHIZAL FUNGI IN EUCALYPTUS FORESTS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37757,9 +37775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC51" sqref="AC51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38672,7 +38690,7 @@
         <v>2983</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39383,7 +39401,7 @@
         <v>2019</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>3032</v>
@@ -39392,7 +39410,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>3041</v>
+        <v>3089</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>2898</v>
@@ -39407,7 +39425,7 @@
         <v>2928</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>22</v>
@@ -39439,7 +39457,7 @@
         <v>2015</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>2972</v>
@@ -39454,7 +39472,7 @@
         <v>2966</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>2898</v>
@@ -39466,7 +39484,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>2918</v>
@@ -39504,7 +39522,7 @@
         <v>2015</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2972</v>
@@ -39519,7 +39537,7 @@
         <v>2966</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>2898</v>
@@ -39587,7 +39605,7 @@
         <v>152.88333299999999</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>2991</v>
@@ -39610,7 +39628,7 @@
         <v>2020</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>2948</v>
@@ -39628,7 +39646,7 @@
         <v>2898</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="P38" s="1">
         <v>2019</v>
@@ -39637,7 +39655,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>2918</v>
@@ -39649,7 +39667,7 @@
         <v>2928</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>22</v>
@@ -39661,7 +39679,7 @@
         <v>2931</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39766,7 +39784,7 @@
         <v>2006</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2984</v>
@@ -39810,7 +39828,7 @@
         <v>2021</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>3032</v>
@@ -39819,7 +39837,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>2991</v>
@@ -39834,7 +39852,7 @@
         <v>2928</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="AD42" s="1" t="s">
         <v>2930</v>
@@ -39860,7 +39878,7 @@
         <v>2021</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>3032</v>
@@ -39869,7 +39887,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>2991</v>
@@ -39884,7 +39902,7 @@
         <v>2928</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>2930</v>
@@ -39910,19 +39928,19 @@
         <v>2013</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>3032</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>2991</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>2918</v>
@@ -39931,7 +39949,7 @@
         <v>2928</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>20</v>
@@ -39940,7 +39958,7 @@
         <v>2930</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>2932</v>
@@ -39975,7 +39993,7 @@
         <v>2918</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>2944</v>
@@ -40004,10 +40022,10 @@
         <v>22</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>3078</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>3079</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>2918</v>
@@ -40016,7 +40034,7 @@
         <v>2928</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>22</v>
@@ -40048,10 +40066,10 @@
         <v>2017</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>3081</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>3082</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>3032</v>
@@ -40060,7 +40078,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>2966</v>
@@ -40072,7 +40090,7 @@
         <v>2928</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>22</v>
@@ -40104,7 +40122,7 @@
         <v>2019</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>2948</v>
@@ -40113,7 +40131,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>2898</v>
@@ -40128,7 +40146,7 @@
         <v>69000</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>2918</v>
@@ -40137,7 +40155,7 @@
         <v>2928</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>20</v>
@@ -40152,22 +40170,123 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>372</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2003</v>
+      </c>
+      <c r="R49" s="1">
+        <v>26000</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U49" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
+        <v>368</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Meta_analysis/Metaanalysis_dataset.xlsx
+++ b/Meta_analysis/Metaanalysis_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amara\Desktop\PhDcode\Meta_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097296D-62EA-4C69-A62C-5C8C7D122C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F08EC-3387-4EE5-AC36-4CB4616C03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7456" uniqueCount="3093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="3094">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -9355,6 +9355,9 @@
   </si>
   <si>
     <t>1990; 1991</t>
+  </si>
+  <si>
+    <t>Not sure about the number of samples they took…</t>
   </si>
 </sst>
 </file>
@@ -9794,7 +9797,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A369" sqref="A369:B369"/>
+      <selection activeCell="A360" sqref="A360:B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26793,7 +26796,7 @@
       </c>
       <c r="P359" s="3"/>
     </row>
-    <row r="360" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -26838,6 +26841,12 @@
         <v>23</v>
       </c>
       <c r="P360" s="19"/>
+      <c r="Q360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S360" s="1" t="s">
+        <v>3093</v>
+      </c>
     </row>
     <row r="361" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
@@ -27238,7 +27247,7 @@
       <c r="Y368" s="21"/>
       <c r="Z368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -37759,7 +37768,7 @@
   <autoFilter ref="A1:Z576" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="INTERACTIONS BETWEEN FIRE, MYCOPHAGOUS MAMMALS, AND DISPERSAL OF ECTROMYCORRHIZAL FUNGI IN EUCALYPTUS FORESTS"/>
+        <filter val="Wildfire Effects on Soils of a 55-Year-Old Chaparral and Pine Biosequence"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37777,7 +37786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -40273,7 +40282,14 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>359</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>1888</v>
+      </c>
+    </row>
     <row r="52" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
